--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -451,17 +451,13 @@
         <v>1.892600000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.899</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>1.892416666666668</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>1.892116666666668</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>1.891800000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>1.892133333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>1.892300000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -1334,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1649,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1684,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2696,13 +2656,17 @@
         <v>1.907166666666669</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.9</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2737,8 +2701,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2772,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3186,13 +3162,17 @@
         <v>1.909216666666669</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.924</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3221,14 +3201,22 @@
         <v>1.909616666666669</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3262,8 +3250,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -4204,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="C2" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="D2" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="E2" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="F2" t="n">
-        <v>5265.929436545</v>
+        <v>43560.282</v>
       </c>
       <c r="G2" t="n">
-        <v>1.892600000000002</v>
+        <v>1.892633333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="C3" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="D3" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="E3" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="F3" t="n">
-        <v>1287.0966</v>
+        <v>5265.929436545</v>
       </c>
       <c r="G3" t="n">
-        <v>1.892416666666668</v>
+        <v>1.892600000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.882</v>
+        <v>1.89</v>
       </c>
       <c r="C4" t="n">
-        <v>1.882</v>
+        <v>1.89</v>
       </c>
       <c r="D4" t="n">
-        <v>1.882</v>
+        <v>1.89</v>
       </c>
       <c r="E4" t="n">
-        <v>1.882</v>
+        <v>1.89</v>
       </c>
       <c r="F4" t="n">
-        <v>99000</v>
+        <v>1287.0966</v>
       </c>
       <c r="G4" t="n">
-        <v>1.892116666666668</v>
+        <v>1.892416666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="C5" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="D5" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="E5" t="n">
-        <v>1.881</v>
+        <v>1.882</v>
       </c>
       <c r="F5" t="n">
-        <v>347498.5568</v>
+        <v>99000</v>
       </c>
       <c r="G5" t="n">
-        <v>1.891800000000001</v>
+        <v>1.892116666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="C6" t="n">
-        <v>1.919</v>
+        <v>1.881</v>
       </c>
       <c r="D6" t="n">
-        <v>1.919</v>
+        <v>1.881</v>
       </c>
       <c r="E6" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="F6" t="n">
-        <v>143140.9699</v>
+        <v>347498.5568</v>
       </c>
       <c r="G6" t="n">
-        <v>1.892133333333335</v>
+        <v>1.891800000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="D7" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="E7" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F7" t="n">
-        <v>16179.0035</v>
+        <v>143140.9699</v>
       </c>
       <c r="G7" t="n">
-        <v>1.892300000000002</v>
+        <v>1.892133333333335</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="C8" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="D8" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="E8" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="F8" t="n">
-        <v>277620.8618</v>
+        <v>16179.0035</v>
       </c>
       <c r="G8" t="n">
-        <v>1.892183333333335</v>
+        <v>1.892300000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>1.892</v>
       </c>
       <c r="F9" t="n">
-        <v>40859.9098</v>
+        <v>277620.8618</v>
       </c>
       <c r="G9" t="n">
-        <v>1.892066666666668</v>
+        <v>1.892183333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1.892</v>
       </c>
       <c r="F10" t="n">
-        <v>717363.9157</v>
+        <v>40859.9098</v>
       </c>
       <c r="G10" t="n">
-        <v>1.891933333333335</v>
+        <v>1.892066666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>1.892</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="D11" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="E11" t="n">
         <v>1.892</v>
       </c>
       <c r="F11" t="n">
-        <v>56720.2879</v>
+        <v>717363.9157</v>
       </c>
       <c r="G11" t="n">
-        <v>1.892100000000001</v>
+        <v>1.891933333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="C12" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="D12" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="F12" t="n">
-        <v>104301.47391928</v>
+        <v>56720.2879</v>
       </c>
       <c r="G12" t="n">
-        <v>1.892600000000001</v>
+        <v>1.892100000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="C13" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="D13" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="E13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F13" t="n">
-        <v>100094.3373</v>
+        <v>104301.47391928</v>
       </c>
       <c r="G13" t="n">
-        <v>1.892916666666668</v>
+        <v>1.892600000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="C14" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="D14" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="E14" t="n">
         <v>1.9</v>
       </c>
       <c r="F14" t="n">
-        <v>8783.9925</v>
+        <v>100094.3373</v>
       </c>
       <c r="G14" t="n">
-        <v>1.893033333333335</v>
+        <v>1.892916666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.9</v>
       </c>
       <c r="F15" t="n">
-        <v>29297.7086</v>
+        <v>8783.9925</v>
       </c>
       <c r="G15" t="n">
-        <v>1.893216666666668</v>
+        <v>1.893033333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>1.9</v>
       </c>
       <c r="C16" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="D16" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="E16" t="n">
         <v>1.9</v>
       </c>
       <c r="F16" t="n">
-        <v>8492.134599999999</v>
+        <v>29297.7086</v>
       </c>
       <c r="G16" t="n">
-        <v>1.893566666666668</v>
+        <v>1.893216666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C17" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="D17" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="E17" t="n">
         <v>1.9</v>
       </c>
       <c r="F17" t="n">
-        <v>122927.7806</v>
+        <v>8492.134599999999</v>
       </c>
       <c r="G17" t="n">
-        <v>1.893583333333335</v>
+        <v>1.893566666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>1.909</v>
       </c>
       <c r="C18" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D18" t="n">
         <v>1.909</v>
       </c>
       <c r="E18" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F18" t="n">
-        <v>307800</v>
+        <v>122927.7806</v>
       </c>
       <c r="G18" t="n">
-        <v>1.894016666666669</v>
+        <v>1.893583333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,28 +1028,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="C19" t="n">
-        <v>1.891</v>
+        <v>1.909</v>
       </c>
       <c r="D19" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="E19" t="n">
-        <v>1.881</v>
+        <v>1.909</v>
       </c>
       <c r="F19" t="n">
-        <v>898557.8678</v>
+        <v>307800</v>
       </c>
       <c r="G19" t="n">
-        <v>1.894033333333335</v>
+        <v>1.894016666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,28 +1063,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.905</v>
+        <v>1.892</v>
       </c>
       <c r="C20" t="n">
-        <v>1.905</v>
+        <v>1.891</v>
       </c>
       <c r="D20" t="n">
-        <v>1.905</v>
+        <v>1.892</v>
       </c>
       <c r="E20" t="n">
-        <v>1.905</v>
+        <v>1.881</v>
       </c>
       <c r="F20" t="n">
-        <v>149000</v>
+        <v>898557.8678</v>
       </c>
       <c r="G20" t="n">
-        <v>1.894283333333335</v>
+        <v>1.894033333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1098,28 +1098,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.892</v>
+        <v>1.905</v>
       </c>
       <c r="C21" t="n">
-        <v>1.892</v>
+        <v>1.905</v>
       </c>
       <c r="D21" t="n">
-        <v>1.892</v>
+        <v>1.905</v>
       </c>
       <c r="E21" t="n">
-        <v>1.892</v>
+        <v>1.905</v>
       </c>
       <c r="F21" t="n">
-        <v>55000</v>
+        <v>149000</v>
       </c>
       <c r="G21" t="n">
-        <v>1.894450000000002</v>
+        <v>1.894283333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1145,16 +1145,16 @@
         <v>1.892</v>
       </c>
       <c r="F22" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894483333333335</v>
+        <v>1.894450000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.92</v>
+        <v>1.892</v>
       </c>
       <c r="C23" t="n">
-        <v>1.92</v>
+        <v>1.892</v>
       </c>
       <c r="D23" t="n">
-        <v>1.92</v>
+        <v>1.892</v>
       </c>
       <c r="E23" t="n">
-        <v>1.92</v>
+        <v>1.892</v>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>45000</v>
       </c>
       <c r="G23" t="n">
-        <v>1.895100000000002</v>
+        <v>1.894483333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="C24" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="D24" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="E24" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="F24" t="n">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="n">
-        <v>1.895433333333335</v>
+        <v>1.895100000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>25000</v>
       </c>
       <c r="G25" t="n">
-        <v>1.895750000000002</v>
+        <v>1.895433333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.894</v>
+        <v>1.902</v>
       </c>
       <c r="C26" t="n">
-        <v>1.894</v>
+        <v>1.902</v>
       </c>
       <c r="D26" t="n">
-        <v>1.894</v>
+        <v>1.902</v>
       </c>
       <c r="E26" t="n">
-        <v>1.894</v>
+        <v>1.902</v>
       </c>
       <c r="F26" t="n">
-        <v>67765.08319999999</v>
+        <v>25000</v>
       </c>
       <c r="G26" t="n">
-        <v>1.895933333333335</v>
+        <v>1.895750000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.904</v>
+        <v>1.894</v>
       </c>
       <c r="C27" t="n">
-        <v>1.904</v>
+        <v>1.894</v>
       </c>
       <c r="D27" t="n">
-        <v>1.904</v>
+        <v>1.894</v>
       </c>
       <c r="E27" t="n">
-        <v>1.904</v>
+        <v>1.894</v>
       </c>
       <c r="F27" t="n">
-        <v>26195.0166</v>
+        <v>67765.08319999999</v>
       </c>
       <c r="G27" t="n">
-        <v>1.896283333333336</v>
+        <v>1.895933333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.915</v>
+        <v>1.904</v>
       </c>
       <c r="C28" t="n">
         <v>1.904</v>
       </c>
       <c r="D28" t="n">
-        <v>1.915</v>
+        <v>1.904</v>
       </c>
       <c r="E28" t="n">
         <v>1.904</v>
       </c>
       <c r="F28" t="n">
-        <v>207631.2693</v>
+        <v>26195.0166</v>
       </c>
       <c r="G28" t="n">
-        <v>1.896616666666669</v>
+        <v>1.896283333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.904</v>
+        <v>1.915</v>
       </c>
       <c r="C29" t="n">
         <v>1.904</v>
       </c>
       <c r="D29" t="n">
-        <v>1.904</v>
+        <v>1.915</v>
       </c>
       <c r="E29" t="n">
         <v>1.904</v>
       </c>
       <c r="F29" t="n">
-        <v>24849.1794</v>
+        <v>207631.2693</v>
       </c>
       <c r="G29" t="n">
-        <v>1.896950000000002</v>
+        <v>1.896616666666669</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="C30" t="n">
-        <v>1.918</v>
+        <v>1.904</v>
       </c>
       <c r="D30" t="n">
-        <v>1.918</v>
+        <v>1.904</v>
       </c>
       <c r="E30" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="F30" t="n">
-        <v>272325.509</v>
+        <v>24849.1794</v>
       </c>
       <c r="G30" t="n">
-        <v>1.897516666666669</v>
+        <v>1.896950000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="C31" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="D31" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="E31" t="n">
-        <v>1.915</v>
+        <v>1.905</v>
       </c>
       <c r="F31" t="n">
-        <v>346756.1156</v>
+        <v>272325.509</v>
       </c>
       <c r="G31" t="n">
-        <v>1.898116666666669</v>
+        <v>1.897516666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.927</v>
+        <v>1.915</v>
       </c>
       <c r="C32" t="n">
-        <v>1.929</v>
+        <v>1.92</v>
       </c>
       <c r="D32" t="n">
-        <v>1.929</v>
+        <v>1.92</v>
       </c>
       <c r="E32" t="n">
-        <v>1.927</v>
+        <v>1.915</v>
       </c>
       <c r="F32" t="n">
-        <v>116856.858</v>
+        <v>346756.1156</v>
       </c>
       <c r="G32" t="n">
-        <v>1.898916666666669</v>
+        <v>1.898116666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="C33" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="D33" t="n">
-        <v>1.938</v>
+        <v>1.929</v>
       </c>
       <c r="E33" t="n">
-        <v>1.928</v>
+        <v>1.927</v>
       </c>
       <c r="F33" t="n">
-        <v>966143.8611</v>
+        <v>116856.858</v>
       </c>
       <c r="G33" t="n">
-        <v>1.899733333333336</v>
+        <v>1.898916666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.915</v>
+        <v>1.928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D34" t="n">
-        <v>1.915</v>
+        <v>1.938</v>
       </c>
       <c r="E34" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="F34" t="n">
-        <v>117753.8299</v>
+        <v>966143.8611</v>
       </c>
       <c r="G34" t="n">
-        <v>1.899750000000002</v>
+        <v>1.899733333333336</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>1.915</v>
       </c>
       <c r="C35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D35" t="n">
         <v>1.915</v>
       </c>
-      <c r="D35" t="n">
-        <v>1.925</v>
-      </c>
       <c r="E35" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="F35" t="n">
-        <v>606581.0336</v>
+        <v>117753.8299</v>
       </c>
       <c r="G35" t="n">
-        <v>1.899850000000002</v>
+        <v>1.899750000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C36" t="n">
-        <v>1.894</v>
+        <v>1.915</v>
       </c>
       <c r="D36" t="n">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="E36" t="n">
-        <v>1.894</v>
+        <v>1.915</v>
       </c>
       <c r="F36" t="n">
-        <v>317064.6674</v>
+        <v>606581.0336</v>
       </c>
       <c r="G36" t="n">
-        <v>1.899600000000002</v>
+        <v>1.899850000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C37" t="n">
-        <v>1.928</v>
+        <v>1.894</v>
       </c>
       <c r="D37" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="E37" t="n">
-        <v>1.9</v>
+        <v>1.894</v>
       </c>
       <c r="F37" t="n">
-        <v>679393.3678</v>
+        <v>317064.6674</v>
       </c>
       <c r="G37" t="n">
-        <v>1.899916666666669</v>
+        <v>1.899600000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C38" t="n">
         <v>1.928</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.934</v>
-      </c>
       <c r="D38" t="n">
-        <v>1.934</v>
+        <v>1.928</v>
       </c>
       <c r="E38" t="n">
-        <v>1.928</v>
+        <v>1.9</v>
       </c>
       <c r="F38" t="n">
-        <v>191287.8738</v>
+        <v>679393.3678</v>
       </c>
       <c r="G38" t="n">
-        <v>1.900333333333335</v>
+        <v>1.899916666666669</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="C39" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="D39" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="E39" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="F39" t="n">
-        <v>17061.7685</v>
+        <v>191287.8738</v>
       </c>
       <c r="G39" t="n">
-        <v>1.900833333333335</v>
+        <v>1.900333333333335</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E40" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F40" t="n">
-        <v>17061.7684</v>
+        <v>17061.7685</v>
       </c>
       <c r="G40" t="n">
-        <v>1.901166666666668</v>
+        <v>1.900833333333335</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.949</v>
+        <v>1.91</v>
       </c>
       <c r="C41" t="n">
-        <v>1.949</v>
+        <v>1.91</v>
       </c>
       <c r="D41" t="n">
-        <v>1.949</v>
+        <v>1.91</v>
       </c>
       <c r="E41" t="n">
-        <v>1.949</v>
+        <v>1.91</v>
       </c>
       <c r="F41" t="n">
-        <v>251</v>
+        <v>17061.7684</v>
       </c>
       <c r="G41" t="n">
-        <v>1.902150000000002</v>
+        <v>1.901166666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.93</v>
+        <v>1.949</v>
       </c>
       <c r="C42" t="n">
-        <v>1.92</v>
+        <v>1.949</v>
       </c>
       <c r="D42" t="n">
-        <v>1.93</v>
+        <v>1.949</v>
       </c>
       <c r="E42" t="n">
-        <v>1.92</v>
+        <v>1.949</v>
       </c>
       <c r="F42" t="n">
-        <v>27799.9999</v>
+        <v>251</v>
       </c>
       <c r="G42" t="n">
-        <v>1.902816666666669</v>
+        <v>1.902150000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C43" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="D43" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E43" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="F43" t="n">
-        <v>50000</v>
+        <v>27799.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>1.903066666666668</v>
+        <v>1.902816666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C44" t="n">
         <v>1.904</v>
       </c>
       <c r="D44" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E44" t="n">
         <v>1.904</v>
       </c>
       <c r="F44" t="n">
-        <v>356709.5172</v>
+        <v>50000</v>
       </c>
       <c r="G44" t="n">
-        <v>1.903166666666668</v>
+        <v>1.903066666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="C45" t="n">
-        <v>1.917</v>
+        <v>1.904</v>
       </c>
       <c r="D45" t="n">
-        <v>1.917</v>
+        <v>1.919</v>
       </c>
       <c r="E45" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="F45" t="n">
-        <v>60000</v>
+        <v>356709.5172</v>
       </c>
       <c r="G45" t="n">
-        <v>1.903483333333335</v>
+        <v>1.903166666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="C46" t="n">
-        <v>1.916</v>
+        <v>1.917</v>
       </c>
       <c r="D46" t="n">
-        <v>1.916</v>
+        <v>1.917</v>
       </c>
       <c r="E46" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="F46" t="n">
-        <v>38685.139</v>
+        <v>60000</v>
       </c>
       <c r="G46" t="n">
-        <v>1.903416666666669</v>
+        <v>1.903483333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.904</v>
+        <v>1.916</v>
       </c>
       <c r="C47" t="n">
-        <v>1.904</v>
+        <v>1.916</v>
       </c>
       <c r="D47" t="n">
-        <v>1.904</v>
+        <v>1.916</v>
       </c>
       <c r="E47" t="n">
-        <v>1.904</v>
+        <v>1.916</v>
       </c>
       <c r="F47" t="n">
-        <v>12509.7603</v>
+        <v>38685.139</v>
       </c>
       <c r="G47" t="n">
-        <v>1.903150000000002</v>
+        <v>1.903416666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="C48" t="n">
-        <v>1.902</v>
+        <v>1.904</v>
       </c>
       <c r="D48" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="E48" t="n">
-        <v>1.902</v>
+        <v>1.904</v>
       </c>
       <c r="F48" t="n">
-        <v>331308.5121</v>
+        <v>12509.7603</v>
       </c>
       <c r="G48" t="n">
-        <v>1.903350000000002</v>
+        <v>1.903150000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>1.91</v>
       </c>
       <c r="C49" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="D49" t="n">
         <v>1.91</v>
       </c>
       <c r="E49" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="F49" t="n">
-        <v>137471.3187</v>
+        <v>331308.5121</v>
       </c>
       <c r="G49" t="n">
-        <v>1.903516666666668</v>
+        <v>1.903350000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="C50" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D50" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="E50" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F50" t="n">
-        <v>786566.2754</v>
+        <v>137471.3187</v>
       </c>
       <c r="G50" t="n">
-        <v>1.903683333333335</v>
+        <v>1.903516666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="C51" t="n">
         <v>1.9</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="E51" t="n">
         <v>1.9</v>
       </c>
       <c r="F51" t="n">
-        <v>5464.7862</v>
+        <v>786566.2754</v>
       </c>
       <c r="G51" t="n">
-        <v>1.903883333333335</v>
+        <v>1.903683333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>1.9</v>
       </c>
       <c r="F52" t="n">
-        <v>7914.731</v>
+        <v>5464.7862</v>
       </c>
       <c r="G52" t="n">
-        <v>1.904083333333335</v>
+        <v>1.903883333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>1.9</v>
       </c>
       <c r="C53" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D53" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E53" t="n">
         <v>1.9</v>
       </c>
       <c r="F53" t="n">
-        <v>8410.1096</v>
+        <v>7914.731</v>
       </c>
       <c r="G53" t="n">
         <v>1.904083333333335</v>
@@ -2256,19 +2256,19 @@
         <v>1.9</v>
       </c>
       <c r="C54" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D54" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E54" t="n">
         <v>1.9</v>
       </c>
       <c r="F54" t="n">
-        <v>15389.7825</v>
+        <v>8410.1096</v>
       </c>
       <c r="G54" t="n">
-        <v>1.904283333333335</v>
+        <v>1.904083333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>1.9</v>
       </c>
       <c r="F55" t="n">
-        <v>155205.4237</v>
+        <v>15389.7825</v>
       </c>
       <c r="G55" t="n">
-        <v>1.904483333333335</v>
+        <v>1.904283333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="C56" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="D56" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="E56" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="F56" t="n">
-        <v>66666.77770000001</v>
+        <v>155205.4237</v>
       </c>
       <c r="G56" t="n">
-        <v>1.904733333333335</v>
+        <v>1.904483333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>1.897</v>
       </c>
       <c r="F57" t="n">
-        <v>41853.942</v>
+        <v>66666.77770000001</v>
       </c>
       <c r="G57" t="n">
-        <v>1.904983333333335</v>
+        <v>1.904733333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>1.897</v>
       </c>
       <c r="F58" t="n">
-        <v>91052.511</v>
+        <v>41853.942</v>
       </c>
       <c r="G58" t="n">
-        <v>1.905233333333335</v>
+        <v>1.904983333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>1.897</v>
       </c>
       <c r="F59" t="n">
-        <v>32648.4251</v>
+        <v>91052.511</v>
       </c>
       <c r="G59" t="n">
-        <v>1.905483333333335</v>
+        <v>1.905233333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C60" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D60" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E60" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F60" t="n">
-        <v>17010.9579</v>
+        <v>32648.4251</v>
       </c>
       <c r="G60" t="n">
-        <v>1.905783333333335</v>
+        <v>1.905483333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,31 +2498,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="C61" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="D61" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E61" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="F61" t="n">
-        <v>598412.0988</v>
+        <v>17010.9579</v>
       </c>
       <c r="G61" t="n">
-        <v>1.905916666666668</v>
+        <v>1.905783333333335</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.897</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2533,32 +2537,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F62" t="n">
+        <v>598412.0988</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.905916666666668</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>1.9</v>
       </c>
-      <c r="C62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10755</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.905933333333335</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2592,10 @@
         <v>1.9</v>
       </c>
       <c r="F63" t="n">
-        <v>50000</v>
+        <v>10755</v>
       </c>
       <c r="G63" t="n">
-        <v>1.906100000000002</v>
+        <v>1.905933333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2604,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,19 +2633,23 @@
         <v>1.9</v>
       </c>
       <c r="F64" t="n">
-        <v>140347.211</v>
+        <v>50000</v>
       </c>
       <c r="G64" t="n">
-        <v>1.906400000000002</v>
+        <v>1.906100000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.9</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2638,22 +2660,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.927</v>
+        <v>1.9</v>
       </c>
       <c r="C65" t="n">
-        <v>1.927</v>
+        <v>1.9</v>
       </c>
       <c r="D65" t="n">
-        <v>1.927</v>
+        <v>1.9</v>
       </c>
       <c r="E65" t="n">
-        <v>1.927</v>
+        <v>1.9</v>
       </c>
       <c r="F65" t="n">
-        <v>412899.733</v>
+        <v>140347.211</v>
       </c>
       <c r="G65" t="n">
-        <v>1.907166666666669</v>
+        <v>1.906400000000002</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2667,7 +2689,11 @@
       <c r="K65" t="n">
         <v>1.9</v>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2677,22 +2703,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="C66" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="D66" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="E66" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="F66" t="n">
-        <v>25948.0881</v>
+        <v>412899.733</v>
       </c>
       <c r="G66" t="n">
-        <v>1.907183333333335</v>
+        <v>1.907166666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2730,10 +2756,10 @@
         <v>1.92</v>
       </c>
       <c r="F67" t="n">
-        <v>1092.1515</v>
+        <v>25948.0881</v>
       </c>
       <c r="G67" t="n">
-        <v>1.907366666666669</v>
+        <v>1.907183333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2742,14 +2768,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2759,22 +2779,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="C68" t="n">
         <v>1.92</v>
       </c>
       <c r="D68" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="E68" t="n">
         <v>1.92</v>
       </c>
       <c r="F68" t="n">
-        <v>155196.482</v>
+        <v>1092.1515</v>
       </c>
       <c r="G68" t="n">
-        <v>1.907833333333335</v>
+        <v>1.907366666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2794,22 +2814,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C69" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="D69" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E69" t="n">
-        <v>1.899</v>
+        <v>1.92</v>
       </c>
       <c r="F69" t="n">
-        <v>869306.1629999999</v>
+        <v>155196.482</v>
       </c>
       <c r="G69" t="n">
-        <v>1.907950000000002</v>
+        <v>1.907833333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2829,22 +2849,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.928</v>
+        <v>1.92</v>
       </c>
       <c r="C70" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="D70" t="n">
-        <v>1.928</v>
+        <v>1.92</v>
       </c>
       <c r="E70" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="F70" t="n">
-        <v>23456.4637</v>
+        <v>869306.1629999999</v>
       </c>
       <c r="G70" t="n">
-        <v>1.908250000000002</v>
+        <v>1.907950000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2864,22 +2884,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="C71" t="n">
         <v>1.91</v>
       </c>
       <c r="D71" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="E71" t="n">
         <v>1.91</v>
       </c>
       <c r="F71" t="n">
-        <v>20111.8764</v>
+        <v>23456.4637</v>
       </c>
       <c r="G71" t="n">
-        <v>1.908416666666669</v>
+        <v>1.908250000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2911,10 +2931,10 @@
         <v>1.91</v>
       </c>
       <c r="F72" t="n">
-        <v>23665.8382</v>
+        <v>20111.8764</v>
       </c>
       <c r="G72" t="n">
-        <v>1.908266666666669</v>
+        <v>1.908416666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2946,10 +2966,10 @@
         <v>1.91</v>
       </c>
       <c r="F73" t="n">
-        <v>17577.3362</v>
+        <v>23665.8382</v>
       </c>
       <c r="G73" t="n">
-        <v>1.908400000000002</v>
+        <v>1.908266666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2969,22 +2989,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.899</v>
+        <v>1.91</v>
       </c>
       <c r="C74" t="n">
-        <v>1.899</v>
+        <v>1.91</v>
       </c>
       <c r="D74" t="n">
-        <v>1.899</v>
+        <v>1.91</v>
       </c>
       <c r="E74" t="n">
-        <v>1.899</v>
+        <v>1.91</v>
       </c>
       <c r="F74" t="n">
-        <v>3521.5772</v>
+        <v>17577.3362</v>
       </c>
       <c r="G74" t="n">
-        <v>1.908383333333335</v>
+        <v>1.908400000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3004,22 +3024,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.918</v>
+        <v>1.899</v>
       </c>
       <c r="C75" t="n">
-        <v>1.918</v>
+        <v>1.899</v>
       </c>
       <c r="D75" t="n">
-        <v>1.918</v>
+        <v>1.899</v>
       </c>
       <c r="E75" t="n">
-        <v>1.918</v>
+        <v>1.899</v>
       </c>
       <c r="F75" t="n">
-        <v>98623.69960000001</v>
+        <v>3521.5772</v>
       </c>
       <c r="G75" t="n">
-        <v>1.908683333333335</v>
+        <v>1.908383333333335</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,22 +3059,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.901</v>
+        <v>1.918</v>
       </c>
       <c r="C76" t="n">
-        <v>1.901</v>
+        <v>1.918</v>
       </c>
       <c r="D76" t="n">
-        <v>1.901</v>
+        <v>1.918</v>
       </c>
       <c r="E76" t="n">
-        <v>1.901</v>
+        <v>1.918</v>
       </c>
       <c r="F76" t="n">
-        <v>317114.7174</v>
+        <v>98623.69960000001</v>
       </c>
       <c r="G76" t="n">
-        <v>1.908383333333335</v>
+        <v>1.908683333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3074,22 +3094,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.902</v>
+        <v>1.901</v>
       </c>
       <c r="C77" t="n">
-        <v>1.902</v>
+        <v>1.901</v>
       </c>
       <c r="D77" t="n">
-        <v>1.902</v>
+        <v>1.901</v>
       </c>
       <c r="E77" t="n">
-        <v>1.902</v>
+        <v>1.901</v>
       </c>
       <c r="F77" t="n">
-        <v>29781.1385</v>
+        <v>317114.7174</v>
       </c>
       <c r="G77" t="n">
-        <v>1.908416666666668</v>
+        <v>1.908383333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3109,22 +3129,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="C78" t="n">
-        <v>1.924</v>
+        <v>1.902</v>
       </c>
       <c r="D78" t="n">
-        <v>1.924</v>
+        <v>1.902</v>
       </c>
       <c r="E78" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="F78" t="n">
-        <v>491801.1634</v>
+        <v>29781.1385</v>
       </c>
       <c r="G78" t="n">
-        <v>1.908666666666669</v>
+        <v>1.908416666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3144,7 +3164,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.924</v>
+        <v>1.918</v>
       </c>
       <c r="C79" t="n">
         <v>1.924</v>
@@ -3153,26 +3173,22 @@
         <v>1.924</v>
       </c>
       <c r="E79" t="n">
-        <v>1.924</v>
+        <v>1.918</v>
       </c>
       <c r="F79" t="n">
-        <v>50249.6988</v>
+        <v>491801.1634</v>
       </c>
       <c r="G79" t="n">
-        <v>1.909216666666669</v>
+        <v>1.908666666666669</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.924</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3183,40 +3199,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.929</v>
+        <v>1.924</v>
       </c>
       <c r="C80" t="n">
-        <v>1.929</v>
+        <v>1.924</v>
       </c>
       <c r="D80" t="n">
-        <v>1.929</v>
+        <v>1.924</v>
       </c>
       <c r="E80" t="n">
-        <v>1.929</v>
+        <v>1.924</v>
       </c>
       <c r="F80" t="n">
-        <v>352742.2191</v>
+        <v>50249.6988</v>
       </c>
       <c r="G80" t="n">
-        <v>1.909616666666669</v>
+        <v>1.909216666666669</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +3234,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.939</v>
+        <v>1.929</v>
       </c>
       <c r="C81" t="n">
-        <v>1.939</v>
+        <v>1.929</v>
       </c>
       <c r="D81" t="n">
-        <v>1.939</v>
+        <v>1.929</v>
       </c>
       <c r="E81" t="n">
-        <v>1.939</v>
+        <v>1.929</v>
       </c>
       <c r="F81" t="n">
-        <v>210883.2619</v>
+        <v>352742.2191</v>
       </c>
       <c r="G81" t="n">
-        <v>1.910400000000002</v>
+        <v>1.909616666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3250,14 +3258,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3267,22 +3269,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.924</v>
+        <v>1.939</v>
       </c>
       <c r="C82" t="n">
-        <v>1.92</v>
+        <v>1.939</v>
       </c>
       <c r="D82" t="n">
-        <v>1.924</v>
+        <v>1.939</v>
       </c>
       <c r="E82" t="n">
-        <v>1.92</v>
+        <v>1.939</v>
       </c>
       <c r="F82" t="n">
-        <v>21301.1703</v>
+        <v>210883.2619</v>
       </c>
       <c r="G82" t="n">
-        <v>1.910866666666668</v>
+        <v>1.910400000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3305,19 +3307,19 @@
         <v>1.924</v>
       </c>
       <c r="C83" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="D83" t="n">
         <v>1.924</v>
       </c>
       <c r="E83" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="F83" t="n">
-        <v>70000</v>
+        <v>21301.1703</v>
       </c>
       <c r="G83" t="n">
-        <v>1.910933333333335</v>
+        <v>1.910866666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3337,22 +3339,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="C84" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="D84" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="E84" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="F84" t="n">
-        <v>21210.5266</v>
+        <v>70000</v>
       </c>
       <c r="G84" t="n">
-        <v>1.911233333333335</v>
+        <v>1.910933333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3384,10 +3386,10 @@
         <v>1.92</v>
       </c>
       <c r="F85" t="n">
-        <v>8330.563399999999</v>
+        <v>21210.5266</v>
       </c>
       <c r="G85" t="n">
-        <v>1.911533333333335</v>
+        <v>1.911233333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3407,22 +3409,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.913</v>
+        <v>1.92</v>
       </c>
       <c r="C86" t="n">
-        <v>1.913</v>
+        <v>1.92</v>
       </c>
       <c r="D86" t="n">
-        <v>1.913</v>
+        <v>1.92</v>
       </c>
       <c r="E86" t="n">
-        <v>1.913</v>
+        <v>1.92</v>
       </c>
       <c r="F86" t="n">
-        <v>55000</v>
+        <v>8330.563399999999</v>
       </c>
       <c r="G86" t="n">
-        <v>1.911850000000002</v>
+        <v>1.911533333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3454,10 +3456,10 @@
         <v>1.913</v>
       </c>
       <c r="F87" t="n">
-        <v>20377.7255</v>
+        <v>55000</v>
       </c>
       <c r="G87" t="n">
-        <v>1.912000000000002</v>
+        <v>1.911850000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3489,10 +3491,10 @@
         <v>1.913</v>
       </c>
       <c r="F88" t="n">
-        <v>100000</v>
+        <v>20377.7255</v>
       </c>
       <c r="G88" t="n">
-        <v>1.912150000000002</v>
+        <v>1.912000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3512,22 +3514,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="C89" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="D89" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912</v>
+        <v>1.913</v>
       </c>
       <c r="F89" t="n">
-        <v>18385.2108</v>
+        <v>100000</v>
       </c>
       <c r="G89" t="n">
-        <v>1.912283333333335</v>
+        <v>1.912150000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3559,10 +3561,10 @@
         <v>1.912</v>
       </c>
       <c r="F90" t="n">
-        <v>27023.3741</v>
+        <v>18385.2108</v>
       </c>
       <c r="G90" t="n">
-        <v>1.912183333333335</v>
+        <v>1.912283333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3585,19 +3587,19 @@
         <v>1.912</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="D91" t="n">
         <v>1.912</v>
       </c>
       <c r="E91" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="F91" t="n">
-        <v>251526.8723</v>
+        <v>27023.3741</v>
       </c>
       <c r="G91" t="n">
-        <v>1.912016666666669</v>
+        <v>1.912183333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3620,19 +3622,19 @@
         <v>1.912</v>
       </c>
       <c r="C92" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="D92" t="n">
         <v>1.912</v>
       </c>
       <c r="E92" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="F92" t="n">
-        <v>57510</v>
+        <v>251526.8723</v>
       </c>
       <c r="G92" t="n">
-        <v>1.911733333333335</v>
+        <v>1.912016666666669</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3664,10 +3666,10 @@
         <v>1.912</v>
       </c>
       <c r="F93" t="n">
-        <v>19170</v>
+        <v>57510</v>
       </c>
       <c r="G93" t="n">
-        <v>1.911433333333335</v>
+        <v>1.911733333333335</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3687,22 +3689,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="C94" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="D94" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="E94" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="F94" t="n">
-        <v>321159.9858</v>
+        <v>19170</v>
       </c>
       <c r="G94" t="n">
-        <v>1.911300000000002</v>
+        <v>1.911433333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3722,22 +3724,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="C95" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="D95" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="E95" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="F95" t="n">
-        <v>25053.069</v>
+        <v>321159.9858</v>
       </c>
       <c r="G95" t="n">
-        <v>1.911016666666669</v>
+        <v>1.911300000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3757,22 +3759,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="C96" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="D96" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="E96" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="F96" t="n">
-        <v>102292.6474</v>
+        <v>25053.069</v>
       </c>
       <c r="G96" t="n">
-        <v>1.911416666666669</v>
+        <v>1.911016666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3804,10 +3806,10 @@
         <v>1.918</v>
       </c>
       <c r="F97" t="n">
-        <v>1722.3346</v>
+        <v>102292.6474</v>
       </c>
       <c r="G97" t="n">
-        <v>1.911250000000002</v>
+        <v>1.911416666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3827,22 +3829,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="C98" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="D98" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="E98" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="F98" t="n">
-        <v>88753.8567</v>
+        <v>1722.3346</v>
       </c>
       <c r="G98" t="n">
-        <v>1.910850000000002</v>
+        <v>1.911250000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3862,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C99" t="n">
-        <v>1.896</v>
+        <v>1.91</v>
       </c>
       <c r="D99" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E99" t="n">
-        <v>1.896</v>
+        <v>1.91</v>
       </c>
       <c r="F99" t="n">
-        <v>45000</v>
+        <v>88753.8567</v>
       </c>
       <c r="G99" t="n">
-        <v>1.910283333333335</v>
+        <v>1.910850000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3897,22 +3899,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.896</v>
+        <v>1.9</v>
       </c>
       <c r="C100" t="n">
         <v>1.896</v>
       </c>
       <c r="D100" t="n">
-        <v>1.896</v>
+        <v>1.9</v>
       </c>
       <c r="E100" t="n">
         <v>1.896</v>
       </c>
       <c r="F100" t="n">
-        <v>22670.1009</v>
+        <v>45000</v>
       </c>
       <c r="G100" t="n">
-        <v>1.910050000000002</v>
+        <v>1.910283333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3932,22 +3934,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="C101" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="D101" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="E101" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="F101" t="n">
-        <v>12771.7459</v>
+        <v>22670.1009</v>
       </c>
       <c r="G101" t="n">
-        <v>1.909400000000002</v>
+        <v>1.910050000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3979,10 +3981,10 @@
         <v>1.91</v>
       </c>
       <c r="F102" t="n">
-        <v>45000</v>
+        <v>12771.7459</v>
       </c>
       <c r="G102" t="n">
-        <v>1.909233333333335</v>
+        <v>1.909400000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4014,10 +4016,10 @@
         <v>1.91</v>
       </c>
       <c r="F103" t="n">
-        <v>159434.6276</v>
+        <v>45000</v>
       </c>
       <c r="G103" t="n">
-        <v>1.909333333333335</v>
+        <v>1.909233333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4049,10 +4051,10 @@
         <v>1.91</v>
       </c>
       <c r="F104" t="n">
-        <v>20482.5571</v>
+        <v>159434.6276</v>
       </c>
       <c r="G104" t="n">
-        <v>1.909433333333335</v>
+        <v>1.909333333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4072,22 +4074,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.929</v>
+        <v>1.91</v>
       </c>
       <c r="C105" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="D105" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="E105" t="n">
-        <v>1.929</v>
+        <v>1.91</v>
       </c>
       <c r="F105" t="n">
-        <v>1611483.129950253</v>
+        <v>20482.5571</v>
       </c>
       <c r="G105" t="n">
-        <v>1.909816666666668</v>
+        <v>1.909433333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.949</v>
+        <v>1.929</v>
       </c>
       <c r="C106" t="n">
-        <v>1.949</v>
+        <v>1.94</v>
       </c>
       <c r="D106" t="n">
-        <v>1.959</v>
+        <v>1.97</v>
       </c>
       <c r="E106" t="n">
-        <v>1.94</v>
+        <v>1.929</v>
       </c>
       <c r="F106" t="n">
-        <v>363077.200491226</v>
+        <v>1611483.129950253</v>
       </c>
       <c r="G106" t="n">
-        <v>1.910366666666669</v>
+        <v>1.909816666666668</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4142,22 +4144,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.95</v>
+        <v>1.949</v>
       </c>
       <c r="C107" t="n">
-        <v>1.95</v>
+        <v>1.949</v>
       </c>
       <c r="D107" t="n">
-        <v>1.95</v>
+        <v>1.959</v>
       </c>
       <c r="E107" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="F107" t="n">
-        <v>72344.3719</v>
+        <v>363077.200491226</v>
       </c>
       <c r="G107" t="n">
-        <v>1.911133333333335</v>
+        <v>1.910366666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4177,28 +4179,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.937</v>
+        <v>1.95</v>
       </c>
       <c r="C108" t="n">
-        <v>1.937</v>
+        <v>1.95</v>
       </c>
       <c r="D108" t="n">
-        <v>1.937</v>
+        <v>1.95</v>
       </c>
       <c r="E108" t="n">
-        <v>1.937</v>
+        <v>1.95</v>
       </c>
       <c r="F108" t="n">
-        <v>321387.7464</v>
+        <v>72344.3719</v>
       </c>
       <c r="G108" t="n">
-        <v>1.911716666666669</v>
+        <v>1.911133333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4212,22 +4214,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="C109" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="D109" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="E109" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="F109" t="n">
-        <v>55000</v>
+        <v>321387.7464</v>
       </c>
       <c r="G109" t="n">
-        <v>1.911883333333335</v>
+        <v>1.911716666666669</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4250,19 +4252,19 @@
         <v>1.92</v>
       </c>
       <c r="C110" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D110" t="n">
         <v>1.92</v>
       </c>
       <c r="E110" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F110" t="n">
-        <v>240000</v>
+        <v>55000</v>
       </c>
       <c r="G110" t="n">
-        <v>1.912050000000002</v>
+        <v>1.911883333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4282,22 +4284,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C111" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E111" t="n">
-        <v>1.895</v>
+        <v>1.91</v>
       </c>
       <c r="F111" t="n">
-        <v>478837.154</v>
+        <v>240000</v>
       </c>
       <c r="G111" t="n">
-        <v>1.912133333333335</v>
+        <v>1.912050000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4317,22 +4319,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="C112" t="n">
-        <v>1.892</v>
+        <v>1.905</v>
       </c>
       <c r="D112" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="E112" t="n">
-        <v>1.892</v>
+        <v>1.895</v>
       </c>
       <c r="F112" t="n">
-        <v>1154956.2858</v>
+        <v>478837.154</v>
       </c>
       <c r="G112" t="n">
-        <v>1.912000000000002</v>
+        <v>1.912133333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4352,22 +4354,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.891</v>
+        <v>1.903</v>
       </c>
       <c r="C113" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="D113" t="n">
-        <v>1.891</v>
+        <v>1.903</v>
       </c>
       <c r="E113" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="F113" t="n">
-        <v>100000</v>
+        <v>1154956.2858</v>
       </c>
       <c r="G113" t="n">
-        <v>1.911666666666668</v>
+        <v>1.912000000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4387,22 +4389,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.893</v>
+        <v>1.891</v>
       </c>
       <c r="C114" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="D114" t="n">
-        <v>1.894</v>
+        <v>1.891</v>
       </c>
       <c r="E114" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="F114" t="n">
-        <v>931486.8857</v>
+        <v>100000</v>
       </c>
       <c r="G114" t="n">
-        <v>1.911550000000002</v>
+        <v>1.911666666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4422,22 +4424,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.909</v>
+        <v>1.893</v>
       </c>
       <c r="C115" t="n">
-        <v>1.909</v>
+        <v>1.893</v>
       </c>
       <c r="D115" t="n">
-        <v>1.909</v>
+        <v>1.894</v>
       </c>
       <c r="E115" t="n">
-        <v>1.909</v>
+        <v>1.893</v>
       </c>
       <c r="F115" t="n">
-        <v>129997.0858</v>
+        <v>931486.8857</v>
       </c>
       <c r="G115" t="n">
-        <v>1.911700000000002</v>
+        <v>1.911550000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4457,22 +4459,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.893</v>
+        <v>1.909</v>
       </c>
       <c r="C116" t="n">
-        <v>1.893</v>
+        <v>1.909</v>
       </c>
       <c r="D116" t="n">
-        <v>1.893</v>
+        <v>1.909</v>
       </c>
       <c r="E116" t="n">
-        <v>1.893</v>
+        <v>1.909</v>
       </c>
       <c r="F116" t="n">
-        <v>55000</v>
+        <v>129997.0858</v>
       </c>
       <c r="G116" t="n">
-        <v>1.911633333333335</v>
+        <v>1.911700000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4492,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="C117" t="n">
-        <v>1.909</v>
+        <v>1.893</v>
       </c>
       <c r="D117" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="E117" t="n">
-        <v>1.909</v>
+        <v>1.893</v>
       </c>
       <c r="F117" t="n">
-        <v>54013.3146</v>
+        <v>55000</v>
       </c>
       <c r="G117" t="n">
-        <v>1.911833333333335</v>
+        <v>1.911633333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4527,22 +4529,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C118" t="n">
-        <v>1.919</v>
+        <v>1.909</v>
       </c>
       <c r="D118" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E118" t="n">
-        <v>1.919</v>
+        <v>1.909</v>
       </c>
       <c r="F118" t="n">
-        <v>10177.6418</v>
+        <v>54013.3146</v>
       </c>
       <c r="G118" t="n">
-        <v>1.912200000000001</v>
+        <v>1.911833333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4574,10 +4576,10 @@
         <v>1.919</v>
       </c>
       <c r="F119" t="n">
-        <v>26873.6855</v>
+        <v>10177.6418</v>
       </c>
       <c r="G119" t="n">
-        <v>1.912566666666668</v>
+        <v>1.912200000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4600,19 +4602,19 @@
         <v>1.919</v>
       </c>
       <c r="C120" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="D120" t="n">
-        <v>1.95</v>
+        <v>1.919</v>
       </c>
       <c r="E120" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="F120" t="n">
-        <v>137710.137822051</v>
+        <v>26873.6855</v>
       </c>
       <c r="G120" t="n">
-        <v>1.912733333333335</v>
+        <v>1.912566666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4632,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="C121" t="n">
         <v>1.91</v>
       </c>
       <c r="D121" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="E121" t="n">
         <v>1.91</v>
       </c>
       <c r="F121" t="n">
-        <v>15641.4669</v>
+        <v>137710.137822051</v>
       </c>
       <c r="G121" t="n">
-        <v>1.912933333333334</v>
+        <v>1.912733333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4667,22 +4669,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="C122" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="D122" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="E122" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="F122" t="n">
-        <v>45000</v>
+        <v>15641.4669</v>
       </c>
       <c r="G122" t="n">
-        <v>1.912950000000001</v>
+        <v>1.912933333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4702,22 +4704,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="C123" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="D123" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="E123" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="F123" t="n">
-        <v>8061.3779</v>
+        <v>45000</v>
       </c>
       <c r="G123" t="n">
-        <v>1.913116666666667</v>
+        <v>1.912950000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4749,10 +4751,10 @@
         <v>1.91</v>
       </c>
       <c r="F124" t="n">
-        <v>15641.4669</v>
+        <v>8061.3779</v>
       </c>
       <c r="G124" t="n">
-        <v>1.913283333333334</v>
+        <v>1.913116666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4784,10 +4786,10 @@
         <v>1.91</v>
       </c>
       <c r="F125" t="n">
-        <v>7989.3537</v>
+        <v>15641.4669</v>
       </c>
       <c r="G125" t="n">
-        <v>1.913</v>
+        <v>1.913283333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4807,22 +4809,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="C126" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="D126" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="E126" t="n">
-        <v>1.926</v>
+        <v>1.91</v>
       </c>
       <c r="F126" t="n">
-        <v>35455.3272</v>
+        <v>7989.3537</v>
       </c>
       <c r="G126" t="n">
-        <v>1.913166666666667</v>
+        <v>1.913</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4842,10 +4844,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C127" t="n">
         <v>1.93</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.926</v>
       </c>
       <c r="D127" t="n">
         <v>1.93</v>
@@ -4854,10 +4856,10 @@
         <v>1.926</v>
       </c>
       <c r="F127" t="n">
-        <v>300000</v>
+        <v>35455.3272</v>
       </c>
       <c r="G127" t="n">
-        <v>1.913266666666667</v>
+        <v>1.913166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4877,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C128" t="n">
         <v>1.926</v>
       </c>
-      <c r="C128" t="n">
-        <v>1.918</v>
-      </c>
       <c r="D128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E128" t="n">
         <v>1.926</v>
       </c>
-      <c r="E128" t="n">
-        <v>1.918</v>
-      </c>
       <c r="F128" t="n">
-        <v>442305.3273</v>
+        <v>300000</v>
       </c>
       <c r="G128" t="n">
-        <v>1.913233333333334</v>
+        <v>1.913266666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4912,22 +4914,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.911</v>
+        <v>1.926</v>
       </c>
       <c r="C129" t="n">
-        <v>1.911</v>
+        <v>1.918</v>
       </c>
       <c r="D129" t="n">
-        <v>1.911</v>
+        <v>1.926</v>
       </c>
       <c r="E129" t="n">
-        <v>1.911</v>
+        <v>1.918</v>
       </c>
       <c r="F129" t="n">
-        <v>103281.1962</v>
+        <v>442305.3273</v>
       </c>
       <c r="G129" t="n">
-        <v>1.913433333333334</v>
+        <v>1.913233333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4947,22 +4949,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="C130" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="D130" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="E130" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="F130" t="n">
-        <v>60000</v>
+        <v>103281.1962</v>
       </c>
       <c r="G130" t="n">
-        <v>1.913500000000001</v>
+        <v>1.913433333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4982,22 +4984,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.928</v>
+        <v>1.914</v>
       </c>
       <c r="C131" t="n">
-        <v>1.928</v>
+        <v>1.914</v>
       </c>
       <c r="D131" t="n">
-        <v>1.928</v>
+        <v>1.914</v>
       </c>
       <c r="E131" t="n">
-        <v>1.928</v>
+        <v>1.914</v>
       </c>
       <c r="F131" t="n">
-        <v>204386.3398</v>
+        <v>60000</v>
       </c>
       <c r="G131" t="n">
-        <v>1.913800000000001</v>
+        <v>1.913500000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5017,22 +5019,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="C132" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="D132" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="E132" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="F132" t="n">
-        <v>20778.072</v>
+        <v>204386.3398</v>
       </c>
       <c r="G132" t="n">
-        <v>1.913966666666667</v>
+        <v>1.913800000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5064,10 +5066,10 @@
         <v>1.92</v>
       </c>
       <c r="F133" t="n">
-        <v>20496.3083</v>
+        <v>20778.072</v>
       </c>
       <c r="G133" t="n">
-        <v>1.914133333333334</v>
+        <v>1.913966666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5087,7 +5089,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C134" t="n">
         <v>1.92</v>
@@ -5096,13 +5098,13 @@
         <v>1.92</v>
       </c>
       <c r="E134" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="F134" t="n">
-        <v>62000.2079</v>
+        <v>20496.3083</v>
       </c>
       <c r="G134" t="n">
-        <v>1.914483333333334</v>
+        <v>1.914133333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5122,7 +5124,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="C135" t="n">
         <v>1.92</v>
@@ -5131,13 +5133,13 @@
         <v>1.92</v>
       </c>
       <c r="E135" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="F135" t="n">
-        <v>56757.555</v>
+        <v>62000.2079</v>
       </c>
       <c r="G135" t="n">
-        <v>1.914516666666668</v>
+        <v>1.914483333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5157,7 +5159,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="C136" t="n">
         <v>1.92</v>
@@ -5166,13 +5168,13 @@
         <v>1.92</v>
       </c>
       <c r="E136" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="F136" t="n">
-        <v>59998.9729</v>
+        <v>56757.555</v>
       </c>
       <c r="G136" t="n">
-        <v>1.914833333333334</v>
+        <v>1.914516666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5192,7 +5194,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="C137" t="n">
         <v>1.92</v>
@@ -5201,13 +5203,13 @@
         <v>1.92</v>
       </c>
       <c r="E137" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="F137" t="n">
-        <v>21282.1678</v>
+        <v>59998.9729</v>
       </c>
       <c r="G137" t="n">
-        <v>1.915133333333334</v>
+        <v>1.914833333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5227,22 +5229,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C138" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="D138" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E138" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="F138" t="n">
-        <v>45000</v>
+        <v>21282.1678</v>
       </c>
       <c r="G138" t="n">
-        <v>1.914933333333334</v>
+        <v>1.915133333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5262,22 +5264,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="C139" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="D139" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="E139" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="F139" t="n">
-        <v>350.0415</v>
+        <v>45000</v>
       </c>
       <c r="G139" t="n">
-        <v>1.914866666666668</v>
+        <v>1.914933333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5297,22 +5299,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="C140" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="D140" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="E140" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="F140" t="n">
-        <v>118450.9837</v>
+        <v>350.0415</v>
       </c>
       <c r="G140" t="n">
-        <v>1.914433333333334</v>
+        <v>1.914866666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5332,22 +5334,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.905</v>
+        <v>1.903</v>
       </c>
       <c r="C141" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="D141" t="n">
-        <v>1.911</v>
+        <v>1.903</v>
       </c>
       <c r="E141" t="n">
-        <v>1.905</v>
+        <v>1.903</v>
       </c>
       <c r="F141" t="n">
-        <v>153214.0662</v>
+        <v>118450.9837</v>
       </c>
       <c r="G141" t="n">
-        <v>1.913950000000001</v>
+        <v>1.914433333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5367,7 +5369,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.911</v>
+        <v>1.905</v>
       </c>
       <c r="C142" t="n">
         <v>1.91</v>
@@ -5376,13 +5378,13 @@
         <v>1.911</v>
       </c>
       <c r="E142" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F142" t="n">
-        <v>50000</v>
+        <v>153214.0662</v>
       </c>
       <c r="G142" t="n">
-        <v>1.913783333333334</v>
+        <v>1.913950000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5402,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="C143" t="n">
         <v>1.91</v>
       </c>
       <c r="D143" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="E143" t="n">
         <v>1.91</v>
       </c>
       <c r="F143" t="n">
-        <v>350000</v>
+        <v>50000</v>
       </c>
       <c r="G143" t="n">
-        <v>1.913550000000001</v>
+        <v>1.913783333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5437,19 +5439,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C144" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D144" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E144" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F144" t="n">
-        <v>105429.6257</v>
+        <v>350000</v>
       </c>
       <c r="G144" t="n">
         <v>1.913550000000001</v>
@@ -5472,22 +5474,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C145" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="D145" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E145" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="F145" t="n">
-        <v>47750</v>
+        <v>105429.6257</v>
       </c>
       <c r="G145" t="n">
-        <v>1.913416666666667</v>
+        <v>1.913550000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5507,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.909</v>
+        <v>1.912</v>
       </c>
       <c r="C146" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="D146" t="n">
-        <v>1.909</v>
+        <v>1.912</v>
       </c>
       <c r="E146" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="F146" t="n">
-        <v>375411.951</v>
+        <v>47750</v>
       </c>
       <c r="G146" t="n">
-        <v>1.913233333333334</v>
+        <v>1.913416666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5542,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="C147" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="D147" t="n">
-        <v>1.901</v>
+        <v>1.909</v>
       </c>
       <c r="E147" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="F147" t="n">
-        <v>59592.2369</v>
+        <v>375411.951</v>
       </c>
       <c r="G147" t="n">
-        <v>1.913033333333334</v>
+        <v>1.913233333333334</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5577,22 +5579,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.921</v>
+        <v>1.901</v>
       </c>
       <c r="C148" t="n">
-        <v>1.931</v>
+        <v>1.901</v>
       </c>
       <c r="D148" t="n">
-        <v>1.931</v>
+        <v>1.901</v>
       </c>
       <c r="E148" t="n">
-        <v>1.921</v>
+        <v>1.901</v>
       </c>
       <c r="F148" t="n">
-        <v>443633.3316</v>
+        <v>59592.2369</v>
       </c>
       <c r="G148" t="n">
-        <v>1.913333333333334</v>
+        <v>1.913033333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5615,19 +5617,19 @@
         <v>1.921</v>
       </c>
       <c r="C149" t="n">
-        <v>1.92</v>
+        <v>1.931</v>
       </c>
       <c r="D149" t="n">
-        <v>1.93</v>
+        <v>1.931</v>
       </c>
       <c r="E149" t="n">
-        <v>1.902</v>
+        <v>1.921</v>
       </c>
       <c r="F149" t="n">
-        <v>1309916.1046</v>
+        <v>443633.3316</v>
       </c>
       <c r="G149" t="n">
-        <v>1.913466666666667</v>
+        <v>1.913333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5647,7 +5649,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.93</v>
+        <v>1.921</v>
       </c>
       <c r="C150" t="n">
         <v>1.92</v>
@@ -5656,13 +5658,13 @@
         <v>1.93</v>
       </c>
       <c r="E150" t="n">
-        <v>1.92</v>
+        <v>1.902</v>
       </c>
       <c r="F150" t="n">
-        <v>510131.2896</v>
+        <v>1309916.1046</v>
       </c>
       <c r="G150" t="n">
-        <v>1.9136</v>
+        <v>1.913466666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5682,22 +5684,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C151" t="n">
         <v>1.92</v>
       </c>
       <c r="D151" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E151" t="n">
         <v>1.92</v>
       </c>
       <c r="F151" t="n">
-        <v>367604.1104</v>
+        <v>510131.2896</v>
       </c>
       <c r="G151" t="n">
-        <v>1.913766666666667</v>
+        <v>1.9136</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5729,10 +5731,10 @@
         <v>1.92</v>
       </c>
       <c r="F152" t="n">
-        <v>169354.8107</v>
+        <v>367604.1104</v>
       </c>
       <c r="G152" t="n">
-        <v>1.913900000000001</v>
+        <v>1.913766666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5764,10 +5766,10 @@
         <v>1.92</v>
       </c>
       <c r="F153" t="n">
-        <v>200000</v>
+        <v>169354.8107</v>
       </c>
       <c r="G153" t="n">
-        <v>1.914033333333334</v>
+        <v>1.913900000000001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5799,10 +5801,10 @@
         <v>1.92</v>
       </c>
       <c r="F154" t="n">
-        <v>23500</v>
+        <v>200000</v>
       </c>
       <c r="G154" t="n">
-        <v>1.914333333333334</v>
+        <v>1.914033333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5822,22 +5824,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="C155" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="D155" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="E155" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="F155" t="n">
-        <v>7831.15</v>
+        <v>23500</v>
       </c>
       <c r="G155" t="n">
-        <v>1.914500000000001</v>
+        <v>1.914333333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5857,22 +5859,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="C156" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="D156" t="n">
-        <v>1.92</v>
+        <v>1.908</v>
       </c>
       <c r="E156" t="n">
         <v>1.908</v>
       </c>
       <c r="F156" t="n">
-        <v>454463.47</v>
+        <v>7831.15</v>
       </c>
       <c r="G156" t="n">
-        <v>1.914533333333334</v>
+        <v>1.914500000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5892,22 +5894,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C157" t="n">
-        <v>1.901</v>
+        <v>1.92</v>
       </c>
       <c r="D157" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E157" t="n">
-        <v>1.901</v>
+        <v>1.908</v>
       </c>
       <c r="F157" t="n">
-        <v>479605.9773</v>
+        <v>454463.47</v>
       </c>
       <c r="G157" t="n">
-        <v>1.91425</v>
+        <v>1.914533333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5927,22 +5929,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="C158" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="D158" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="E158" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="F158" t="n">
-        <v>66369.88830000001</v>
+        <v>479605.9773</v>
       </c>
       <c r="G158" t="n">
-        <v>1.914383333333334</v>
+        <v>1.91425</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5962,22 +5964,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="C159" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="D159" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="E159" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="F159" t="n">
-        <v>108321.3025</v>
+        <v>66369.88830000001</v>
       </c>
       <c r="G159" t="n">
-        <v>1.914916666666667</v>
+        <v>1.914383333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6009,10 +6011,10 @@
         <v>1.928</v>
       </c>
       <c r="F160" t="n">
-        <v>1391.2848</v>
+        <v>108321.3025</v>
       </c>
       <c r="G160" t="n">
-        <v>1.91545</v>
+        <v>1.914916666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6044,10 +6046,10 @@
         <v>1.928</v>
       </c>
       <c r="F161" t="n">
-        <v>20000</v>
+        <v>1391.2848</v>
       </c>
       <c r="G161" t="n">
-        <v>1.91575</v>
+        <v>1.91545</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6079,10 +6081,10 @@
         <v>1.928</v>
       </c>
       <c r="F162" t="n">
-        <v>25587.5291</v>
+        <v>20000</v>
       </c>
       <c r="G162" t="n">
-        <v>1.91605</v>
+        <v>1.91575</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6114,10 +6116,10 @@
         <v>1.928</v>
       </c>
       <c r="F163" t="n">
-        <v>18422.5376</v>
+        <v>25587.5291</v>
       </c>
       <c r="G163" t="n">
-        <v>1.91635</v>
+        <v>1.91605</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6149,10 +6151,10 @@
         <v>1.928</v>
       </c>
       <c r="F164" t="n">
-        <v>116353.6453</v>
+        <v>18422.5376</v>
       </c>
       <c r="G164" t="n">
-        <v>1.91665</v>
+        <v>1.91635</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6172,22 +6174,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="C165" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="D165" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="E165" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="F165" t="n">
-        <v>645973.0152</v>
+        <v>116353.6453</v>
       </c>
       <c r="G165" t="n">
-        <v>1.916483333333334</v>
+        <v>1.91665</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6207,7 +6209,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="C166" t="n">
         <v>1.93</v>
@@ -6216,13 +6218,13 @@
         <v>1.93</v>
       </c>
       <c r="E166" t="n">
-        <v>1.93</v>
+        <v>1.919</v>
       </c>
       <c r="F166" t="n">
-        <v>23500</v>
+        <v>645973.0152</v>
       </c>
       <c r="G166" t="n">
-        <v>1.916166666666667</v>
+        <v>1.916483333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6254,10 +6256,10 @@
         <v>1.93</v>
       </c>
       <c r="F167" t="n">
-        <v>218722.654</v>
+        <v>23500</v>
       </c>
       <c r="G167" t="n">
-        <v>1.915833333333334</v>
+        <v>1.916166666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6277,22 +6279,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C168" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="D168" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="E168" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="F168" t="n">
-        <v>22838.7796</v>
+        <v>218722.654</v>
       </c>
       <c r="G168" t="n">
-        <v>1.915883333333334</v>
+        <v>1.915833333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6324,10 +6326,10 @@
         <v>1.94</v>
       </c>
       <c r="F169" t="n">
-        <v>20554.1662</v>
+        <v>22838.7796</v>
       </c>
       <c r="G169" t="n">
-        <v>1.916216666666667</v>
+        <v>1.915883333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6347,22 +6349,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="C170" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="D170" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="E170" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="F170" t="n">
-        <v>50000</v>
+        <v>20554.1662</v>
       </c>
       <c r="G170" t="n">
-        <v>1.916550000000001</v>
+        <v>1.916216666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6385,19 +6387,19 @@
         <v>1.93</v>
       </c>
       <c r="C171" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D171" t="n">
         <v>1.93</v>
       </c>
       <c r="E171" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F171" t="n">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="G171" t="n">
-        <v>1.916633333333334</v>
+        <v>1.916550000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6417,22 +6419,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C172" t="n">
         <v>1.91</v>
       </c>
       <c r="D172" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E172" t="n">
         <v>1.91</v>
       </c>
       <c r="F172" t="n">
-        <v>18510.0812</v>
+        <v>120000</v>
       </c>
       <c r="G172" t="n">
-        <v>1.916933333333334</v>
+        <v>1.916633333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6452,22 +6454,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C173" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="D173" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="E173" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F173" t="n">
-        <v>619908.5498</v>
+        <v>18510.0812</v>
       </c>
       <c r="G173" t="n">
-        <v>1.917566666666667</v>
+        <v>1.916933333333334</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6487,22 +6489,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="C174" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="D174" t="n">
-        <v>1.93</v>
+        <v>1.928</v>
       </c>
       <c r="E174" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="F174" t="n">
-        <v>201487.8244</v>
+        <v>619908.5498</v>
       </c>
       <c r="G174" t="n">
-        <v>1.918016666666667</v>
+        <v>1.917566666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6522,22 +6524,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C175" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D175" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E175" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F175" t="n">
-        <v>55000</v>
+        <v>201487.8244</v>
       </c>
       <c r="G175" t="n">
-        <v>1.918033333333334</v>
+        <v>1.918016666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6557,22 +6559,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C176" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="D176" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E176" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="F176" t="n">
-        <v>368188.1852</v>
+        <v>55000</v>
       </c>
       <c r="G176" t="n">
-        <v>1.918350000000001</v>
+        <v>1.918033333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6595,19 +6597,19 @@
         <v>1.92</v>
       </c>
       <c r="C177" t="n">
-        <v>1.92</v>
+        <v>1.912</v>
       </c>
       <c r="D177" t="n">
         <v>1.92</v>
       </c>
       <c r="E177" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="F177" t="n">
-        <v>271125.3025</v>
+        <v>368188.1852</v>
       </c>
       <c r="G177" t="n">
-        <v>1.918533333333334</v>
+        <v>1.918350000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6627,22 +6629,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C178" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D178" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E178" t="n">
         <v>1.91</v>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>271125.3025</v>
       </c>
       <c r="G178" t="n">
-        <v>1.918383333333334</v>
+        <v>1.918533333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6674,10 +6676,10 @@
         <v>1.91</v>
       </c>
       <c r="F179" t="n">
-        <v>53171.2503</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="n">
-        <v>1.918233333333334</v>
+        <v>1.918383333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6709,7 +6711,7 @@
         <v>1.91</v>
       </c>
       <c r="F180" t="n">
-        <v>60000</v>
+        <v>53171.2503</v>
       </c>
       <c r="G180" t="n">
         <v>1.918233333333334</v>
@@ -6744,7 +6746,7 @@
         <v>1.91</v>
       </c>
       <c r="F181" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G181" t="n">
         <v>1.918233333333334</v>
@@ -6762,6 +6764,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F182" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.918233333333334</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>43560.282</v>
       </c>
       <c r="G2" t="n">
+        <v>1.8908</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.892633333333335</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5265.929436545</v>
       </c>
       <c r="G3" t="n">
+        <v>1.8894</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.892600000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1287.0966</v>
       </c>
       <c r="G4" t="n">
+        <v>1.8894</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.892416666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>99000</v>
       </c>
       <c r="G5" t="n">
+        <v>1.8882</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.892116666666668</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>347498.5568</v>
       </c>
       <c r="G6" t="n">
+        <v>1.8876</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.891800000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,25 @@
         <v>143140.9699</v>
       </c>
       <c r="G7" t="n">
+        <v>1.889666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.892133333333335</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +685,27 @@
         <v>16179.0035</v>
       </c>
       <c r="G8" t="n">
+        <v>1.891066666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.892300000000002</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +729,27 @@
         <v>277620.8618</v>
       </c>
       <c r="G9" t="n">
+        <v>1.889866666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.892183333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +773,21 @@
         <v>40859.9098</v>
       </c>
       <c r="G10" t="n">
+        <v>1.890133333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.892066666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +811,21 @@
         <v>717363.9157</v>
       </c>
       <c r="G11" t="n">
+        <v>1.8904</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.891933333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +849,21 @@
         <v>56720.2879</v>
       </c>
       <c r="G12" t="n">
+        <v>1.8916</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.892100000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +887,21 @@
         <v>104301.47391928</v>
       </c>
       <c r="G13" t="n">
+        <v>1.894066666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.892600000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +925,21 @@
         <v>100094.3373</v>
       </c>
       <c r="G14" t="n">
+        <v>1.8954</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.892916666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +963,21 @@
         <v>8783.9925</v>
       </c>
       <c r="G15" t="n">
+        <v>1.8966</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.893033333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1001,21 @@
         <v>29297.7086</v>
       </c>
       <c r="G16" t="n">
+        <v>1.897799999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.893216666666668</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1039,21 @@
         <v>8492.134599999999</v>
       </c>
       <c r="G17" t="n">
+        <v>1.899733333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.893566666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1077,21 @@
         <v>122927.7806</v>
       </c>
       <c r="G18" t="n">
+        <v>1.899799999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.893583333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1115,21 @@
         <v>307800</v>
       </c>
       <c r="G19" t="n">
+        <v>1.901066666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.894016666666669</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1153,21 @@
         <v>898557.8678</v>
       </c>
       <c r="G20" t="n">
+        <v>1.901666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.894033333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1191,21 @@
         <v>149000</v>
       </c>
       <c r="G21" t="n">
+        <v>1.903266666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.894283333333335</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1229,21 @@
         <v>55000</v>
       </c>
       <c r="G22" t="n">
+        <v>1.901466666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.894450000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1267,21 @@
         <v>45000</v>
       </c>
       <c r="G23" t="n">
+        <v>1.900333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.894483333333335</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1305,21 @@
         <v>1000</v>
       </c>
       <c r="G24" t="n">
+        <v>1.902199999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.895100000000002</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1343,21 @@
         <v>25000</v>
       </c>
       <c r="G25" t="n">
+        <v>1.902866666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.895433333333335</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1381,21 @@
         <v>25000</v>
       </c>
       <c r="G26" t="n">
+        <v>1.903533333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.895750000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,21 @@
         <v>67765.08319999999</v>
       </c>
       <c r="G27" t="n">
+        <v>1.903133333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.895933333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1457,21 @@
         <v>26195.0166</v>
       </c>
       <c r="G28" t="n">
+        <v>1.902133333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.896283333333336</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1495,21 @@
         <v>207631.2693</v>
       </c>
       <c r="G29" t="n">
+        <v>1.902266666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.896616666666669</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1533,21 @@
         <v>24849.1794</v>
       </c>
       <c r="G30" t="n">
+        <v>1.902533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.896950000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1571,21 @@
         <v>272325.509</v>
       </c>
       <c r="G31" t="n">
+        <v>1.903733333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.897516666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1609,21 @@
         <v>346756.1156</v>
       </c>
       <c r="G32" t="n">
+        <v>1.903799999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.898116666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1647,21 @@
         <v>116856.858</v>
       </c>
       <c r="G33" t="n">
+        <v>1.905733333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.898916666666669</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1685,21 @@
         <v>966143.8611</v>
       </c>
       <c r="G34" t="n">
+        <v>1.907133333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.899733333333336</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1723,21 @@
         <v>117753.8299</v>
       </c>
       <c r="G35" t="n">
+        <v>1.908399999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.899750000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1761,21 @@
         <v>606581.0336</v>
       </c>
       <c r="G36" t="n">
+        <v>1.909066666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.899850000000002</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1799,21 @@
         <v>317064.6674</v>
       </c>
       <c r="G37" t="n">
+        <v>1.909199999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.899600000000002</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1837,21 @@
         <v>679393.3678</v>
       </c>
       <c r="G38" t="n">
+        <v>1.911599999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.899916666666669</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1875,21 @@
         <v>191287.8738</v>
       </c>
       <c r="G39" t="n">
+        <v>1.912533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.900333333333335</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1913,21 @@
         <v>17061.7685</v>
       </c>
       <c r="G40" t="n">
+        <v>1.914399999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.900833333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1951,21 @@
         <v>17061.7684</v>
       </c>
       <c r="G41" t="n">
+        <v>1.914933333333332</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.901166666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1989,21 @@
         <v>251</v>
       </c>
       <c r="G42" t="n">
+        <v>1.918599999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.902150000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2027,21 @@
         <v>27799.9999</v>
       </c>
       <c r="G43" t="n">
+        <v>1.919666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.902816666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2065,21 @@
         <v>50000</v>
       </c>
       <c r="G44" t="n">
+        <v>1.919666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.903066666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2103,21 @@
         <v>356709.5172</v>
       </c>
       <c r="G45" t="n">
+        <v>1.919666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.903166666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2141,21 @@
         <v>60000</v>
       </c>
       <c r="G46" t="n">
+        <v>1.9196</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.903483333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2179,21 @@
         <v>38685.139</v>
       </c>
       <c r="G47" t="n">
+        <v>1.919333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.903416666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2217,21 @@
         <v>12509.7603</v>
       </c>
       <c r="G48" t="n">
+        <v>1.917666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.903150000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2255,21 @@
         <v>331308.5121</v>
       </c>
       <c r="G49" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.903350000000002</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2293,21 @@
         <v>137471.3187</v>
       </c>
       <c r="G50" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.903516666666668</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2331,21 @@
         <v>786566.2754</v>
       </c>
       <c r="G51" t="n">
+        <v>1.9148</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.903683333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2369,21 @@
         <v>5464.7862</v>
       </c>
       <c r="G52" t="n">
+        <v>1.9152</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.903883333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2407,21 @@
         <v>7914.731</v>
       </c>
       <c r="G53" t="n">
+        <v>1.913333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.904083333333335</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2445,21 @@
         <v>8410.1096</v>
       </c>
       <c r="G54" t="n">
+        <v>1.911733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.904083333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2483,21 @@
         <v>15389.7825</v>
       </c>
       <c r="G55" t="n">
+        <v>1.909733333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.904283333333335</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2521,21 @@
         <v>155205.4237</v>
       </c>
       <c r="G56" t="n">
+        <v>1.909066666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.904483333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2559,21 @@
         <v>66666.77770000001</v>
       </c>
       <c r="G57" t="n">
+        <v>1.905599999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.904733333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2597,21 @@
         <v>41853.942</v>
       </c>
       <c r="G58" t="n">
+        <v>1.904066666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.904983333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2635,21 @@
         <v>91052.511</v>
       </c>
       <c r="G59" t="n">
+        <v>1.903599999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.905233333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2673,21 @@
         <v>32648.4251</v>
       </c>
       <c r="G60" t="n">
+        <v>1.903133333333332</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.905483333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,22 +2711,21 @@
         <v>17010.9579</v>
       </c>
       <c r="G61" t="n">
+        <v>1.901999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.905783333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1.897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2552,26 +2749,21 @@
         <v>598412.0988</v>
       </c>
       <c r="G62" t="n">
+        <v>1.900799999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.905916666666668</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,24 +2787,21 @@
         <v>10755</v>
       </c>
       <c r="G63" t="n">
+        <v>1.900533333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.905933333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,22 +2825,21 @@
         <v>50000</v>
       </c>
       <c r="G64" t="n">
+        <v>1.900399999999998</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.906100000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2675,26 +2863,21 @@
         <v>140347.211</v>
       </c>
       <c r="G65" t="n">
+        <v>1.899733333333331</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.906400000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,24 +2901,21 @@
         <v>412899.733</v>
       </c>
       <c r="G66" t="n">
+        <v>1.901533333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.907166666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,18 +2939,21 @@
         <v>25948.0881</v>
       </c>
       <c r="G67" t="n">
+        <v>1.902866666666665</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.907183333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,18 +2977,21 @@
         <v>1092.1515</v>
       </c>
       <c r="G68" t="n">
+        <v>1.904199999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.907366666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,18 +3015,21 @@
         <v>155196.482</v>
       </c>
       <c r="G69" t="n">
+        <v>1.904866666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.907833333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,18 +3053,21 @@
         <v>869306.1629999999</v>
       </c>
       <c r="G70" t="n">
+        <v>1.904799999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.907950000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,18 +3091,21 @@
         <v>23456.4637</v>
       </c>
       <c r="G71" t="n">
+        <v>1.905466666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.908250000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3129,21 @@
         <v>20111.8764</v>
       </c>
       <c r="G72" t="n">
+        <v>1.906333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.908416666666669</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,18 +3167,21 @@
         <v>23665.8382</v>
       </c>
       <c r="G73" t="n">
+        <v>1.907199999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.908266666666669</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,18 +3205,21 @@
         <v>17577.3362</v>
       </c>
       <c r="G74" t="n">
+        <v>1.908066666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.908400000000002</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,18 +3243,21 @@
         <v>3521.5772</v>
       </c>
       <c r="G75" t="n">
+        <v>1.9082</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.908383333333335</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,18 +3281,21 @@
         <v>98623.69960000001</v>
       </c>
       <c r="G76" t="n">
+        <v>1.9094</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.908683333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,18 +3319,21 @@
         <v>317114.7174</v>
       </c>
       <c r="G77" t="n">
+        <v>1.9096</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.908383333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,18 +3357,21 @@
         <v>29781.1385</v>
       </c>
       <c r="G78" t="n">
+        <v>1.909733333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.908416666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,18 +3395,21 @@
         <v>491801.1634</v>
       </c>
       <c r="G79" t="n">
+        <v>1.911333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.908666666666669</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,18 +3433,21 @@
         <v>50249.6988</v>
       </c>
       <c r="G80" t="n">
+        <v>1.912933333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.909216666666669</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,18 +3471,21 @@
         <v>352742.2191</v>
       </c>
       <c r="G81" t="n">
+        <v>1.913066666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.909616666666669</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,18 +3509,21 @@
         <v>210883.2619</v>
       </c>
       <c r="G82" t="n">
+        <v>1.914333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.910400000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3319,18 +3547,21 @@
         <v>21301.1703</v>
       </c>
       <c r="G83" t="n">
+        <v>1.914333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.910866666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,18 +3585,21 @@
         <v>70000</v>
       </c>
       <c r="G84" t="n">
+        <v>1.9146</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.910933333333335</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,18 +3623,21 @@
         <v>21210.5266</v>
       </c>
       <c r="G85" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.911233333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,18 +3661,21 @@
         <v>8330.563399999999</v>
       </c>
       <c r="G86" t="n">
+        <v>1.916666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.911533333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,18 +3699,21 @@
         <v>55000</v>
       </c>
       <c r="G87" t="n">
+        <v>1.916866666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.911850000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,18 +3737,21 @@
         <v>20377.7255</v>
       </c>
       <c r="G88" t="n">
+        <v>1.917066666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.912000000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,18 +3775,21 @@
         <v>100000</v>
       </c>
       <c r="G89" t="n">
+        <v>1.917266666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.912150000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,18 +3813,21 @@
         <v>18385.2108</v>
       </c>
       <c r="G90" t="n">
+        <v>1.918133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.912283333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,18 +3851,21 @@
         <v>27023.3741</v>
       </c>
       <c r="G91" t="n">
+        <v>1.917733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.912183333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,18 +3889,21 @@
         <v>251526.8723</v>
       </c>
       <c r="G92" t="n">
+        <v>1.918333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.912016666666669</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,18 +3927,21 @@
         <v>57510</v>
       </c>
       <c r="G93" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.911733333333335</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,18 +3965,21 @@
         <v>19170</v>
       </c>
       <c r="G94" t="n">
+        <v>1.918199999999999</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.911433333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +4003,21 @@
         <v>321159.9858</v>
       </c>
       <c r="G95" t="n">
+        <v>1.916733333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.911300000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4041,21 @@
         <v>25053.069</v>
       </c>
       <c r="G96" t="n">
+        <v>1.914666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.911016666666669</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4079,21 @@
         <v>102292.6474</v>
       </c>
       <c r="G97" t="n">
+        <v>1.913266666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.911416666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4117,21 @@
         <v>1722.3346</v>
       </c>
       <c r="G98" t="n">
+        <v>1.913133333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.911250000000002</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4155,21 @@
         <v>88753.8567</v>
       </c>
       <c r="G99" t="n">
+        <v>1.9122</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.910850000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4193,21 @@
         <v>45000</v>
       </c>
       <c r="G100" t="n">
+        <v>1.9106</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.910283333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4231,21 @@
         <v>22670.1009</v>
       </c>
       <c r="G101" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.910050000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4269,21 @@
         <v>12771.7459</v>
       </c>
       <c r="G102" t="n">
+        <v>1.9088</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.909400000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4307,21 @@
         <v>45000</v>
       </c>
       <c r="G103" t="n">
+        <v>1.9086</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.909233333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4345,21 @@
         <v>159434.6276</v>
       </c>
       <c r="G104" t="n">
+        <v>1.9084</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.909333333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4383,21 @@
         <v>20482.5571</v>
       </c>
       <c r="G105" t="n">
+        <v>1.908266666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.909433333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4421,21 @@
         <v>1611483.129950253</v>
       </c>
       <c r="G106" t="n">
+        <v>1.910133333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.909816666666668</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4459,21 @@
         <v>363077.200491226</v>
       </c>
       <c r="G107" t="n">
+        <v>1.912733333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.910366666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4497,21 @@
         <v>72344.3719</v>
       </c>
       <c r="G108" t="n">
+        <v>1.915266666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.911133333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4535,21 @@
         <v>321387.7464</v>
       </c>
       <c r="G109" t="n">
+        <v>1.916933333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.911716666666669</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4573,21 @@
         <v>55000</v>
       </c>
       <c r="G110" t="n">
+        <v>1.918133333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.911883333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +4611,21 @@
         <v>240000</v>
       </c>
       <c r="G111" t="n">
+        <v>1.918933333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.912050000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +4649,21 @@
         <v>478837.154</v>
       </c>
       <c r="G112" t="n">
+        <v>1.918066666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.912133333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +4687,21 @@
         <v>1154956.2858</v>
       </c>
       <c r="G113" t="n">
+        <v>1.916333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.912000000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +4725,21 @@
         <v>100000</v>
       </c>
       <c r="G114" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.911666666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +4763,21 @@
         <v>931486.8857</v>
       </c>
       <c r="G115" t="n">
+        <v>1.914800000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.911550000000002</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +4801,21 @@
         <v>129997.0858</v>
       </c>
       <c r="G116" t="n">
+        <v>1.915666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.911700000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +4839,21 @@
         <v>55000</v>
       </c>
       <c r="G117" t="n">
+        <v>1.914533333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.911633333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +4877,21 @@
         <v>54013.3146</v>
       </c>
       <c r="G118" t="n">
+        <v>1.914466666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.911833333333335</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +4915,21 @@
         <v>10177.6418</v>
       </c>
       <c r="G119" t="n">
+        <v>1.915066666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.912200000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +4953,21 @@
         <v>26873.6855</v>
       </c>
       <c r="G120" t="n">
+        <v>1.915666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.912566666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +4991,21 @@
         <v>137710.137822051</v>
       </c>
       <c r="G121" t="n">
+        <v>1.913666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.912733333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5029,21 @@
         <v>15641.4669</v>
       </c>
       <c r="G122" t="n">
+        <v>1.911066666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.912933333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +5067,21 @@
         <v>45000</v>
       </c>
       <c r="G123" t="n">
+        <v>1.9078</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.912950000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,18 +5105,21 @@
         <v>8061.3779</v>
       </c>
       <c r="G124" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.913116666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,18 +5143,21 @@
         <v>15641.4669</v>
       </c>
       <c r="G125" t="n">
+        <v>1.905333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.913283333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,18 +5181,21 @@
         <v>7989.3537</v>
       </c>
       <c r="G126" t="n">
+        <v>1.905333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.913</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5219,21 @@
         <v>35455.3272</v>
       </c>
       <c r="G127" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.913166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5257,21 @@
         <v>300000</v>
       </c>
       <c r="G128" t="n">
+        <v>1.909266666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.913266666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5295,21 @@
         <v>442305.3273</v>
       </c>
       <c r="G129" t="n">
+        <v>1.911133333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.913233333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5333,21 @@
         <v>103281.1962</v>
       </c>
       <c r="G130" t="n">
+        <v>1.912333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.913433333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5371,21 @@
         <v>60000</v>
       </c>
       <c r="G131" t="n">
+        <v>1.912666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.913500000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5409,21 @@
         <v>204386.3398</v>
       </c>
       <c r="G132" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.913800000000001</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5447,21 @@
         <v>20778.072</v>
       </c>
       <c r="G133" t="n">
+        <v>1.915733333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.913966666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5485,21 @@
         <v>20496.3083</v>
       </c>
       <c r="G134" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.914133333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5523,21 @@
         <v>62000.2079</v>
       </c>
       <c r="G135" t="n">
+        <v>1.915866666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.914483333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5561,21 @@
         <v>56757.555</v>
       </c>
       <c r="G136" t="n">
+        <v>1.916533333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.914516666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5599,21 @@
         <v>59998.9729</v>
       </c>
       <c r="G137" t="n">
+        <v>1.9172</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.914833333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5637,21 @@
         <v>21282.1678</v>
       </c>
       <c r="G138" t="n">
+        <v>1.918466666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.915133333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5675,21 @@
         <v>45000</v>
       </c>
       <c r="G139" t="n">
+        <v>1.9186</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.914933333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +5713,21 @@
         <v>350.0415</v>
       </c>
       <c r="G140" t="n">
+        <v>1.919266666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.914866666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +5751,21 @@
         <v>118450.9837</v>
       </c>
       <c r="G141" t="n">
+        <v>1.9188</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.914433333333334</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +5789,21 @@
         <v>153214.0662</v>
       </c>
       <c r="G142" t="n">
+        <v>1.917466666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.913950000000001</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +5827,21 @@
         <v>50000</v>
       </c>
       <c r="G143" t="n">
+        <v>1.9164</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.913783333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +5865,21 @@
         <v>350000</v>
       </c>
       <c r="G144" t="n">
+        <v>1.915866666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.913550000000001</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +5903,21 @@
         <v>105429.6257</v>
       </c>
       <c r="G145" t="n">
+        <v>1.916466666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.913550000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +5941,21 @@
         <v>47750</v>
       </c>
       <c r="G146" t="n">
+        <v>1.916333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.913416666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +5979,21 @@
         <v>375411.951</v>
       </c>
       <c r="G147" t="n">
+        <v>1.9146</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.913233333333334</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6017,21 @@
         <v>59592.2369</v>
       </c>
       <c r="G148" t="n">
+        <v>1.913333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.913033333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6055,21 @@
         <v>443633.3316</v>
       </c>
       <c r="G149" t="n">
+        <v>1.914066666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.913333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6093,21 @@
         <v>1309916.1046</v>
       </c>
       <c r="G150" t="n">
+        <v>1.914066666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.913466666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6131,21 @@
         <v>510131.2896</v>
       </c>
       <c r="G151" t="n">
+        <v>1.914066666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.9136</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6169,21 @@
         <v>367604.1104</v>
       </c>
       <c r="G152" t="n">
+        <v>1.914066666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.913766666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6207,21 @@
         <v>169354.8107</v>
       </c>
       <c r="G153" t="n">
+        <v>1.914066666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.913900000000001</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6245,21 @@
         <v>200000</v>
       </c>
       <c r="G154" t="n">
+        <v>1.9146</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.914033333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6283,21 @@
         <v>23500</v>
       </c>
       <c r="G155" t="n">
+        <v>1.9146</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.914333333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6321,21 @@
         <v>7831.15</v>
       </c>
       <c r="G156" t="n">
+        <v>1.914933333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.914500000000001</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6359,21 @@
         <v>454463.47</v>
       </c>
       <c r="G157" t="n">
+        <v>1.9156</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.914533333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6397,21 @@
         <v>479605.9773</v>
       </c>
       <c r="G158" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.91425</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6435,21 @@
         <v>66369.88830000001</v>
       </c>
       <c r="G159" t="n">
+        <v>1.915533333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.914383333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6473,21 @@
         <v>108321.3025</v>
       </c>
       <c r="G160" t="n">
+        <v>1.916066666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.914916666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6511,21 @@
         <v>1391.2848</v>
       </c>
       <c r="G161" t="n">
+        <v>1.917133333333334</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.91545</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6549,21 @@
         <v>20000</v>
       </c>
       <c r="G162" t="n">
+        <v>1.918866666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.91575</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6587,21 @@
         <v>25587.5291</v>
       </c>
       <c r="G163" t="n">
+        <v>1.920666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.91605</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +6625,21 @@
         <v>18422.5376</v>
       </c>
       <c r="G164" t="n">
+        <v>1.920466666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.91635</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +6663,21 @@
         <v>116353.6453</v>
       </c>
       <c r="G165" t="n">
+        <v>1.921000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.91665</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +6701,21 @@
         <v>645973.0152</v>
       </c>
       <c r="G166" t="n">
+        <v>1.921666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.916483333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +6739,21 @@
         <v>23500</v>
       </c>
       <c r="G167" t="n">
+        <v>1.922333333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.916166666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +6777,21 @@
         <v>218722.654</v>
       </c>
       <c r="G168" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.915833333333334</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +6815,21 @@
         <v>22838.7796</v>
       </c>
       <c r="G169" t="n">
+        <v>1.924333333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.915883333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +6853,21 @@
         <v>20554.1662</v>
       </c>
       <c r="G170" t="n">
+        <v>1.925666666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.916216666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +6891,21 @@
         <v>50000</v>
       </c>
       <c r="G171" t="n">
+        <v>1.927133333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.916550000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +6929,21 @@
         <v>120000</v>
       </c>
       <c r="G172" t="n">
+        <v>1.926466666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.916633333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +6967,21 @@
         <v>18510.0812</v>
       </c>
       <c r="G173" t="n">
+        <v>1.927066666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.916933333333334</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7005,21 @@
         <v>619908.5498</v>
       </c>
       <c r="G174" t="n">
+        <v>1.927733333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.917566666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7043,21 @@
         <v>201487.8244</v>
       </c>
       <c r="G175" t="n">
+        <v>1.927200000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.918016666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7081,21 @@
         <v>55000</v>
       </c>
       <c r="G176" t="n">
+        <v>1.926000000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.918033333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7119,21 @@
         <v>368188.1852</v>
       </c>
       <c r="G177" t="n">
+        <v>1.924933333333334</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.918350000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7157,21 @@
         <v>271125.3025</v>
       </c>
       <c r="G178" t="n">
+        <v>1.924400000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.918533333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,18 +7195,21 @@
         <v>4000</v>
       </c>
       <c r="G179" t="n">
+        <v>1.923200000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.918383333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,18 +7233,21 @@
         <v>53171.2503</v>
       </c>
       <c r="G180" t="n">
+        <v>1.922000000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.918233333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6749,18 +7271,21 @@
         <v>60000</v>
       </c>
       <c r="G181" t="n">
+        <v>1.920666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.918233333333334</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,18 +7309,401 @@
         <v>55000</v>
       </c>
       <c r="G182" t="n">
+        <v>1.919333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.918233333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F183" t="n">
+        <v>25984.5128</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.918000000000001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.918383333333334</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F184" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.914800000000001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.918083333333334</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F185" t="n">
+        <v>697276.8497</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.9128</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.918083333333334</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F186" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.910933333333334</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.917950000000001</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F187" t="n">
+        <v>361256.544502617</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.910933333333334</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.917616666666667</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F188" t="n">
+        <v>30760</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.910400000000001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.917216666666667</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30260</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.908666666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.91695</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F190" t="n">
+        <v>204022.092997383</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.908000000000001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.916933333333334</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F191" t="n">
+        <v>15384.816753926</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.908000000000001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.916866666666667</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21359.8883</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.907200000000001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.9164</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.884</v>
+        <v>1.9</v>
       </c>
       <c r="C2" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.884</v>
+        <v>1.9</v>
       </c>
       <c r="E2" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="F2" t="n">
-        <v>55000</v>
+        <v>8783.9925</v>
       </c>
       <c r="G2" t="n">
-        <v>-1420535.0702</v>
+        <v>-1800481.265744175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,76 +467,91 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="C3" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="E3" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="F3" t="n">
-        <v>65000</v>
+        <v>29297.7086</v>
       </c>
       <c r="G3" t="n">
-        <v>-1420535.0702</v>
+        <v>-1800481.265744175</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.9</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="D4" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="E4" t="n">
-        <v>1.881</v>
+        <v>1.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1173420.2907</v>
+        <v>8492.134599999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-247114.7794999999</v>
+        <v>-1791989.131144175</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,19 +561,19 @@
         <v>1.909</v>
       </c>
       <c r="C5" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D5" t="n">
         <v>1.909</v>
       </c>
       <c r="E5" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F5" t="n">
-        <v>70000</v>
+        <v>122927.7806</v>
       </c>
       <c r="G5" t="n">
-        <v>-247114.7794999999</v>
+        <v>-1914916.911744175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,11 +582,18 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,10 +612,10 @@
         <v>1.909</v>
       </c>
       <c r="F6" t="n">
-        <v>55000</v>
+        <v>307800</v>
       </c>
       <c r="G6" t="n">
-        <v>-247114.7794999999</v>
+        <v>-1607116.911744175</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,33 +624,40 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.909</v>
+        <v>1.892</v>
       </c>
       <c r="C7" t="n">
-        <v>1.909</v>
+        <v>1.891</v>
       </c>
       <c r="D7" t="n">
-        <v>1.909</v>
+        <v>1.892</v>
       </c>
       <c r="E7" t="n">
-        <v>1.909</v>
+        <v>1.881</v>
       </c>
       <c r="F7" t="n">
-        <v>50000</v>
+        <v>898557.8678</v>
       </c>
       <c r="G7" t="n">
-        <v>-247114.7794999999</v>
+        <v>-2505674.779544175</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,33 +666,40 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.909</v>
+        <v>1.905</v>
       </c>
       <c r="C8" t="n">
-        <v>1.909</v>
+        <v>1.905</v>
       </c>
       <c r="D8" t="n">
-        <v>1.909</v>
+        <v>1.905</v>
       </c>
       <c r="E8" t="n">
-        <v>1.909</v>
+        <v>1.905</v>
       </c>
       <c r="F8" t="n">
-        <v>55000</v>
+        <v>149000</v>
       </c>
       <c r="G8" t="n">
-        <v>-247114.7794999999</v>
+        <v>-2356674.779544175</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,33 +708,40 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="D9" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="E9" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="F9" t="n">
-        <v>41899.5383</v>
+        <v>55000</v>
       </c>
       <c r="G9" t="n">
-        <v>-289014.3178</v>
+        <v>-2411674.779544175</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,33 +750,40 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="C10" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="D10" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="E10" t="n">
-        <v>1.89</v>
+        <v>1.892</v>
       </c>
       <c r="F10" t="n">
-        <v>22987.8231</v>
+        <v>45000</v>
       </c>
       <c r="G10" t="n">
-        <v>-312002.1408999999</v>
+        <v>-2411674.779544175</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,68 +792,84 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="C11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="D11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="E11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="F11" t="n">
-        <v>71707.0379</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>-312002.1408999999</v>
+        <v>-2410674.779544175</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.881</v>
+        <v>1.902</v>
       </c>
       <c r="C12" t="n">
-        <v>1.88</v>
+        <v>1.902</v>
       </c>
       <c r="D12" t="n">
-        <v>1.881</v>
+        <v>1.902</v>
       </c>
       <c r="E12" t="n">
-        <v>1.88</v>
+        <v>1.902</v>
       </c>
       <c r="F12" t="n">
-        <v>1020201.4728</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="n">
-        <v>-1332203.6137</v>
+        <v>-2435674.779544175</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,68 +878,84 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.889</v>
+        <v>1.902</v>
       </c>
       <c r="C13" t="n">
-        <v>1.889</v>
+        <v>1.902</v>
       </c>
       <c r="D13" t="n">
-        <v>1.889</v>
+        <v>1.902</v>
       </c>
       <c r="E13" t="n">
-        <v>1.889</v>
+        <v>1.902</v>
       </c>
       <c r="F13" t="n">
-        <v>28227.858</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="n">
-        <v>-1303975.7557</v>
+        <v>-2435674.779544175</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="C14" t="n">
-        <v>1.898</v>
+        <v>1.894</v>
       </c>
       <c r="D14" t="n">
-        <v>1.898</v>
+        <v>1.894</v>
       </c>
       <c r="E14" t="n">
-        <v>1.89</v>
+        <v>1.894</v>
       </c>
       <c r="F14" t="n">
-        <v>59311.9773</v>
+        <v>67765.08319999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-1244663.7784</v>
+        <v>-2503439.862744175</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +964,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="C15" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="D15" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="E15" t="n">
-        <v>1.898</v>
+        <v>1.904</v>
       </c>
       <c r="F15" t="n">
-        <v>26384.77</v>
+        <v>26195.0166</v>
       </c>
       <c r="G15" t="n">
-        <v>-1244663.7784</v>
+        <v>-2477244.846144175</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +1006,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.89</v>
+        <v>1.915</v>
       </c>
       <c r="C16" t="n">
-        <v>1.92</v>
+        <v>1.904</v>
       </c>
       <c r="D16" t="n">
-        <v>1.92</v>
+        <v>1.915</v>
       </c>
       <c r="E16" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="F16" t="n">
-        <v>188216.5184</v>
+        <v>207631.2693</v>
       </c>
       <c r="G16" t="n">
-        <v>-1056447.26</v>
+        <v>-2477244.846144175</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1048,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.92</v>
+        <v>1.904</v>
       </c>
       <c r="C17" t="n">
-        <v>1.92</v>
+        <v>1.904</v>
       </c>
       <c r="D17" t="n">
-        <v>1.92</v>
+        <v>1.904</v>
       </c>
       <c r="E17" t="n">
-        <v>1.92</v>
+        <v>1.904</v>
       </c>
       <c r="F17" t="n">
-        <v>24623.8726</v>
+        <v>24849.1794</v>
       </c>
       <c r="G17" t="n">
-        <v>-1056447.26</v>
+        <v>-2477244.846144175</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1090,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="C18" t="n">
-        <v>1.89</v>
+        <v>1.918</v>
       </c>
       <c r="D18" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="E18" t="n">
-        <v>1.89</v>
+        <v>1.905</v>
       </c>
       <c r="F18" t="n">
-        <v>45000</v>
+        <v>272325.509</v>
       </c>
       <c r="G18" t="n">
-        <v>-1101447.26</v>
+        <v>-2204919.337144175</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1132,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="D19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="F19" t="n">
-        <v>8178.8996</v>
+        <v>346756.1156</v>
       </c>
       <c r="G19" t="n">
-        <v>-1093268.3604</v>
+        <v>-1858163.221544174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1174,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.89</v>
+        <v>1.927</v>
       </c>
       <c r="C20" t="n">
-        <v>1.89</v>
+        <v>1.929</v>
       </c>
       <c r="D20" t="n">
-        <v>1.89</v>
+        <v>1.929</v>
       </c>
       <c r="E20" t="n">
-        <v>1.89</v>
+        <v>1.927</v>
       </c>
       <c r="F20" t="n">
-        <v>55000</v>
+        <v>116856.858</v>
       </c>
       <c r="G20" t="n">
-        <v>-1148268.3604</v>
+        <v>-1741306.363544174</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1216,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.89</v>
+        <v>1.928</v>
       </c>
       <c r="C21" t="n">
-        <v>1.888</v>
+        <v>1.93</v>
       </c>
       <c r="D21" t="n">
-        <v>1.89</v>
+        <v>1.938</v>
       </c>
       <c r="E21" t="n">
-        <v>1.888</v>
+        <v>1.928</v>
       </c>
       <c r="F21" t="n">
-        <v>60000</v>
+        <v>966143.8611</v>
       </c>
       <c r="G21" t="n">
-        <v>-1208268.3604</v>
+        <v>-775162.5024441745</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1258,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.888</v>
+        <v>1.915</v>
       </c>
       <c r="C22" t="n">
-        <v>1.888</v>
+        <v>1.91</v>
       </c>
       <c r="D22" t="n">
-        <v>1.888</v>
+        <v>1.915</v>
       </c>
       <c r="E22" t="n">
-        <v>1.888</v>
+        <v>1.91</v>
       </c>
       <c r="F22" t="n">
-        <v>45000</v>
+        <v>117753.8299</v>
       </c>
       <c r="G22" t="n">
-        <v>-1208268.3604</v>
+        <v>-892916.3323441745</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,138 +1300,172 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C23" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="D23" t="n">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="E23" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F23" t="n">
-        <v>262</v>
+        <v>606581.0336</v>
       </c>
       <c r="G23" t="n">
-        <v>-1208006.3604</v>
+        <v>-286335.2987441745</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.888</v>
+        <v>1.91</v>
       </c>
       <c r="C24" t="n">
-        <v>1.888</v>
+        <v>1.894</v>
       </c>
       <c r="D24" t="n">
-        <v>1.888</v>
+        <v>1.91</v>
       </c>
       <c r="E24" t="n">
-        <v>1.888</v>
+        <v>1.894</v>
       </c>
       <c r="F24" t="n">
-        <v>50000</v>
+        <v>317064.6674</v>
       </c>
       <c r="G24" t="n">
-        <v>-1258006.3604</v>
+        <v>-603399.9661441746</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.888</v>
+        <v>1.9</v>
       </c>
       <c r="C25" t="n">
-        <v>1.888</v>
+        <v>1.928</v>
       </c>
       <c r="D25" t="n">
-        <v>1.888</v>
+        <v>1.928</v>
       </c>
       <c r="E25" t="n">
-        <v>1.888</v>
+        <v>1.9</v>
       </c>
       <c r="F25" t="n">
-        <v>70000</v>
+        <v>679393.3678</v>
       </c>
       <c r="G25" t="n">
-        <v>-1258006.3604</v>
+        <v>75993.40165582544</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.882</v>
+        <v>1.928</v>
       </c>
       <c r="C26" t="n">
-        <v>1.882</v>
+        <v>1.934</v>
       </c>
       <c r="D26" t="n">
-        <v>1.882</v>
+        <v>1.934</v>
       </c>
       <c r="E26" t="n">
-        <v>1.882</v>
+        <v>1.928</v>
       </c>
       <c r="F26" t="n">
-        <v>45000</v>
+        <v>191287.8738</v>
       </c>
       <c r="G26" t="n">
-        <v>-1303006.3604</v>
+        <v>267281.2754558254</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1474,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.882</v>
+        <v>1.93</v>
       </c>
       <c r="C27" t="n">
-        <v>1.882</v>
+        <v>1.93</v>
       </c>
       <c r="D27" t="n">
-        <v>1.882</v>
+        <v>1.93</v>
       </c>
       <c r="E27" t="n">
-        <v>1.882</v>
+        <v>1.93</v>
       </c>
       <c r="F27" t="n">
-        <v>55000</v>
+        <v>17061.7685</v>
       </c>
       <c r="G27" t="n">
-        <v>-1303006.3604</v>
+        <v>250219.5069558254</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1516,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.882</v>
+        <v>1.91</v>
       </c>
       <c r="C28" t="n">
-        <v>1.882</v>
+        <v>1.91</v>
       </c>
       <c r="D28" t="n">
-        <v>1.882</v>
+        <v>1.91</v>
       </c>
       <c r="E28" t="n">
-        <v>1.882</v>
+        <v>1.91</v>
       </c>
       <c r="F28" t="n">
-        <v>55000</v>
+        <v>17061.7684</v>
       </c>
       <c r="G28" t="n">
-        <v>-1303006.3604</v>
+        <v>233157.7385558254</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,158 +1558,166 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.882</v>
+        <v>1.949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.882</v>
+        <v>1.949</v>
       </c>
       <c r="D29" t="n">
-        <v>1.882</v>
+        <v>1.949</v>
       </c>
       <c r="E29" t="n">
-        <v>1.882</v>
+        <v>1.949</v>
       </c>
       <c r="F29" t="n">
-        <v>76631.9755</v>
+        <v>251</v>
       </c>
       <c r="G29" t="n">
-        <v>-1303006.3604</v>
+        <v>233408.7385558254</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.882</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.882</v>
+        <v>1.93</v>
       </c>
       <c r="C30" t="n">
-        <v>1.882</v>
+        <v>1.92</v>
       </c>
       <c r="D30" t="n">
-        <v>1.882</v>
+        <v>1.93</v>
       </c>
       <c r="E30" t="n">
-        <v>1.882</v>
+        <v>1.92</v>
       </c>
       <c r="F30" t="n">
-        <v>45000</v>
+        <v>27799.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>-1303006.3604</v>
+        <v>205608.7386558254</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.882</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C31" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="D31" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="E31" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="F31" t="n">
-        <v>43560.282</v>
+        <v>50000</v>
       </c>
       <c r="G31" t="n">
-        <v>-1259446.0784</v>
+        <v>155608.7386558254</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.882</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="C32" t="n">
-        <v>1.899</v>
+        <v>1.904</v>
       </c>
       <c r="D32" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="E32" t="n">
-        <v>1.899</v>
+        <v>1.904</v>
       </c>
       <c r="F32" t="n">
-        <v>5265.929436545</v>
+        <v>356709.5172</v>
       </c>
       <c r="G32" t="n">
-        <v>-1254180.148963455</v>
+        <v>155608.7386558254</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1527,33 +1726,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C33" t="n">
-        <v>1.89</v>
+        <v>1.917</v>
       </c>
       <c r="D33" t="n">
-        <v>1.89</v>
+        <v>1.917</v>
       </c>
       <c r="E33" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="F33" t="n">
-        <v>1287.0966</v>
+        <v>60000</v>
       </c>
       <c r="G33" t="n">
-        <v>-1255467.245563455</v>
+        <v>215608.7386558254</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1562,33 +1768,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.882</v>
+        <v>1.916</v>
       </c>
       <c r="C34" t="n">
-        <v>1.882</v>
+        <v>1.916</v>
       </c>
       <c r="D34" t="n">
-        <v>1.882</v>
+        <v>1.916</v>
       </c>
       <c r="E34" t="n">
-        <v>1.882</v>
+        <v>1.916</v>
       </c>
       <c r="F34" t="n">
-        <v>99000</v>
+        <v>38685.139</v>
       </c>
       <c r="G34" t="n">
-        <v>-1354467.245563455</v>
+        <v>176923.5996558254</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1597,33 +1810,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="C35" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="D35" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="E35" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="F35" t="n">
-        <v>347498.5568</v>
+        <v>12509.7603</v>
       </c>
       <c r="G35" t="n">
-        <v>-1701965.802363455</v>
+        <v>164413.8393558254</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1632,33 +1852,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C36" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="D36" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E36" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="F36" t="n">
-        <v>143140.9699</v>
+        <v>331308.5121</v>
       </c>
       <c r="G36" t="n">
-        <v>-1558824.832463455</v>
+        <v>-166894.6727441745</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1667,33 +1894,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="C37" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="D37" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="E37" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="F37" t="n">
-        <v>16179.0035</v>
+        <v>137471.3187</v>
       </c>
       <c r="G37" t="n">
-        <v>-1575003.835963455</v>
+        <v>-29423.35404417454</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1702,33 +1936,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.892</v>
+        <v>1.901</v>
       </c>
       <c r="C38" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="D38" t="n">
-        <v>1.892</v>
+        <v>1.901</v>
       </c>
       <c r="E38" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F38" t="n">
-        <v>277620.8618</v>
+        <v>786566.2754</v>
       </c>
       <c r="G38" t="n">
-        <v>-1852624.697763456</v>
+        <v>-815989.6294441746</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1737,33 +1978,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="C39" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="D39" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="E39" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F39" t="n">
-        <v>40859.9098</v>
+        <v>5464.7862</v>
       </c>
       <c r="G39" t="n">
-        <v>-1852624.697763456</v>
+        <v>-815989.6294441746</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1772,33 +2020,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="C40" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="D40" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="E40" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F40" t="n">
-        <v>717363.9157</v>
+        <v>7914.731</v>
       </c>
       <c r="G40" t="n">
-        <v>-1852624.697763456</v>
+        <v>-815989.6294441746</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1807,33 +2062,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="C41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E41" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F41" t="n">
-        <v>56720.2879</v>
+        <v>8410.1096</v>
       </c>
       <c r="G41" t="n">
-        <v>-1795904.409863455</v>
+        <v>-807579.5198441746</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,33 +2104,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C42" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="D42" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="E42" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F42" t="n">
-        <v>104301.47391928</v>
+        <v>15389.7825</v>
       </c>
       <c r="G42" t="n">
-        <v>-1691602.935944175</v>
+        <v>-822969.3023441746</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,33 +2146,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="C43" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="D43" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="E43" t="n">
         <v>1.9</v>
       </c>
       <c r="F43" t="n">
-        <v>100094.3373</v>
+        <v>155205.4237</v>
       </c>
       <c r="G43" t="n">
-        <v>-1791697.273244175</v>
+        <v>-822969.3023441746</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1912,33 +2188,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C44" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D44" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E44" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F44" t="n">
-        <v>8783.9925</v>
+        <v>66666.77770000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-1800481.265744175</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1947,33 +2230,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C45" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D45" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E45" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F45" t="n">
-        <v>29297.7086</v>
+        <v>41853.942</v>
       </c>
       <c r="G45" t="n">
-        <v>-1800481.265744175</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1982,33 +2272,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C46" t="n">
-        <v>1.919</v>
+        <v>1.897</v>
       </c>
       <c r="D46" t="n">
-        <v>1.919</v>
+        <v>1.897</v>
       </c>
       <c r="E46" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F46" t="n">
-        <v>8492.134599999999</v>
+        <v>91052.511</v>
       </c>
       <c r="G46" t="n">
-        <v>-1791989.131144175</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2017,33 +2314,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.909</v>
+        <v>1.897</v>
       </c>
       <c r="C47" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D47" t="n">
-        <v>1.909</v>
+        <v>1.897</v>
       </c>
       <c r="E47" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F47" t="n">
-        <v>122927.7806</v>
+        <v>32648.4251</v>
       </c>
       <c r="G47" t="n">
-        <v>-1914916.911744175</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2052,33 +2356,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C48" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D48" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="E48" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F48" t="n">
-        <v>307800</v>
+        <v>17010.9579</v>
       </c>
       <c r="G48" t="n">
-        <v>-1607116.911744175</v>
+        <v>-872625.1221441745</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2087,33 +2398,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.892</v>
+        <v>1.899</v>
       </c>
       <c r="C49" t="n">
-        <v>1.891</v>
+        <v>1.898</v>
       </c>
       <c r="D49" t="n">
-        <v>1.892</v>
+        <v>1.899</v>
       </c>
       <c r="E49" t="n">
-        <v>1.881</v>
+        <v>1.898</v>
       </c>
       <c r="F49" t="n">
-        <v>898557.8678</v>
+        <v>598412.0988</v>
       </c>
       <c r="G49" t="n">
-        <v>-2505674.779544175</v>
+        <v>-1471037.220944175</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2122,138 +2440,172 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="C50" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="D50" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="E50" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="F50" t="n">
-        <v>149000</v>
+        <v>10755</v>
       </c>
       <c r="G50" t="n">
-        <v>-2356674.779544175</v>
+        <v>-1460282.220944175</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="C51" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="D51" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="E51" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F51" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="G51" t="n">
-        <v>-2411674.779544175</v>
+        <v>-1460282.220944175</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="C52" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="D52" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="E52" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F52" t="n">
-        <v>45000</v>
+        <v>140347.211</v>
       </c>
       <c r="G52" t="n">
-        <v>-2411674.779544175</v>
+        <v>-1460282.220944175</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="C53" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="D53" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="E53" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>412899.733</v>
       </c>
       <c r="G53" t="n">
-        <v>-2410674.779544175</v>
+        <v>-1047382.487944175</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2262,33 +2614,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="C54" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="D54" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="E54" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="F54" t="n">
-        <v>25000</v>
+        <v>25948.0881</v>
       </c>
       <c r="G54" t="n">
-        <v>-2435674.779544175</v>
+        <v>-1073330.576044175</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2297,33 +2656,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="C55" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="D55" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="E55" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="F55" t="n">
-        <v>25000</v>
+        <v>1092.1515</v>
       </c>
       <c r="G55" t="n">
-        <v>-2435674.779544175</v>
+        <v>-1073330.576044175</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2332,33 +2698,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.894</v>
+        <v>1.93</v>
       </c>
       <c r="C56" t="n">
-        <v>1.894</v>
+        <v>1.92</v>
       </c>
       <c r="D56" t="n">
-        <v>1.894</v>
+        <v>1.93</v>
       </c>
       <c r="E56" t="n">
-        <v>1.894</v>
+        <v>1.92</v>
       </c>
       <c r="F56" t="n">
-        <v>67765.08319999999</v>
+        <v>155196.482</v>
       </c>
       <c r="G56" t="n">
-        <v>-2503439.862744175</v>
+        <v>-1073330.576044175</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2367,33 +2740,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="C57" t="n">
-        <v>1.904</v>
+        <v>1.899</v>
       </c>
       <c r="D57" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="E57" t="n">
-        <v>1.904</v>
+        <v>1.899</v>
       </c>
       <c r="F57" t="n">
-        <v>26195.0166</v>
+        <v>869306.1629999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-2477244.846144175</v>
+        <v>-1942636.739044175</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2402,33 +2782,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.915</v>
+        <v>1.928</v>
       </c>
       <c r="C58" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="D58" t="n">
-        <v>1.915</v>
+        <v>1.928</v>
       </c>
       <c r="E58" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="F58" t="n">
-        <v>207631.2693</v>
+        <v>23456.4637</v>
       </c>
       <c r="G58" t="n">
-        <v>-2477244.846144175</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2437,33 +2824,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="C59" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="D59" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="E59" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="F59" t="n">
-        <v>24849.1794</v>
+        <v>20111.8764</v>
       </c>
       <c r="G59" t="n">
-        <v>-2477244.846144175</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2472,33 +2866,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="C60" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="D60" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="E60" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="F60" t="n">
-        <v>272325.509</v>
+        <v>23665.8382</v>
       </c>
       <c r="G60" t="n">
-        <v>-2204919.337144175</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2507,33 +2908,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="C61" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D61" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E61" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="F61" t="n">
-        <v>346756.1156</v>
+        <v>17577.3362</v>
       </c>
       <c r="G61" t="n">
-        <v>-1858163.221544174</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2542,33 +2950,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.927</v>
+        <v>1.899</v>
       </c>
       <c r="C62" t="n">
-        <v>1.929</v>
+        <v>1.899</v>
       </c>
       <c r="D62" t="n">
-        <v>1.929</v>
+        <v>1.899</v>
       </c>
       <c r="E62" t="n">
-        <v>1.927</v>
+        <v>1.899</v>
       </c>
       <c r="F62" t="n">
-        <v>116856.858</v>
+        <v>3521.5772</v>
       </c>
       <c r="G62" t="n">
-        <v>-1741306.363544174</v>
+        <v>-1922701.852544175</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2577,33 +2992,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="C63" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="D63" t="n">
-        <v>1.938</v>
+        <v>1.918</v>
       </c>
       <c r="E63" t="n">
-        <v>1.928</v>
+        <v>1.918</v>
       </c>
       <c r="F63" t="n">
-        <v>966143.8611</v>
+        <v>98623.69960000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-775162.5024441745</v>
+        <v>-1824078.152944175</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2612,33 +3034,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.915</v>
+        <v>1.901</v>
       </c>
       <c r="C64" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="D64" t="n">
-        <v>1.915</v>
+        <v>1.901</v>
       </c>
       <c r="E64" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="F64" t="n">
-        <v>117753.8299</v>
+        <v>317114.7174</v>
       </c>
       <c r="G64" t="n">
-        <v>-892916.3323441745</v>
+        <v>-2141192.870344175</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2647,33 +3076,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.915</v>
+        <v>1.902</v>
       </c>
       <c r="C65" t="n">
-        <v>1.915</v>
+        <v>1.902</v>
       </c>
       <c r="D65" t="n">
-        <v>1.925</v>
+        <v>1.902</v>
       </c>
       <c r="E65" t="n">
-        <v>1.915</v>
+        <v>1.902</v>
       </c>
       <c r="F65" t="n">
-        <v>606581.0336</v>
+        <v>29781.1385</v>
       </c>
       <c r="G65" t="n">
-        <v>-286335.2987441745</v>
+        <v>-2111411.731844175</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2682,33 +3118,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="C66" t="n">
-        <v>1.894</v>
+        <v>1.924</v>
       </c>
       <c r="D66" t="n">
-        <v>1.91</v>
+        <v>1.924</v>
       </c>
       <c r="E66" t="n">
-        <v>1.894</v>
+        <v>1.918</v>
       </c>
       <c r="F66" t="n">
-        <v>317064.6674</v>
+        <v>491801.1634</v>
       </c>
       <c r="G66" t="n">
-        <v>-603399.9661441746</v>
+        <v>-1619610.568444175</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2717,33 +3160,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.9</v>
+        <v>1.924</v>
       </c>
       <c r="C67" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="D67" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="E67" t="n">
-        <v>1.9</v>
+        <v>1.924</v>
       </c>
       <c r="F67" t="n">
-        <v>679393.3678</v>
+        <v>50249.6988</v>
       </c>
       <c r="G67" t="n">
-        <v>75993.40165582544</v>
+        <v>-1619610.568444175</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2752,33 +3202,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.928</v>
+        <v>1.929</v>
       </c>
       <c r="C68" t="n">
-        <v>1.934</v>
+        <v>1.929</v>
       </c>
       <c r="D68" t="n">
-        <v>1.934</v>
+        <v>1.929</v>
       </c>
       <c r="E68" t="n">
-        <v>1.928</v>
+        <v>1.929</v>
       </c>
       <c r="F68" t="n">
-        <v>191287.8738</v>
+        <v>352742.2191</v>
       </c>
       <c r="G68" t="n">
-        <v>267281.2754558254</v>
+        <v>-1266868.349344175</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2787,33 +3244,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.93</v>
+        <v>1.939</v>
       </c>
       <c r="C69" t="n">
-        <v>1.93</v>
+        <v>1.939</v>
       </c>
       <c r="D69" t="n">
-        <v>1.93</v>
+        <v>1.939</v>
       </c>
       <c r="E69" t="n">
-        <v>1.93</v>
+        <v>1.939</v>
       </c>
       <c r="F69" t="n">
-        <v>17061.7685</v>
+        <v>210883.2619</v>
       </c>
       <c r="G69" t="n">
-        <v>250219.5069558254</v>
+        <v>-1055985.087444175</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2822,33 +3286,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.91</v>
+        <v>1.924</v>
       </c>
       <c r="C70" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D70" t="n">
-        <v>1.91</v>
+        <v>1.924</v>
       </c>
       <c r="E70" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F70" t="n">
-        <v>17061.7684</v>
+        <v>21301.1703</v>
       </c>
       <c r="G70" t="n">
-        <v>233157.7385558254</v>
+        <v>-1077286.257744175</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2857,33 +3328,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.949</v>
+        <v>1.924</v>
       </c>
       <c r="C71" t="n">
-        <v>1.949</v>
+        <v>1.924</v>
       </c>
       <c r="D71" t="n">
-        <v>1.949</v>
+        <v>1.924</v>
       </c>
       <c r="E71" t="n">
-        <v>1.949</v>
+        <v>1.924</v>
       </c>
       <c r="F71" t="n">
-        <v>251</v>
+        <v>70000</v>
       </c>
       <c r="G71" t="n">
-        <v>233408.7385558254</v>
+        <v>-1007286.257744175</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2892,33 +3370,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="C72" t="n">
         <v>1.92</v>
       </c>
       <c r="D72" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="E72" t="n">
         <v>1.92</v>
       </c>
       <c r="F72" t="n">
-        <v>27799.9999</v>
+        <v>21210.5266</v>
       </c>
       <c r="G72" t="n">
-        <v>205608.7386558254</v>
+        <v>-1028496.784344175</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2927,33 +3412,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C73" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="D73" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E73" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="F73" t="n">
-        <v>50000</v>
+        <v>8330.563399999999</v>
       </c>
       <c r="G73" t="n">
-        <v>155608.7386558254</v>
+        <v>-1028496.784344175</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2962,33 +3454,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.919</v>
+        <v>1.913</v>
       </c>
       <c r="C74" t="n">
-        <v>1.904</v>
+        <v>1.913</v>
       </c>
       <c r="D74" t="n">
-        <v>1.919</v>
+        <v>1.913</v>
       </c>
       <c r="E74" t="n">
-        <v>1.904</v>
+        <v>1.913</v>
       </c>
       <c r="F74" t="n">
-        <v>356709.5172</v>
+        <v>55000</v>
       </c>
       <c r="G74" t="n">
-        <v>155608.7386558254</v>
+        <v>-1083496.784344175</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2997,33 +3496,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.91</v>
+        <v>1.913</v>
       </c>
       <c r="C75" t="n">
-        <v>1.917</v>
+        <v>1.913</v>
       </c>
       <c r="D75" t="n">
-        <v>1.917</v>
+        <v>1.913</v>
       </c>
       <c r="E75" t="n">
-        <v>1.91</v>
+        <v>1.913</v>
       </c>
       <c r="F75" t="n">
-        <v>60000</v>
+        <v>20377.7255</v>
       </c>
       <c r="G75" t="n">
-        <v>215608.7386558254</v>
+        <v>-1083496.784344175</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3032,33 +3538,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.916</v>
+        <v>1.913</v>
       </c>
       <c r="C76" t="n">
-        <v>1.916</v>
+        <v>1.913</v>
       </c>
       <c r="D76" t="n">
-        <v>1.916</v>
+        <v>1.913</v>
       </c>
       <c r="E76" t="n">
-        <v>1.916</v>
+        <v>1.913</v>
       </c>
       <c r="F76" t="n">
-        <v>38685.139</v>
+        <v>100000</v>
       </c>
       <c r="G76" t="n">
-        <v>176923.5996558254</v>
+        <v>-1083496.784344175</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3067,33 +3580,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.904</v>
+        <v>1.912</v>
       </c>
       <c r="C77" t="n">
-        <v>1.904</v>
+        <v>1.912</v>
       </c>
       <c r="D77" t="n">
-        <v>1.904</v>
+        <v>1.912</v>
       </c>
       <c r="E77" t="n">
-        <v>1.904</v>
+        <v>1.912</v>
       </c>
       <c r="F77" t="n">
-        <v>12509.7603</v>
+        <v>18385.2108</v>
       </c>
       <c r="G77" t="n">
-        <v>164413.8393558254</v>
+        <v>-1101881.995144175</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3102,33 +3622,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="C78" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="D78" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="E78" t="n">
-        <v>1.902</v>
+        <v>1.912</v>
       </c>
       <c r="F78" t="n">
-        <v>331308.5121</v>
+        <v>27023.3741</v>
       </c>
       <c r="G78" t="n">
-        <v>-166894.6727441745</v>
+        <v>-1101881.995144175</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3137,33 +3664,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="C79" t="n">
         <v>1.91</v>
       </c>
       <c r="D79" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="E79" t="n">
         <v>1.91</v>
       </c>
       <c r="F79" t="n">
-        <v>137471.3187</v>
+        <v>251526.8723</v>
       </c>
       <c r="G79" t="n">
-        <v>-29423.35404417454</v>
+        <v>-1353408.867444175</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3172,33 +3706,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="C80" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="D80" t="n">
-        <v>1.901</v>
+        <v>1.912</v>
       </c>
       <c r="E80" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="F80" t="n">
-        <v>786566.2754</v>
+        <v>57510</v>
       </c>
       <c r="G80" t="n">
-        <v>-815989.6294441746</v>
+        <v>-1295898.867444175</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3207,33 +3748,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="C81" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="D81" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="E81" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="F81" t="n">
-        <v>5464.7862</v>
+        <v>19170</v>
       </c>
       <c r="G81" t="n">
-        <v>-815989.6294441746</v>
+        <v>-1295898.867444175</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3242,33 +3790,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="C82" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="D82" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="E82" t="n">
-        <v>1.9</v>
+        <v>1.902</v>
       </c>
       <c r="F82" t="n">
-        <v>7914.731</v>
+        <v>321159.9858</v>
       </c>
       <c r="G82" t="n">
-        <v>-815989.6294441746</v>
+        <v>-1617058.853244175</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3277,33 +3832,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="C83" t="n">
-        <v>1.91</v>
+        <v>1.898</v>
       </c>
       <c r="D83" t="n">
-        <v>1.91</v>
+        <v>1.898</v>
       </c>
       <c r="E83" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="F83" t="n">
-        <v>8410.1096</v>
+        <v>25053.069</v>
       </c>
       <c r="G83" t="n">
-        <v>-807579.5198441746</v>
+        <v>-1642111.922244175</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3312,33 +3874,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="C84" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="D84" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="E84" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="F84" t="n">
-        <v>15389.7825</v>
+        <v>102292.6474</v>
       </c>
       <c r="G84" t="n">
-        <v>-822969.3023441746</v>
+        <v>-1539819.274844175</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3347,33 +3916,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="C85" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="D85" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="E85" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="F85" t="n">
-        <v>155205.4237</v>
+        <v>1722.3346</v>
       </c>
       <c r="G85" t="n">
-        <v>-822969.3023441746</v>
+        <v>-1539819.274844175</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3382,33 +3958,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="C86" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="D86" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="E86" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="F86" t="n">
-        <v>66666.77770000001</v>
+        <v>88753.8567</v>
       </c>
       <c r="G86" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1628573.131544175</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3417,33 +4000,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="C87" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="D87" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="E87" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="F87" t="n">
-        <v>41853.942</v>
+        <v>45000</v>
       </c>
       <c r="G87" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1673573.131544175</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3452,33 +4042,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="C88" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="D88" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="E88" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="F88" t="n">
-        <v>91052.511</v>
+        <v>22670.1009</v>
       </c>
       <c r="G88" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1673573.131544175</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3487,33 +4084,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="C89" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="D89" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="E89" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="F89" t="n">
-        <v>32648.4251</v>
+        <v>12771.7459</v>
       </c>
       <c r="G89" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3522,33 +4126,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D90" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E90" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F90" t="n">
-        <v>17010.9579</v>
+        <v>45000</v>
       </c>
       <c r="G90" t="n">
-        <v>-872625.1221441745</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,33 +4168,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.899</v>
+        <v>1.91</v>
       </c>
       <c r="C91" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="D91" t="n">
-        <v>1.899</v>
+        <v>1.91</v>
       </c>
       <c r="E91" t="n">
-        <v>1.898</v>
+        <v>1.91</v>
       </c>
       <c r="F91" t="n">
-        <v>598412.0988</v>
+        <v>159434.6276</v>
       </c>
       <c r="G91" t="n">
-        <v>-1471037.220944175</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3592,33 +4210,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C92" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D92" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E92" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F92" t="n">
-        <v>10755</v>
+        <v>20482.5571</v>
       </c>
       <c r="G92" t="n">
-        <v>-1460282.220944175</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3627,33 +4252,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.9</v>
+        <v>1.929</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="D93" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="E93" t="n">
-        <v>1.9</v>
+        <v>1.929</v>
       </c>
       <c r="F93" t="n">
-        <v>50000</v>
+        <v>1611483.129950253</v>
       </c>
       <c r="G93" t="n">
-        <v>-1460282.220944175</v>
+        <v>-49318.25569392159</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3662,33 +4294,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.9</v>
+        <v>1.949</v>
       </c>
       <c r="C94" t="n">
-        <v>1.9</v>
+        <v>1.949</v>
       </c>
       <c r="D94" t="n">
-        <v>1.9</v>
+        <v>1.959</v>
       </c>
       <c r="E94" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="F94" t="n">
-        <v>140347.211</v>
+        <v>363077.200491226</v>
       </c>
       <c r="G94" t="n">
-        <v>-1460282.220944175</v>
+        <v>313758.9447973044</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3697,33 +4336,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.927</v>
+        <v>1.95</v>
       </c>
       <c r="C95" t="n">
-        <v>1.927</v>
+        <v>1.95</v>
       </c>
       <c r="D95" t="n">
-        <v>1.927</v>
+        <v>1.95</v>
       </c>
       <c r="E95" t="n">
-        <v>1.927</v>
+        <v>1.95</v>
       </c>
       <c r="F95" t="n">
-        <v>412899.733</v>
+        <v>72344.3719</v>
       </c>
       <c r="G95" t="n">
-        <v>-1047382.487944175</v>
+        <v>386103.3166973044</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3732,46 +4378,60 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="C96" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="D96" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="E96" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="F96" t="n">
-        <v>25948.0881</v>
+        <v>321387.7464</v>
       </c>
       <c r="G96" t="n">
-        <v>-1073330.576044175</v>
+        <v>64715.57029730437</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M96" t="n">
-        <v>1</v>
-      </c>
+        <v>1.014473684210526</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3790,16 +4450,16 @@
         <v>1.92</v>
       </c>
       <c r="F97" t="n">
-        <v>1092.1515</v>
+        <v>55000</v>
       </c>
       <c r="G97" t="n">
-        <v>-1073330.576044175</v>
+        <v>9715.570297304366</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3807,28 +4467,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="C98" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D98" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="E98" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F98" t="n">
-        <v>155196.482</v>
+        <v>240000</v>
       </c>
       <c r="G98" t="n">
-        <v>-1073330.576044175</v>
+        <v>-230284.4297026956</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3842,34 +4503,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C99" t="n">
-        <v>1.899</v>
+        <v>1.905</v>
       </c>
       <c r="D99" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E99" t="n">
-        <v>1.899</v>
+        <v>1.895</v>
       </c>
       <c r="F99" t="n">
-        <v>869306.1629999999</v>
+        <v>478837.154</v>
       </c>
       <c r="G99" t="n">
-        <v>-1942636.739044175</v>
+        <v>-709121.5837026956</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3877,28 +4539,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.928</v>
+        <v>1.903</v>
       </c>
       <c r="C100" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="D100" t="n">
-        <v>1.928</v>
+        <v>1.903</v>
       </c>
       <c r="E100" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="F100" t="n">
-        <v>23456.4637</v>
+        <v>1154956.2858</v>
       </c>
       <c r="G100" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1864077.869502696</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3912,28 +4575,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="C101" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D101" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="E101" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F101" t="n">
-        <v>20111.8764</v>
+        <v>100000</v>
       </c>
       <c r="G101" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1964077.869502696</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3947,28 +4611,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="C102" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="D102" t="n">
-        <v>1.91</v>
+        <v>1.894</v>
       </c>
       <c r="E102" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="F102" t="n">
-        <v>23665.8382</v>
+        <v>931486.8857</v>
       </c>
       <c r="G102" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1032590.983802696</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3982,28 +4647,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C103" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D103" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E103" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F103" t="n">
-        <v>17577.3362</v>
+        <v>129997.0858</v>
       </c>
       <c r="G103" t="n">
-        <v>-1919180.275344175</v>
+        <v>-902593.8980026955</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4017,28 +4683,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.899</v>
+        <v>1.893</v>
       </c>
       <c r="C104" t="n">
-        <v>1.899</v>
+        <v>1.893</v>
       </c>
       <c r="D104" t="n">
-        <v>1.899</v>
+        <v>1.893</v>
       </c>
       <c r="E104" t="n">
-        <v>1.899</v>
+        <v>1.893</v>
       </c>
       <c r="F104" t="n">
-        <v>3521.5772</v>
+        <v>55000</v>
       </c>
       <c r="G104" t="n">
-        <v>-1922701.852544175</v>
+        <v>-957593.8980026955</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4052,28 +4719,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="C105" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="D105" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="E105" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="F105" t="n">
-        <v>98623.69960000001</v>
+        <v>54013.3146</v>
       </c>
       <c r="G105" t="n">
-        <v>-1824078.152944175</v>
+        <v>-903580.5834026955</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4087,28 +4755,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="C106" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="D106" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="E106" t="n">
-        <v>1.901</v>
+        <v>1.919</v>
       </c>
       <c r="F106" t="n">
-        <v>317114.7174</v>
+        <v>10177.6418</v>
       </c>
       <c r="G106" t="n">
-        <v>-2141192.870344175</v>
+        <v>-893402.9416026955</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4122,28 +4791,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="C107" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="D107" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="E107" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="F107" t="n">
-        <v>29781.1385</v>
+        <v>26873.6855</v>
       </c>
       <c r="G107" t="n">
-        <v>-2111411.731844175</v>
+        <v>-893402.9416026955</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4157,28 +4827,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.918</v>
+        <v>1.919</v>
       </c>
       <c r="C108" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="D108" t="n">
-        <v>1.924</v>
+        <v>1.95</v>
       </c>
       <c r="E108" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="F108" t="n">
-        <v>491801.1634</v>
+        <v>137710.137822051</v>
       </c>
       <c r="G108" t="n">
-        <v>-1619610.568444175</v>
+        <v>-1031113.079424747</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4192,28 +4863,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="C109" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="D109" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="E109" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="F109" t="n">
-        <v>50249.6988</v>
+        <v>15641.4669</v>
       </c>
       <c r="G109" t="n">
-        <v>-1619610.568444175</v>
+        <v>-1031113.079424747</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4227,28 +4899,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.929</v>
+        <v>1.901</v>
       </c>
       <c r="C110" t="n">
-        <v>1.929</v>
+        <v>1.901</v>
       </c>
       <c r="D110" t="n">
-        <v>1.929</v>
+        <v>1.901</v>
       </c>
       <c r="E110" t="n">
-        <v>1.929</v>
+        <v>1.901</v>
       </c>
       <c r="F110" t="n">
-        <v>352742.2191</v>
+        <v>45000</v>
       </c>
       <c r="G110" t="n">
-        <v>-1266868.349344175</v>
+        <v>-1076113.079424747</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4262,28 +4935,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="C111" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="D111" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="E111" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="F111" t="n">
-        <v>210883.2619</v>
+        <v>8061.3779</v>
       </c>
       <c r="G111" t="n">
-        <v>-1055985.087444175</v>
+        <v>-1068051.701524747</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4297,28 +4971,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="C112" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D112" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="E112" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F112" t="n">
-        <v>21301.1703</v>
+        <v>15641.4669</v>
       </c>
       <c r="G112" t="n">
-        <v>-1077286.257744175</v>
+        <v>-1068051.701524747</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4332,28 +5007,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="C113" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="D113" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="E113" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="F113" t="n">
-        <v>70000</v>
+        <v>7989.3537</v>
       </c>
       <c r="G113" t="n">
-        <v>-1007286.257744175</v>
+        <v>-1068051.701524747</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4367,28 +5043,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.92</v>
+        <v>1.926</v>
       </c>
       <c r="C114" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="D114" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E114" t="n">
-        <v>1.92</v>
+        <v>1.926</v>
       </c>
       <c r="F114" t="n">
-        <v>21210.5266</v>
+        <v>35455.3272</v>
       </c>
       <c r="G114" t="n">
-        <v>-1028496.784344175</v>
+        <v>-1032596.374324747</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4402,28 +5079,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C115" t="n">
-        <v>1.92</v>
+        <v>1.926</v>
       </c>
       <c r="D115" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E115" t="n">
-        <v>1.92</v>
+        <v>1.926</v>
       </c>
       <c r="F115" t="n">
-        <v>8330.563399999999</v>
+        <v>300000</v>
       </c>
       <c r="G115" t="n">
-        <v>-1028496.784344175</v>
+        <v>-1332596.374324747</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4437,28 +5115,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.913</v>
+        <v>1.926</v>
       </c>
       <c r="C116" t="n">
-        <v>1.913</v>
+        <v>1.918</v>
       </c>
       <c r="D116" t="n">
-        <v>1.913</v>
+        <v>1.926</v>
       </c>
       <c r="E116" t="n">
-        <v>1.913</v>
+        <v>1.918</v>
       </c>
       <c r="F116" t="n">
-        <v>55000</v>
+        <v>442305.3273</v>
       </c>
       <c r="G116" t="n">
-        <v>-1083496.784344175</v>
+        <v>-1774901.701624747</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4472,28 +5151,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="C117" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="D117" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="E117" t="n">
-        <v>1.913</v>
+        <v>1.911</v>
       </c>
       <c r="F117" t="n">
-        <v>20377.7255</v>
+        <v>103281.1962</v>
       </c>
       <c r="G117" t="n">
-        <v>-1083496.784344175</v>
+        <v>-1878182.897824747</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4507,28 +5187,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.913</v>
+        <v>1.914</v>
       </c>
       <c r="C118" t="n">
-        <v>1.913</v>
+        <v>1.914</v>
       </c>
       <c r="D118" t="n">
-        <v>1.913</v>
+        <v>1.914</v>
       </c>
       <c r="E118" t="n">
-        <v>1.913</v>
+        <v>1.914</v>
       </c>
       <c r="F118" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="G118" t="n">
-        <v>-1083496.784344175</v>
+        <v>-1818182.897824747</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4542,28 +5223,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="C119" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="D119" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="E119" t="n">
-        <v>1.912</v>
+        <v>1.928</v>
       </c>
       <c r="F119" t="n">
-        <v>18385.2108</v>
+        <v>204386.3398</v>
       </c>
       <c r="G119" t="n">
-        <v>-1101881.995144175</v>
+        <v>-1613796.558024747</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4577,28 +5259,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C120" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="D120" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E120" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="F120" t="n">
-        <v>27023.3741</v>
+        <v>20778.072</v>
       </c>
       <c r="G120" t="n">
-        <v>-1101881.995144175</v>
+        <v>-1634574.630024747</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4612,28 +5295,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C121" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D121" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E121" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F121" t="n">
-        <v>251526.8723</v>
+        <v>20496.3083</v>
       </c>
       <c r="G121" t="n">
-        <v>-1353408.867444175</v>
+        <v>-1634574.630024747</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,6 +5331,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4656,19 +5341,19 @@
         <v>1.912</v>
       </c>
       <c r="C122" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="D122" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E122" t="n">
         <v>1.912</v>
       </c>
       <c r="F122" t="n">
-        <v>57510</v>
+        <v>62000.2079</v>
       </c>
       <c r="G122" t="n">
-        <v>-1295898.867444175</v>
+        <v>-1634574.630024747</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4682,28 +5367,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C123" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="D123" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E123" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="F123" t="n">
-        <v>19170</v>
+        <v>56757.555</v>
       </c>
       <c r="G123" t="n">
-        <v>-1295898.867444175</v>
+        <v>-1634574.630024747</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4717,28 +5403,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.902</v>
+        <v>1.911</v>
       </c>
       <c r="C124" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="D124" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="E124" t="n">
-        <v>1.902</v>
+        <v>1.911</v>
       </c>
       <c r="F124" t="n">
-        <v>321159.9858</v>
+        <v>59998.9729</v>
       </c>
       <c r="G124" t="n">
-        <v>-1617058.853244175</v>
+        <v>-1634574.630024747</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4752,28 +5439,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.898</v>
+        <v>1.92</v>
       </c>
       <c r="C125" t="n">
-        <v>1.898</v>
+        <v>1.92</v>
       </c>
       <c r="D125" t="n">
-        <v>1.898</v>
+        <v>1.92</v>
       </c>
       <c r="E125" t="n">
-        <v>1.898</v>
+        <v>1.92</v>
       </c>
       <c r="F125" t="n">
-        <v>25053.069</v>
+        <v>21282.1678</v>
       </c>
       <c r="G125" t="n">
-        <v>-1642111.922244175</v>
+        <v>-1634574.630024747</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4787,28 +5475,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.918</v>
+        <v>1.912</v>
       </c>
       <c r="C126" t="n">
-        <v>1.918</v>
+        <v>1.912</v>
       </c>
       <c r="D126" t="n">
-        <v>1.918</v>
+        <v>1.912</v>
       </c>
       <c r="E126" t="n">
-        <v>1.918</v>
+        <v>1.912</v>
       </c>
       <c r="F126" t="n">
-        <v>102292.6474</v>
+        <v>45000</v>
       </c>
       <c r="G126" t="n">
-        <v>-1539819.274844175</v>
+        <v>-1679574.630024747</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4822,28 +5511,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.918</v>
+        <v>1.92</v>
       </c>
       <c r="C127" t="n">
-        <v>1.918</v>
+        <v>1.92</v>
       </c>
       <c r="D127" t="n">
-        <v>1.918</v>
+        <v>1.92</v>
       </c>
       <c r="E127" t="n">
-        <v>1.918</v>
+        <v>1.92</v>
       </c>
       <c r="F127" t="n">
-        <v>1722.3346</v>
+        <v>350.0415</v>
       </c>
       <c r="G127" t="n">
-        <v>-1539819.274844175</v>
+        <v>-1679224.588524746</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4857,28 +5547,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="C128" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="D128" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="E128" t="n">
-        <v>1.91</v>
+        <v>1.903</v>
       </c>
       <c r="F128" t="n">
-        <v>88753.8567</v>
+        <v>118450.9837</v>
       </c>
       <c r="G128" t="n">
-        <v>-1628573.131544175</v>
+        <v>-1797675.572224746</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4892,28 +5583,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="C129" t="n">
-        <v>1.896</v>
+        <v>1.91</v>
       </c>
       <c r="D129" t="n">
-        <v>1.9</v>
+        <v>1.911</v>
       </c>
       <c r="E129" t="n">
-        <v>1.896</v>
+        <v>1.905</v>
       </c>
       <c r="F129" t="n">
-        <v>45000</v>
+        <v>153214.0662</v>
       </c>
       <c r="G129" t="n">
-        <v>-1673573.131544175</v>
+        <v>-1644461.506024746</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4927,28 +5619,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.896</v>
+        <v>1.911</v>
       </c>
       <c r="C130" t="n">
-        <v>1.896</v>
+        <v>1.91</v>
       </c>
       <c r="D130" t="n">
-        <v>1.896</v>
+        <v>1.911</v>
       </c>
       <c r="E130" t="n">
-        <v>1.896</v>
+        <v>1.91</v>
       </c>
       <c r="F130" t="n">
-        <v>22670.1009</v>
+        <v>50000</v>
       </c>
       <c r="G130" t="n">
-        <v>-1673573.131544175</v>
+        <v>-1644461.506024746</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4962,6 +5655,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4980,10 +5674,10 @@
         <v>1.91</v>
       </c>
       <c r="F131" t="n">
-        <v>12771.7459</v>
+        <v>350000</v>
       </c>
       <c r="G131" t="n">
-        <v>-1660801.385644175</v>
+        <v>-1644461.506024746</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4997,28 +5691,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C132" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D132" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E132" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F132" t="n">
-        <v>45000</v>
+        <v>105429.6257</v>
       </c>
       <c r="G132" t="n">
-        <v>-1660801.385644175</v>
+        <v>-1539031.880324746</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5032,28 +5727,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="C133" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="D133" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="E133" t="n">
-        <v>1.91</v>
+        <v>1.912</v>
       </c>
       <c r="F133" t="n">
-        <v>159434.6276</v>
+        <v>47750</v>
       </c>
       <c r="G133" t="n">
-        <v>-1660801.385644175</v>
+        <v>-1586781.880324746</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5067,28 +5763,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C134" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="D134" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E134" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="F134" t="n">
-        <v>20482.5571</v>
+        <v>375411.951</v>
       </c>
       <c r="G134" t="n">
-        <v>-1660801.385644175</v>
+        <v>-1962193.831324746</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5102,28 +5799,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.929</v>
+        <v>1.901</v>
       </c>
       <c r="C135" t="n">
-        <v>1.94</v>
+        <v>1.901</v>
       </c>
       <c r="D135" t="n">
-        <v>1.97</v>
+        <v>1.901</v>
       </c>
       <c r="E135" t="n">
-        <v>1.929</v>
+        <v>1.901</v>
       </c>
       <c r="F135" t="n">
-        <v>1611483.129950253</v>
+        <v>59592.2369</v>
       </c>
       <c r="G135" t="n">
-        <v>-49318.25569392159</v>
+        <v>-2021786.068224746</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5137,28 +5835,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.949</v>
+        <v>1.921</v>
       </c>
       <c r="C136" t="n">
-        <v>1.949</v>
+        <v>1.931</v>
       </c>
       <c r="D136" t="n">
-        <v>1.959</v>
+        <v>1.931</v>
       </c>
       <c r="E136" t="n">
-        <v>1.94</v>
+        <v>1.921</v>
       </c>
       <c r="F136" t="n">
-        <v>363077.200491226</v>
+        <v>443633.3316</v>
       </c>
       <c r="G136" t="n">
-        <v>313758.9447973044</v>
+        <v>-1578152.736624746</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5172,34 +5871,35 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.95</v>
+        <v>1.921</v>
       </c>
       <c r="C137" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="D137" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="E137" t="n">
-        <v>1.95</v>
+        <v>1.902</v>
       </c>
       <c r="F137" t="n">
-        <v>72344.3719</v>
+        <v>1309916.1046</v>
       </c>
       <c r="G137" t="n">
-        <v>386103.3166973044</v>
+        <v>-2888068.841224746</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5207,34 +5907,35 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.937</v>
+        <v>1.93</v>
       </c>
       <c r="C138" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="D138" t="n">
-        <v>1.937</v>
+        <v>1.93</v>
       </c>
       <c r="E138" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="F138" t="n">
-        <v>321387.7464</v>
+        <v>510131.2896</v>
       </c>
       <c r="G138" t="n">
-        <v>64715.57029730437</v>
+        <v>-2888068.841224746</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5242,6 +5943,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5260,10 +5962,10 @@
         <v>1.92</v>
       </c>
       <c r="F139" t="n">
-        <v>55000</v>
+        <v>367604.1104</v>
       </c>
       <c r="G139" t="n">
-        <v>9715.570297304366</v>
+        <v>-2888068.841224746</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5277,6 +5979,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5286,19 +5989,19 @@
         <v>1.92</v>
       </c>
       <c r="C140" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D140" t="n">
         <v>1.92</v>
       </c>
       <c r="E140" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F140" t="n">
-        <v>240000</v>
+        <v>169354.8107</v>
       </c>
       <c r="G140" t="n">
-        <v>-230284.4297026956</v>
+        <v>-2888068.841224746</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5312,28 +6015,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C141" t="n">
-        <v>1.905</v>
+        <v>1.92</v>
       </c>
       <c r="D141" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E141" t="n">
-        <v>1.895</v>
+        <v>1.92</v>
       </c>
       <c r="F141" t="n">
-        <v>478837.154</v>
+        <v>200000</v>
       </c>
       <c r="G141" t="n">
-        <v>-709121.5837026956</v>
+        <v>-2888068.841224746</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5347,28 +6051,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="C142" t="n">
-        <v>1.892</v>
+        <v>1.92</v>
       </c>
       <c r="D142" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="E142" t="n">
-        <v>1.892</v>
+        <v>1.92</v>
       </c>
       <c r="F142" t="n">
-        <v>1154956.2858</v>
+        <v>23500</v>
       </c>
       <c r="G142" t="n">
-        <v>-1864077.869502696</v>
+        <v>-2888068.841224746</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5382,28 +6087,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.891</v>
+        <v>1.908</v>
       </c>
       <c r="C143" t="n">
-        <v>1.89</v>
+        <v>1.908</v>
       </c>
       <c r="D143" t="n">
-        <v>1.891</v>
+        <v>1.908</v>
       </c>
       <c r="E143" t="n">
-        <v>1.89</v>
+        <v>1.908</v>
       </c>
       <c r="F143" t="n">
-        <v>100000</v>
+        <v>7831.15</v>
       </c>
       <c r="G143" t="n">
-        <v>-1964077.869502696</v>
+        <v>-2895899.991224746</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5417,28 +6123,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.893</v>
+        <v>1.92</v>
       </c>
       <c r="C144" t="n">
-        <v>1.893</v>
+        <v>1.92</v>
       </c>
       <c r="D144" t="n">
-        <v>1.894</v>
+        <v>1.92</v>
       </c>
       <c r="E144" t="n">
-        <v>1.893</v>
+        <v>1.908</v>
       </c>
       <c r="F144" t="n">
-        <v>931486.8857</v>
+        <v>454463.47</v>
       </c>
       <c r="G144" t="n">
-        <v>-1032590.983802696</v>
+        <v>-2441436.521224746</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5452,28 +6159,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="C145" t="n">
-        <v>1.909</v>
+        <v>1.901</v>
       </c>
       <c r="D145" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="E145" t="n">
-        <v>1.909</v>
+        <v>1.901</v>
       </c>
       <c r="F145" t="n">
-        <v>129997.0858</v>
+        <v>479605.9773</v>
       </c>
       <c r="G145" t="n">
-        <v>-902593.8980026955</v>
+        <v>-2921042.498524746</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5487,28 +6195,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.893</v>
+        <v>1.918</v>
       </c>
       <c r="C146" t="n">
-        <v>1.893</v>
+        <v>1.918</v>
       </c>
       <c r="D146" t="n">
-        <v>1.893</v>
+        <v>1.918</v>
       </c>
       <c r="E146" t="n">
-        <v>1.893</v>
+        <v>1.918</v>
       </c>
       <c r="F146" t="n">
-        <v>55000</v>
+        <v>66369.88830000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-957593.8980026955</v>
+        <v>-2854672.610224746</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5522,28 +6231,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="C147" t="n">
-        <v>1.909</v>
+        <v>1.928</v>
       </c>
       <c r="D147" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="E147" t="n">
-        <v>1.909</v>
+        <v>1.928</v>
       </c>
       <c r="F147" t="n">
-        <v>54013.3146</v>
+        <v>108321.3025</v>
       </c>
       <c r="G147" t="n">
-        <v>-903580.5834026955</v>
+        <v>-2746351.307724746</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5557,28 +6267,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="C148" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="D148" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="E148" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="F148" t="n">
-        <v>10177.6418</v>
+        <v>1391.2848</v>
       </c>
       <c r="G148" t="n">
-        <v>-893402.9416026955</v>
+        <v>-2746351.307724746</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5592,28 +6303,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="C149" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="D149" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="E149" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="F149" t="n">
-        <v>26873.6855</v>
+        <v>20000</v>
       </c>
       <c r="G149" t="n">
-        <v>-893402.9416026955</v>
+        <v>-2746351.307724746</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5627,28 +6339,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.919</v>
+        <v>1.928</v>
       </c>
       <c r="C150" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="D150" t="n">
-        <v>1.95</v>
+        <v>1.928</v>
       </c>
       <c r="E150" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="F150" t="n">
-        <v>137710.137822051</v>
+        <v>25587.5291</v>
       </c>
       <c r="G150" t="n">
-        <v>-1031113.079424747</v>
+        <v>-2746351.307724746</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5662,28 +6375,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="C151" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="D151" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="E151" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="F151" t="n">
-        <v>15641.4669</v>
+        <v>18422.5376</v>
       </c>
       <c r="G151" t="n">
-        <v>-1031113.079424747</v>
+        <v>-2746351.307724746</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5697,28 +6411,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.901</v>
+        <v>1.928</v>
       </c>
       <c r="C152" t="n">
-        <v>1.901</v>
+        <v>1.928</v>
       </c>
       <c r="D152" t="n">
-        <v>1.901</v>
+        <v>1.928</v>
       </c>
       <c r="E152" t="n">
-        <v>1.901</v>
+        <v>1.928</v>
       </c>
       <c r="F152" t="n">
-        <v>45000</v>
+        <v>116353.6453</v>
       </c>
       <c r="G152" t="n">
-        <v>-1076113.079424747</v>
+        <v>-2746351.307724746</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5732,28 +6447,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="C153" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D153" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E153" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="F153" t="n">
-        <v>8061.3779</v>
+        <v>645973.0152</v>
       </c>
       <c r="G153" t="n">
-        <v>-1068051.701524747</v>
+        <v>-2100378.292524746</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5767,28 +6483,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C154" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D154" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E154" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F154" t="n">
-        <v>15641.4669</v>
+        <v>23500</v>
       </c>
       <c r="G154" t="n">
-        <v>-1068051.701524747</v>
+        <v>-2100378.292524746</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5802,28 +6519,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C155" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D155" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E155" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F155" t="n">
-        <v>7989.3537</v>
+        <v>218722.654</v>
       </c>
       <c r="G155" t="n">
-        <v>-1068051.701524747</v>
+        <v>-2100378.292524746</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5837,28 +6555,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.926</v>
+        <v>1.94</v>
       </c>
       <c r="C156" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="D156" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="E156" t="n">
-        <v>1.926</v>
+        <v>1.94</v>
       </c>
       <c r="F156" t="n">
-        <v>35455.3272</v>
+        <v>22838.7796</v>
       </c>
       <c r="G156" t="n">
-        <v>-1032596.374324747</v>
+        <v>-2077539.512924746</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5872,28 +6591,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="C157" t="n">
-        <v>1.926</v>
+        <v>1.94</v>
       </c>
       <c r="D157" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="E157" t="n">
-        <v>1.926</v>
+        <v>1.94</v>
       </c>
       <c r="F157" t="n">
-        <v>300000</v>
+        <v>20554.1662</v>
       </c>
       <c r="G157" t="n">
-        <v>-1332596.374324747</v>
+        <v>-2077539.512924746</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5907,28 +6627,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.926</v>
+        <v>1.93</v>
       </c>
       <c r="C158" t="n">
-        <v>1.918</v>
+        <v>1.93</v>
       </c>
       <c r="D158" t="n">
-        <v>1.926</v>
+        <v>1.93</v>
       </c>
       <c r="E158" t="n">
-        <v>1.918</v>
+        <v>1.93</v>
       </c>
       <c r="F158" t="n">
-        <v>442305.3273</v>
+        <v>50000</v>
       </c>
       <c r="G158" t="n">
-        <v>-1774901.701624747</v>
+        <v>-2127539.512924746</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5942,28 +6663,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="C159" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="D159" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="E159" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="F159" t="n">
-        <v>103281.1962</v>
+        <v>120000</v>
       </c>
       <c r="G159" t="n">
-        <v>-1878182.897824747</v>
+        <v>-2247539.512924746</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5977,28 +6699,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="C160" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D160" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="E160" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F160" t="n">
-        <v>60000</v>
+        <v>18510.0812</v>
       </c>
       <c r="G160" t="n">
-        <v>-1818182.897824747</v>
+        <v>-2247539.512924746</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6012,13 +6735,14 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="C161" t="n">
         <v>1.928</v>
@@ -6027,13 +6751,13 @@
         <v>1.928</v>
       </c>
       <c r="E161" t="n">
-        <v>1.928</v>
+        <v>1.919</v>
       </c>
       <c r="F161" t="n">
-        <v>204386.3398</v>
+        <v>619908.5498</v>
       </c>
       <c r="G161" t="n">
-        <v>-1613796.558024747</v>
+        <v>-1627630.963124746</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6047,6 +6771,7 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6059,16 +6784,16 @@
         <v>1.92</v>
       </c>
       <c r="D162" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E162" t="n">
         <v>1.92</v>
       </c>
       <c r="F162" t="n">
-        <v>20778.072</v>
+        <v>201487.8244</v>
       </c>
       <c r="G162" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1829118.787524746</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6082,28 +6807,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C163" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D163" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E163" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F163" t="n">
-        <v>20496.3083</v>
+        <v>55000</v>
       </c>
       <c r="G163" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1884118.787524746</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6117,16 +6843,17 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C164" t="n">
         <v>1.912</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.92</v>
       </c>
       <c r="D164" t="n">
         <v>1.92</v>
@@ -6135,10 +6862,10 @@
         <v>1.912</v>
       </c>
       <c r="F164" t="n">
-        <v>62000.2079</v>
+        <v>368188.1852</v>
       </c>
       <c r="G164" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1515930.602324746</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6152,6 +6879,7 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6167,13 +6895,13 @@
         <v>1.92</v>
       </c>
       <c r="E165" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F165" t="n">
-        <v>56757.555</v>
+        <v>271125.3025</v>
       </c>
       <c r="G165" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1244805.299824746</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6187,28 +6915,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="C166" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D166" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E166" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="F166" t="n">
-        <v>59998.9729</v>
+        <v>4000</v>
       </c>
       <c r="G166" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1248805.299824746</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6222,28 +6951,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C167" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D167" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E167" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F167" t="n">
-        <v>21282.1678</v>
+        <v>53171.2503</v>
       </c>
       <c r="G167" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1248805.299824746</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6257,28 +6987,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="C168" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="D168" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="E168" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="F168" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="G168" t="n">
-        <v>-1679574.630024747</v>
+        <v>-1248805.299824746</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6292,28 +7023,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C169" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D169" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E169" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F169" t="n">
-        <v>350.0415</v>
+        <v>55000</v>
       </c>
       <c r="G169" t="n">
-        <v>-1679224.588524746</v>
+        <v>-1248805.299824746</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6327,28 +7059,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="C170" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="D170" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="E170" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="F170" t="n">
-        <v>118450.9837</v>
+        <v>25984.5128</v>
       </c>
       <c r="G170" t="n">
-        <v>-1797675.572224746</v>
+        <v>-1248805.299824746</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6362,28 +7095,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="C171" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="D171" t="n">
-        <v>1.911</v>
+        <v>1.9</v>
       </c>
       <c r="E171" t="n">
-        <v>1.905</v>
+        <v>1.892</v>
       </c>
       <c r="F171" t="n">
-        <v>153214.0662</v>
+        <v>45000</v>
       </c>
       <c r="G171" t="n">
-        <v>-1644461.506024746</v>
+        <v>-1293805.299824746</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6397,28 +7131,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="C172" t="n">
         <v>1.91</v>
       </c>
       <c r="D172" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="E172" t="n">
         <v>1.91</v>
       </c>
       <c r="F172" t="n">
-        <v>50000</v>
+        <v>697276.8497</v>
       </c>
       <c r="G172" t="n">
-        <v>-1644461.506024746</v>
+        <v>-596528.4501247456</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6432,28 +7167,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="C173" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="D173" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="E173" t="n">
-        <v>1.91</v>
+        <v>1.902</v>
       </c>
       <c r="F173" t="n">
-        <v>350000</v>
+        <v>60000</v>
       </c>
       <c r="G173" t="n">
-        <v>-1644461.506024746</v>
+        <v>-656528.4501247456</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6467,28 +7203,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C174" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D174" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E174" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F174" t="n">
-        <v>105429.6257</v>
+        <v>361256.544502617</v>
       </c>
       <c r="G174" t="n">
-        <v>-1539031.880324746</v>
+        <v>-295271.9056221286</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6502,28 +7239,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.912</v>
+        <v>1.902</v>
       </c>
       <c r="C175" t="n">
-        <v>1.912</v>
+        <v>1.902</v>
       </c>
       <c r="D175" t="n">
-        <v>1.912</v>
+        <v>1.902</v>
       </c>
       <c r="E175" t="n">
-        <v>1.912</v>
+        <v>1.902</v>
       </c>
       <c r="F175" t="n">
-        <v>47750</v>
+        <v>30760</v>
       </c>
       <c r="G175" t="n">
-        <v>-1586781.880324746</v>
+        <v>-326031.9056221286</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6537,28 +7275,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.909</v>
+        <v>1.902</v>
       </c>
       <c r="C176" t="n">
         <v>1.902</v>
       </c>
       <c r="D176" t="n">
-        <v>1.909</v>
+        <v>1.902</v>
       </c>
       <c r="E176" t="n">
         <v>1.902</v>
       </c>
       <c r="F176" t="n">
-        <v>375411.951</v>
+        <v>30260</v>
       </c>
       <c r="G176" t="n">
-        <v>-1962193.831324746</v>
+        <v>-326031.9056221286</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6572,28 +7311,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="C177" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="D177" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="E177" t="n">
-        <v>1.901</v>
+        <v>1.91</v>
       </c>
       <c r="F177" t="n">
-        <v>59592.2369</v>
+        <v>204022.092997383</v>
       </c>
       <c r="G177" t="n">
-        <v>-2021786.068224746</v>
+        <v>-122009.8126247456</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6607,28 +7347,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.921</v>
+        <v>1.91</v>
       </c>
       <c r="C178" t="n">
-        <v>1.931</v>
+        <v>1.91</v>
       </c>
       <c r="D178" t="n">
-        <v>1.931</v>
+        <v>1.91</v>
       </c>
       <c r="E178" t="n">
-        <v>1.921</v>
+        <v>1.91</v>
       </c>
       <c r="F178" t="n">
-        <v>443633.3316</v>
+        <v>15384.816753926</v>
       </c>
       <c r="G178" t="n">
-        <v>-1578152.736624746</v>
+        <v>-122009.8126247456</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6642,28 +7383,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.921</v>
+        <v>1.9</v>
       </c>
       <c r="C179" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="D179" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="E179" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="F179" t="n">
-        <v>1309916.1046</v>
+        <v>21359.8883</v>
       </c>
       <c r="G179" t="n">
-        <v>-2888068.841224746</v>
+        <v>-143369.7009247456</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6677,1476 +7419,7 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F180" t="n">
-        <v>510131.2896</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F181" t="n">
-        <v>367604.1104</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F182" t="n">
-        <v>169354.8107</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F183" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F184" t="n">
-        <v>23500</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="F185" t="n">
-        <v>7831.15</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-2895899.991224746</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="F186" t="n">
-        <v>454463.47</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-2441436.521224746</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="F187" t="n">
-        <v>479605.9773</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-2921042.498524746</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="F188" t="n">
-        <v>66369.88830000001</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-2854672.610224746</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F189" t="n">
-        <v>108321.3025</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1391.2848</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F191" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F192" t="n">
-        <v>25587.5291</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F193" t="n">
-        <v>18422.5376</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="F194" t="n">
-        <v>116353.6453</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="F195" t="n">
-        <v>645973.0152</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2100378.292524746</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F196" t="n">
-        <v>23500</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2100378.292524746</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F197" t="n">
-        <v>218722.654</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2100378.292524746</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="F198" t="n">
-        <v>22838.7796</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2077539.512924746</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20554.1662</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2077539.512924746</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F200" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2127539.512924746</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F201" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2247539.512924746</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F202" t="n">
-        <v>18510.0812</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-2247539.512924746</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="F203" t="n">
-        <v>619908.5498</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1627630.963124746</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F204" t="n">
-        <v>201487.8244</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1829118.787524746</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F205" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1884118.787524746</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="F206" t="n">
-        <v>368188.1852</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1515930.602324746</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F207" t="n">
-        <v>271125.3025</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1244805.299824746</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F208" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F209" t="n">
-        <v>53171.2503</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F210" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F211" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F212" t="n">
-        <v>25984.5128</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F213" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1293805.299824746</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F214" t="n">
-        <v>697276.8497</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-596528.4501247456</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F215" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-656528.4501247456</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F216" t="n">
-        <v>361256.544502617</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-295271.9056221286</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F217" t="n">
-        <v>30760</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-326031.9056221286</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F218" t="n">
-        <v>30260</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-326031.9056221286</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F219" t="n">
-        <v>204022.092997383</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-122009.8126247456</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F220" t="n">
-        <v>15384.816753926</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-122009.8126247456</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F221" t="n">
-        <v>21359.8883</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-143369.7009247456</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="F2" t="n">
-        <v>8783.9925</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="n">
-        <v>-1800481.265744175</v>
+        <v>-1170285.8198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -486,23 +486,19 @@
         <v>1.9</v>
       </c>
       <c r="F3" t="n">
-        <v>29297.7086</v>
+        <v>90722.3622</v>
       </c>
       <c r="G3" t="n">
-        <v>-1800481.265744175</v>
+        <v>-1261008.182</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -517,37 +513,29 @@
         <v>1.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="E4" t="n">
         <v>1.9</v>
       </c>
       <c r="F4" t="n">
-        <v>8492.134599999999</v>
+        <v>70000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1791989.131144175</v>
+        <v>-1261008.182</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="C5" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="D5" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="E5" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="F5" t="n">
-        <v>122927.7806</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="n">
-        <v>-1914916.911744175</v>
+        <v>-1311008.182</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="C6" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="D6" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="E6" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="F6" t="n">
-        <v>307800</v>
+        <v>45000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1607116.911744175</v>
+        <v>-1311008.182</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -624,14 +606,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.892</v>
+        <v>1.899</v>
       </c>
       <c r="C7" t="n">
-        <v>1.891</v>
+        <v>1.899</v>
       </c>
       <c r="D7" t="n">
-        <v>1.892</v>
+        <v>1.899</v>
       </c>
       <c r="E7" t="n">
-        <v>1.881</v>
+        <v>1.899</v>
       </c>
       <c r="F7" t="n">
-        <v>898557.8678</v>
+        <v>65000</v>
       </c>
       <c r="G7" t="n">
-        <v>-2505674.779544175</v>
+        <v>-1311008.182</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -666,14 +642,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.905</v>
+        <v>1.899</v>
       </c>
       <c r="C8" t="n">
-        <v>1.905</v>
+        <v>1.899</v>
       </c>
       <c r="D8" t="n">
-        <v>1.905</v>
+        <v>1.899</v>
       </c>
       <c r="E8" t="n">
-        <v>1.905</v>
+        <v>1.899</v>
       </c>
       <c r="F8" t="n">
-        <v>149000</v>
+        <v>48798.1488</v>
       </c>
       <c r="G8" t="n">
-        <v>-2356674.779544175</v>
+        <v>-1311008.182</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -708,14 +678,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -726,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="E9" t="n">
-        <v>1.892</v>
+        <v>1.9</v>
       </c>
       <c r="F9" t="n">
-        <v>55000</v>
+        <v>24749.5914</v>
       </c>
       <c r="G9" t="n">
-        <v>-2411674.779544175</v>
+        <v>-1286258.5906</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -750,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -768,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.892</v>
+        <v>1.89</v>
       </c>
       <c r="C10" t="n">
-        <v>1.892</v>
+        <v>1.89</v>
       </c>
       <c r="D10" t="n">
-        <v>1.892</v>
+        <v>1.89</v>
       </c>
       <c r="E10" t="n">
-        <v>1.892</v>
+        <v>1.89</v>
       </c>
       <c r="F10" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="G10" t="n">
-        <v>-2411674.779544175</v>
+        <v>-1346258.5906</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -792,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -810,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.92</v>
+        <v>1.889</v>
       </c>
       <c r="C11" t="n">
-        <v>1.92</v>
+        <v>1.889</v>
       </c>
       <c r="D11" t="n">
-        <v>1.92</v>
+        <v>1.889</v>
       </c>
       <c r="E11" t="n">
-        <v>1.92</v>
+        <v>1.889</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G11" t="n">
-        <v>-2410674.779544175</v>
+        <v>-1396258.5906</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.902</v>
+        <v>1.889</v>
       </c>
       <c r="C12" t="n">
-        <v>1.902</v>
+        <v>1.883</v>
       </c>
       <c r="D12" t="n">
-        <v>1.902</v>
+        <v>1.889</v>
       </c>
       <c r="E12" t="n">
-        <v>1.902</v>
+        <v>1.883</v>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="G12" t="n">
-        <v>-2435674.779544175</v>
+        <v>-1446258.5906</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -878,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -896,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="C13" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="D13" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="E13" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>31344.2833</v>
       </c>
       <c r="G13" t="n">
-        <v>-2435674.779544175</v>
+        <v>-1414914.3073</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -940,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="C14" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="D14" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="E14" t="n">
-        <v>1.894</v>
+        <v>1.889</v>
       </c>
       <c r="F14" t="n">
-        <v>67765.08319999999</v>
+        <v>29054.2698</v>
       </c>
       <c r="G14" t="n">
-        <v>-2503439.862744175</v>
+        <v>-1443968.5771</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -964,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -982,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="C15" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="D15" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="E15" t="n">
-        <v>1.904</v>
+        <v>1.898</v>
       </c>
       <c r="F15" t="n">
-        <v>26195.0166</v>
+        <v>25626.451</v>
       </c>
       <c r="G15" t="n">
-        <v>-2477244.846144175</v>
+        <v>-1418342.1261</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1006,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1024,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.915</v>
+        <v>1.899</v>
       </c>
       <c r="C16" t="n">
-        <v>1.904</v>
+        <v>1.899</v>
       </c>
       <c r="D16" t="n">
-        <v>1.915</v>
+        <v>1.899</v>
       </c>
       <c r="E16" t="n">
-        <v>1.904</v>
+        <v>1.899</v>
       </c>
       <c r="F16" t="n">
-        <v>207631.2693</v>
+        <v>26915.1449</v>
       </c>
       <c r="G16" t="n">
-        <v>-2477244.846144175</v>
+        <v>-1391426.9812</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1048,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.904</v>
+        <v>1.883</v>
       </c>
       <c r="C17" t="n">
-        <v>1.904</v>
+        <v>1.883</v>
       </c>
       <c r="D17" t="n">
-        <v>1.904</v>
+        <v>1.883</v>
       </c>
       <c r="E17" t="n">
-        <v>1.904</v>
+        <v>1.883</v>
       </c>
       <c r="F17" t="n">
-        <v>24849.1794</v>
+        <v>45000</v>
       </c>
       <c r="G17" t="n">
-        <v>-2477244.846144175</v>
+        <v>-1436426.9812</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1090,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1108,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.905</v>
+        <v>1.89</v>
       </c>
       <c r="C18" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="D18" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="E18" t="n">
-        <v>1.905</v>
+        <v>1.89</v>
       </c>
       <c r="F18" t="n">
-        <v>272325.509</v>
+        <v>50000</v>
       </c>
       <c r="G18" t="n">
-        <v>-2204919.337144175</v>
+        <v>-1386426.9812</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1132,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1150,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.915</v>
+        <v>1.89</v>
       </c>
       <c r="C19" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="D19" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="E19" t="n">
-        <v>1.915</v>
+        <v>1.89</v>
       </c>
       <c r="F19" t="n">
-        <v>346756.1156</v>
+        <v>76150.185</v>
       </c>
       <c r="G19" t="n">
-        <v>-1858163.221544174</v>
+        <v>-1386426.9812</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1174,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1192,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.927</v>
+        <v>1.882</v>
       </c>
       <c r="C20" t="n">
-        <v>1.929</v>
+        <v>1.882</v>
       </c>
       <c r="D20" t="n">
-        <v>1.929</v>
+        <v>1.882</v>
       </c>
       <c r="E20" t="n">
-        <v>1.927</v>
+        <v>1.882</v>
       </c>
       <c r="F20" t="n">
-        <v>116856.858</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>-1741306.363544174</v>
+        <v>-1436426.9812</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1216,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1234,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.928</v>
+        <v>1.89</v>
       </c>
       <c r="C21" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="D21" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="E21" t="n">
-        <v>1.928</v>
+        <v>1.89</v>
       </c>
       <c r="F21" t="n">
-        <v>966143.8611</v>
+        <v>20891.911</v>
       </c>
       <c r="G21" t="n">
-        <v>-775162.5024441745</v>
+        <v>-1415535.0702</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1258,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1276,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.915</v>
+        <v>1.883</v>
       </c>
       <c r="C22" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="D22" t="n">
-        <v>1.915</v>
+        <v>1.883</v>
       </c>
       <c r="E22" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="F22" t="n">
-        <v>117753.8299</v>
+        <v>60000</v>
       </c>
       <c r="G22" t="n">
-        <v>-892916.3323441745</v>
+        <v>-1475535.0702</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1300,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1318,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.915</v>
+        <v>1.882</v>
       </c>
       <c r="C23" t="n">
-        <v>1.915</v>
+        <v>1.882</v>
       </c>
       <c r="D23" t="n">
-        <v>1.925</v>
+        <v>1.882</v>
       </c>
       <c r="E23" t="n">
-        <v>1.915</v>
+        <v>1.882</v>
       </c>
       <c r="F23" t="n">
-        <v>606581.0336</v>
+        <v>45000</v>
       </c>
       <c r="G23" t="n">
-        <v>-286335.2987441745</v>
+        <v>-1520535.0702</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1362,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="C24" t="n">
-        <v>1.894</v>
+        <v>1.883</v>
       </c>
       <c r="D24" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="E24" t="n">
-        <v>1.894</v>
+        <v>1.883</v>
       </c>
       <c r="F24" t="n">
-        <v>317064.6674</v>
+        <v>105000</v>
       </c>
       <c r="G24" t="n">
-        <v>-603399.9661441746</v>
+        <v>-1415535.0702</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1406,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="C25" t="n">
-        <v>1.928</v>
+        <v>1.883</v>
       </c>
       <c r="D25" t="n">
-        <v>1.928</v>
+        <v>1.883</v>
       </c>
       <c r="E25" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="F25" t="n">
-        <v>679393.3678</v>
+        <v>60000</v>
       </c>
       <c r="G25" t="n">
-        <v>75993.40165582544</v>
+        <v>-1415535.0702</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1450,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.928</v>
+        <v>1.883</v>
       </c>
       <c r="C26" t="n">
-        <v>1.934</v>
+        <v>1.883</v>
       </c>
       <c r="D26" t="n">
-        <v>1.934</v>
+        <v>1.883</v>
       </c>
       <c r="E26" t="n">
-        <v>1.928</v>
+        <v>1.883</v>
       </c>
       <c r="F26" t="n">
-        <v>191287.8738</v>
+        <v>60000</v>
       </c>
       <c r="G26" t="n">
-        <v>267281.2754558254</v>
+        <v>-1415535.0702</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1474,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1492,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.93</v>
+        <v>1.884</v>
       </c>
       <c r="C27" t="n">
-        <v>1.93</v>
+        <v>1.884</v>
       </c>
       <c r="D27" t="n">
-        <v>1.93</v>
+        <v>1.884</v>
       </c>
       <c r="E27" t="n">
-        <v>1.93</v>
+        <v>1.884</v>
       </c>
       <c r="F27" t="n">
-        <v>17061.7685</v>
+        <v>50000</v>
       </c>
       <c r="G27" t="n">
-        <v>250219.5069558254</v>
+        <v>-1365535.0702</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1516,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1534,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.91</v>
+        <v>1.884</v>
       </c>
       <c r="C28" t="n">
-        <v>1.91</v>
+        <v>1.884</v>
       </c>
       <c r="D28" t="n">
-        <v>1.91</v>
+        <v>1.884</v>
       </c>
       <c r="E28" t="n">
-        <v>1.91</v>
+        <v>1.884</v>
       </c>
       <c r="F28" t="n">
-        <v>17061.7684</v>
+        <v>65000</v>
       </c>
       <c r="G28" t="n">
-        <v>233157.7385558254</v>
+        <v>-1365535.0702</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1558,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1576,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.949</v>
+        <v>1.884</v>
       </c>
       <c r="C29" t="n">
-        <v>1.949</v>
+        <v>1.884</v>
       </c>
       <c r="D29" t="n">
-        <v>1.949</v>
+        <v>1.884</v>
       </c>
       <c r="E29" t="n">
-        <v>1.949</v>
+        <v>1.884</v>
       </c>
       <c r="F29" t="n">
-        <v>251</v>
+        <v>45000</v>
       </c>
       <c r="G29" t="n">
-        <v>233408.7385558254</v>
+        <v>-1365535.0702</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1600,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1618,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.93</v>
+        <v>1.884</v>
       </c>
       <c r="C30" t="n">
-        <v>1.92</v>
+        <v>1.884</v>
       </c>
       <c r="D30" t="n">
-        <v>1.93</v>
+        <v>1.884</v>
       </c>
       <c r="E30" t="n">
-        <v>1.92</v>
+        <v>1.884</v>
       </c>
       <c r="F30" t="n">
-        <v>27799.9999</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="n">
-        <v>205608.7386558254</v>
+        <v>-1365535.0702</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1642,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1660,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.91</v>
+        <v>1.884</v>
       </c>
       <c r="C31" t="n">
-        <v>1.904</v>
+        <v>1.881</v>
       </c>
       <c r="D31" t="n">
-        <v>1.91</v>
+        <v>1.884</v>
       </c>
       <c r="E31" t="n">
-        <v>1.904</v>
+        <v>1.881</v>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G31" t="n">
-        <v>155608.7386558254</v>
+        <v>-1420535.0702</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1684,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1702,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.919</v>
+        <v>1.881</v>
       </c>
       <c r="C32" t="n">
-        <v>1.904</v>
+        <v>1.881</v>
       </c>
       <c r="D32" t="n">
-        <v>1.919</v>
+        <v>1.881</v>
       </c>
       <c r="E32" t="n">
-        <v>1.904</v>
+        <v>1.881</v>
       </c>
       <c r="F32" t="n">
-        <v>356709.5172</v>
+        <v>65000</v>
       </c>
       <c r="G32" t="n">
-        <v>155608.7386558254</v>
+        <v>-1420535.0702</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1726,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1744,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.91</v>
+        <v>1.881</v>
       </c>
       <c r="C33" t="n">
-        <v>1.917</v>
+        <v>1.909</v>
       </c>
       <c r="D33" t="n">
-        <v>1.917</v>
+        <v>1.909</v>
       </c>
       <c r="E33" t="n">
-        <v>1.91</v>
+        <v>1.881</v>
       </c>
       <c r="F33" t="n">
-        <v>60000</v>
+        <v>1173420.2907</v>
       </c>
       <c r="G33" t="n">
-        <v>215608.7386558254</v>
+        <v>-247114.7794999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1768,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1786,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="C34" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="D34" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="E34" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="F34" t="n">
-        <v>38685.139</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="n">
-        <v>176923.5996558254</v>
+        <v>-247114.7794999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1810,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1828,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.904</v>
+        <v>1.909</v>
       </c>
       <c r="C35" t="n">
-        <v>1.904</v>
+        <v>1.909</v>
       </c>
       <c r="D35" t="n">
-        <v>1.904</v>
+        <v>1.909</v>
       </c>
       <c r="E35" t="n">
-        <v>1.904</v>
+        <v>1.909</v>
       </c>
       <c r="F35" t="n">
-        <v>12509.7603</v>
+        <v>55000</v>
       </c>
       <c r="G35" t="n">
-        <v>164413.8393558254</v>
+        <v>-247114.7794999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1852,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1870,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C36" t="n">
-        <v>1.902</v>
+        <v>1.909</v>
       </c>
       <c r="D36" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E36" t="n">
-        <v>1.902</v>
+        <v>1.909</v>
       </c>
       <c r="F36" t="n">
-        <v>331308.5121</v>
+        <v>50000</v>
       </c>
       <c r="G36" t="n">
-        <v>-166894.6727441745</v>
+        <v>-247114.7794999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1894,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1912,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C37" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D37" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E37" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F37" t="n">
-        <v>137471.3187</v>
+        <v>55000</v>
       </c>
       <c r="G37" t="n">
-        <v>-29423.35404417454</v>
+        <v>-247114.7794999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1936,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1954,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="C38" t="n">
         <v>1.9</v>
       </c>
       <c r="D38" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="E38" t="n">
         <v>1.9</v>
       </c>
       <c r="F38" t="n">
-        <v>786566.2754</v>
+        <v>41899.5383</v>
       </c>
       <c r="G38" t="n">
-        <v>-815989.6294441746</v>
+        <v>-289014.3178</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1978,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1996,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="D39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E39" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F39" t="n">
-        <v>5464.7862</v>
+        <v>22987.8231</v>
       </c>
       <c r="G39" t="n">
-        <v>-815989.6294441746</v>
+        <v>-312002.1408999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2020,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C40" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="D40" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F40" t="n">
-        <v>7914.731</v>
+        <v>71707.0379</v>
       </c>
       <c r="G40" t="n">
-        <v>-815989.6294441746</v>
+        <v>-312002.1408999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2062,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2080,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="C41" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="D41" t="n">
-        <v>1.91</v>
+        <v>1.881</v>
       </c>
       <c r="E41" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="F41" t="n">
-        <v>8410.1096</v>
+        <v>1020201.4728</v>
       </c>
       <c r="G41" t="n">
-        <v>-807579.5198441746</v>
+        <v>-1332203.6137</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2104,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2122,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="C42" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="D42" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="E42" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="F42" t="n">
-        <v>15389.7825</v>
+        <v>28227.858</v>
       </c>
       <c r="G42" t="n">
-        <v>-822969.3023441746</v>
+        <v>-1303975.7557</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2146,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2164,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C43" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="D43" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="E43" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F43" t="n">
-        <v>155205.4237</v>
+        <v>59311.9773</v>
       </c>
       <c r="G43" t="n">
-        <v>-822969.3023441746</v>
+        <v>-1244663.7784</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2188,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2206,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="C44" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="D44" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="E44" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="F44" t="n">
-        <v>66666.77770000001</v>
+        <v>26384.77</v>
       </c>
       <c r="G44" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1244663.7784</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2230,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2248,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.897</v>
+        <v>1.89</v>
       </c>
       <c r="C45" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="D45" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="E45" t="n">
-        <v>1.897</v>
+        <v>1.89</v>
       </c>
       <c r="F45" t="n">
-        <v>41853.942</v>
+        <v>188216.5184</v>
       </c>
       <c r="G45" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1056447.26</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2272,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2290,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="C46" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="D46" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="E46" t="n">
-        <v>1.897</v>
+        <v>1.92</v>
       </c>
       <c r="F46" t="n">
-        <v>91052.511</v>
+        <v>24623.8726</v>
       </c>
       <c r="G46" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1056447.26</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2314,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="C47" t="n">
-        <v>1.897</v>
+        <v>1.89</v>
       </c>
       <c r="D47" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="E47" t="n">
-        <v>1.897</v>
+        <v>1.89</v>
       </c>
       <c r="F47" t="n">
-        <v>32648.4251</v>
+        <v>45000</v>
       </c>
       <c r="G47" t="n">
-        <v>-889636.0800441746</v>
+        <v>-1101447.26</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2356,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2386,10 +2106,10 @@
         <v>1.9</v>
       </c>
       <c r="F48" t="n">
-        <v>17010.9579</v>
+        <v>8178.8996</v>
       </c>
       <c r="G48" t="n">
-        <v>-872625.1221441745</v>
+        <v>-1093268.3604</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2398,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="C49" t="n">
-        <v>1.898</v>
+        <v>1.89</v>
       </c>
       <c r="D49" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="E49" t="n">
-        <v>1.898</v>
+        <v>1.89</v>
       </c>
       <c r="F49" t="n">
-        <v>598412.0988</v>
+        <v>55000</v>
       </c>
       <c r="G49" t="n">
-        <v>-1471037.220944175</v>
+        <v>-1148268.3604</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2440,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2458,40 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C50" t="n">
-        <v>1.9</v>
+        <v>1.888</v>
       </c>
       <c r="D50" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E50" t="n">
-        <v>1.9</v>
+        <v>1.888</v>
       </c>
       <c r="F50" t="n">
-        <v>10755</v>
+        <v>60000</v>
       </c>
       <c r="G50" t="n">
-        <v>-1460282.220944175</v>
+        <v>-1208268.3604</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2502,40 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.9</v>
+        <v>1.888</v>
       </c>
       <c r="C51" t="n">
-        <v>1.9</v>
+        <v>1.888</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9</v>
+        <v>1.888</v>
       </c>
       <c r="E51" t="n">
-        <v>1.9</v>
+        <v>1.888</v>
       </c>
       <c r="F51" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G51" t="n">
-        <v>-1460282.220944175</v>
+        <v>-1208268.3604</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2546,40 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="E52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F52" t="n">
-        <v>140347.211</v>
+        <v>262</v>
       </c>
       <c r="G52" t="n">
-        <v>-1460282.220944175</v>
+        <v>-1208006.3604</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2590,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.927</v>
+        <v>1.888</v>
       </c>
       <c r="C53" t="n">
-        <v>1.927</v>
+        <v>1.888</v>
       </c>
       <c r="D53" t="n">
-        <v>1.927</v>
+        <v>1.888</v>
       </c>
       <c r="E53" t="n">
-        <v>1.927</v>
+        <v>1.888</v>
       </c>
       <c r="F53" t="n">
-        <v>412899.733</v>
+        <v>50000</v>
       </c>
       <c r="G53" t="n">
-        <v>-1047382.487944175</v>
+        <v>-1258006.3604</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2614,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2632,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.92</v>
+        <v>1.888</v>
       </c>
       <c r="C54" t="n">
-        <v>1.92</v>
+        <v>1.888</v>
       </c>
       <c r="D54" t="n">
-        <v>1.92</v>
+        <v>1.888</v>
       </c>
       <c r="E54" t="n">
-        <v>1.92</v>
+        <v>1.888</v>
       </c>
       <c r="F54" t="n">
-        <v>25948.0881</v>
+        <v>70000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1073330.576044175</v>
+        <v>-1258006.3604</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2656,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="C55" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="D55" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="E55" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="F55" t="n">
-        <v>1092.1515</v>
+        <v>45000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1073330.576044175</v>
+        <v>-1303006.3604</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2698,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2716,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.93</v>
+        <v>1.882</v>
       </c>
       <c r="C56" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="D56" t="n">
-        <v>1.93</v>
+        <v>1.882</v>
       </c>
       <c r="E56" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="F56" t="n">
-        <v>155196.482</v>
+        <v>55000</v>
       </c>
       <c r="G56" t="n">
-        <v>-1073330.576044175</v>
+        <v>-1303006.3604</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2740,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2758,38 +2418,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="C57" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="D57" t="n">
-        <v>1.92</v>
+        <v>1.882</v>
       </c>
       <c r="E57" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="F57" t="n">
-        <v>869306.1629999999</v>
+        <v>55000</v>
       </c>
       <c r="G57" t="n">
-        <v>-1942636.739044175</v>
+        <v>-1303006.3604</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.882</v>
+      </c>
       <c r="K57" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.882</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2800,36 +2458,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.928</v>
+        <v>1.882</v>
       </c>
       <c r="C58" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="D58" t="n">
-        <v>1.928</v>
+        <v>1.882</v>
       </c>
       <c r="E58" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="F58" t="n">
-        <v>23456.4637</v>
+        <v>76631.9755</v>
       </c>
       <c r="G58" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1303006.3604</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.882</v>
+      </c>
       <c r="K58" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2842,36 +2502,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="C59" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="D59" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="E59" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="F59" t="n">
-        <v>20111.8764</v>
+        <v>45000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1303006.3604</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.882</v>
+      </c>
       <c r="K59" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2884,38 +2546,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="C60" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D60" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="E60" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F60" t="n">
-        <v>23665.8382</v>
+        <v>43560.282</v>
       </c>
       <c r="G60" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1259446.0784</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.882</v>
+      </c>
       <c r="K60" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.882</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2926,36 +2586,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="C61" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="D61" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="E61" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="F61" t="n">
-        <v>17577.3362</v>
+        <v>5265.929436545</v>
       </c>
       <c r="G61" t="n">
-        <v>-1919180.275344175</v>
+        <v>-1254180.148963455</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K61" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2968,36 +2630,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1287.0966</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1255467.245563455</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>1.899</v>
       </c>
-      <c r="C62" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3521.5772</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1922701.852544175</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -3010,38 +2674,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.918</v>
+        <v>1.882</v>
       </c>
       <c r="C63" t="n">
-        <v>1.918</v>
+        <v>1.882</v>
       </c>
       <c r="D63" t="n">
-        <v>1.918</v>
+        <v>1.882</v>
       </c>
       <c r="E63" t="n">
-        <v>1.918</v>
+        <v>1.882</v>
       </c>
       <c r="F63" t="n">
-        <v>98623.69960000001</v>
+        <v>99000</v>
       </c>
       <c r="G63" t="n">
-        <v>-1824078.152944175</v>
+        <v>-1354467.245563455</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K63" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.89</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +2714,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.901</v>
+        <v>1.881</v>
       </c>
       <c r="C64" t="n">
-        <v>1.901</v>
+        <v>1.881</v>
       </c>
       <c r="D64" t="n">
-        <v>1.901</v>
+        <v>1.881</v>
       </c>
       <c r="E64" t="n">
-        <v>1.901</v>
+        <v>1.881</v>
       </c>
       <c r="F64" t="n">
-        <v>317114.7174</v>
+        <v>347498.5568</v>
       </c>
       <c r="G64" t="n">
-        <v>-2141192.870344175</v>
+        <v>-1701965.802363455</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3077,11 +2739,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -3094,36 +2756,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="C65" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="D65" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="E65" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="F65" t="n">
-        <v>29781.1385</v>
+        <v>143140.9699</v>
       </c>
       <c r="G65" t="n">
-        <v>-2111411.731844175</v>
+        <v>-1558824.832463455</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.881</v>
+      </c>
       <c r="K65" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -3136,22 +2800,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="C66" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="D66" t="n">
-        <v>1.924</v>
+        <v>1.909</v>
       </c>
       <c r="E66" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="F66" t="n">
-        <v>491801.1634</v>
+        <v>16179.0035</v>
       </c>
       <c r="G66" t="n">
-        <v>-1619610.568444175</v>
+        <v>-1575003.835963455</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3160,14 +2824,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3178,22 +2836,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.924</v>
+        <v>1.892</v>
       </c>
       <c r="C67" t="n">
-        <v>1.924</v>
+        <v>1.892</v>
       </c>
       <c r="D67" t="n">
-        <v>1.924</v>
+        <v>1.892</v>
       </c>
       <c r="E67" t="n">
-        <v>1.924</v>
+        <v>1.892</v>
       </c>
       <c r="F67" t="n">
-        <v>50249.6988</v>
+        <v>277620.8618</v>
       </c>
       <c r="G67" t="n">
-        <v>-1619610.568444175</v>
+        <v>-1852624.697763456</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3202,14 +2860,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3220,22 +2872,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.929</v>
+        <v>1.892</v>
       </c>
       <c r="C68" t="n">
-        <v>1.929</v>
+        <v>1.892</v>
       </c>
       <c r="D68" t="n">
-        <v>1.929</v>
+        <v>1.892</v>
       </c>
       <c r="E68" t="n">
-        <v>1.929</v>
+        <v>1.892</v>
       </c>
       <c r="F68" t="n">
-        <v>352742.2191</v>
+        <v>40859.9098</v>
       </c>
       <c r="G68" t="n">
-        <v>-1266868.349344175</v>
+        <v>-1852624.697763456</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3244,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +2908,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.939</v>
+        <v>1.892</v>
       </c>
       <c r="C69" t="n">
-        <v>1.939</v>
+        <v>1.892</v>
       </c>
       <c r="D69" t="n">
-        <v>1.939</v>
+        <v>1.892</v>
       </c>
       <c r="E69" t="n">
-        <v>1.939</v>
+        <v>1.892</v>
       </c>
       <c r="F69" t="n">
-        <v>210883.2619</v>
+        <v>717363.9157</v>
       </c>
       <c r="G69" t="n">
-        <v>-1055985.087444175</v>
+        <v>-1852624.697763456</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3286,14 +2932,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +2944,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.924</v>
+        <v>1.892</v>
       </c>
       <c r="C70" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="D70" t="n">
-        <v>1.924</v>
+        <v>1.9</v>
       </c>
       <c r="E70" t="n">
-        <v>1.92</v>
+        <v>1.892</v>
       </c>
       <c r="F70" t="n">
-        <v>21301.1703</v>
+        <v>56720.2879</v>
       </c>
       <c r="G70" t="n">
-        <v>-1077286.257744175</v>
+        <v>-1795904.409863455</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3328,14 +2968,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3346,22 +2980,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="C71" t="n">
-        <v>1.924</v>
+        <v>1.919</v>
       </c>
       <c r="D71" t="n">
-        <v>1.924</v>
+        <v>1.919</v>
       </c>
       <c r="E71" t="n">
-        <v>1.924</v>
+        <v>1.91</v>
       </c>
       <c r="F71" t="n">
-        <v>70000</v>
+        <v>104301.47391928</v>
       </c>
       <c r="G71" t="n">
-        <v>-1007286.257744175</v>
+        <v>-1691602.935944175</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3370,14 +3004,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +3016,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.92</v>
+        <v>1.902</v>
       </c>
       <c r="C72" t="n">
-        <v>1.92</v>
+        <v>1.902</v>
       </c>
       <c r="D72" t="n">
-        <v>1.92</v>
+        <v>1.902</v>
       </c>
       <c r="E72" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="F72" t="n">
-        <v>21210.5266</v>
+        <v>100094.3373</v>
       </c>
       <c r="G72" t="n">
-        <v>-1028496.784344175</v>
+        <v>-1791697.273244175</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3412,14 +3040,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3052,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="C73" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="D73" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="E73" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="F73" t="n">
-        <v>8330.563399999999</v>
+        <v>8783.9925</v>
       </c>
       <c r="G73" t="n">
-        <v>-1028496.784344175</v>
+        <v>-1800481.265744175</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3454,14 +3076,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3472,22 +3088,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="C74" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="D74" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="E74" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="F74" t="n">
-        <v>55000</v>
+        <v>29297.7086</v>
       </c>
       <c r="G74" t="n">
-        <v>-1083496.784344175</v>
+        <v>-1800481.265744175</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3496,14 +3112,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3124,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="C75" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="D75" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="E75" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="F75" t="n">
-        <v>20377.7255</v>
+        <v>8492.134599999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-1083496.784344175</v>
+        <v>-1791989.131144175</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3538,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3160,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.913</v>
+        <v>1.909</v>
       </c>
       <c r="C76" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="D76" t="n">
-        <v>1.913</v>
+        <v>1.909</v>
       </c>
       <c r="E76" t="n">
-        <v>1.913</v>
+        <v>1.9</v>
       </c>
       <c r="F76" t="n">
-        <v>100000</v>
+        <v>122927.7806</v>
       </c>
       <c r="G76" t="n">
-        <v>-1083496.784344175</v>
+        <v>-1914916.911744175</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3580,14 +3184,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3598,22 +3196,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="C77" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="D77" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="E77" t="n">
-        <v>1.912</v>
+        <v>1.909</v>
       </c>
       <c r="F77" t="n">
-        <v>18385.2108</v>
+        <v>307800</v>
       </c>
       <c r="G77" t="n">
-        <v>-1101881.995144175</v>
+        <v>-1607116.911744175</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3622,14 +3220,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3232,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="C78" t="n">
-        <v>1.912</v>
+        <v>1.891</v>
       </c>
       <c r="D78" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="E78" t="n">
-        <v>1.912</v>
+        <v>1.881</v>
       </c>
       <c r="F78" t="n">
-        <v>27023.3741</v>
+        <v>898557.8678</v>
       </c>
       <c r="G78" t="n">
-        <v>-1101881.995144175</v>
+        <v>-2505674.779544175</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3664,14 +3256,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3682,22 +3268,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.912</v>
+        <v>1.905</v>
       </c>
       <c r="C79" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="D79" t="n">
-        <v>1.912</v>
+        <v>1.905</v>
       </c>
       <c r="E79" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F79" t="n">
-        <v>251526.8723</v>
+        <v>149000</v>
       </c>
       <c r="G79" t="n">
-        <v>-1353408.867444175</v>
+        <v>-2356674.779544175</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3706,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3724,22 +3304,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="C80" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="D80" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="E80" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="F80" t="n">
-        <v>57510</v>
+        <v>55000</v>
       </c>
       <c r="G80" t="n">
-        <v>-1295898.867444175</v>
+        <v>-2411674.779544175</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3748,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3766,22 +3340,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="C81" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="D81" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="E81" t="n">
-        <v>1.912</v>
+        <v>1.892</v>
       </c>
       <c r="F81" t="n">
-        <v>19170</v>
+        <v>45000</v>
       </c>
       <c r="G81" t="n">
-        <v>-1295898.867444175</v>
+        <v>-2411674.779544175</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3790,14 +3364,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3808,22 +3376,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="C82" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="D82" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="E82" t="n">
-        <v>1.902</v>
+        <v>1.92</v>
       </c>
       <c r="F82" t="n">
-        <v>321159.9858</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-1617058.853244175</v>
+        <v>-2410674.779544175</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3832,14 +3400,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3850,22 +3412,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="C83" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="D83" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="E83" t="n">
-        <v>1.898</v>
+        <v>1.902</v>
       </c>
       <c r="F83" t="n">
-        <v>25053.069</v>
+        <v>25000</v>
       </c>
       <c r="G83" t="n">
-        <v>-1642111.922244175</v>
+        <v>-2435674.779544175</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3874,14 +3436,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +3448,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="C84" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="D84" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="E84" t="n">
-        <v>1.918</v>
+        <v>1.902</v>
       </c>
       <c r="F84" t="n">
-        <v>102292.6474</v>
+        <v>25000</v>
       </c>
       <c r="G84" t="n">
-        <v>-1539819.274844175</v>
+        <v>-2435674.779544175</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3916,14 +3472,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +3484,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.918</v>
+        <v>1.894</v>
       </c>
       <c r="C85" t="n">
-        <v>1.918</v>
+        <v>1.894</v>
       </c>
       <c r="D85" t="n">
-        <v>1.918</v>
+        <v>1.894</v>
       </c>
       <c r="E85" t="n">
-        <v>1.918</v>
+        <v>1.894</v>
       </c>
       <c r="F85" t="n">
-        <v>1722.3346</v>
+        <v>67765.08319999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-1539819.274844175</v>
+        <v>-2503439.862744175</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3958,14 +3508,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3976,22 +3520,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="C86" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="D86" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="E86" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="F86" t="n">
-        <v>88753.8567</v>
+        <v>26195.0166</v>
       </c>
       <c r="G86" t="n">
-        <v>-1628573.131544175</v>
+        <v>-2477244.846144175</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4000,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4018,22 +3556,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="C87" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="D87" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="E87" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="F87" t="n">
-        <v>45000</v>
+        <v>207631.2693</v>
       </c>
       <c r="G87" t="n">
-        <v>-1673573.131544175</v>
+        <v>-2477244.846144175</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4042,14 +3580,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +3592,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="C88" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="D88" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="E88" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="F88" t="n">
-        <v>22670.1009</v>
+        <v>24849.1794</v>
       </c>
       <c r="G88" t="n">
-        <v>-1673573.131544175</v>
+        <v>-2477244.846144175</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4084,14 +3616,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4102,22 +3628,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="C89" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="D89" t="n">
-        <v>1.91</v>
+        <v>1.918</v>
       </c>
       <c r="E89" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F89" t="n">
-        <v>12771.7459</v>
+        <v>272325.509</v>
       </c>
       <c r="G89" t="n">
-        <v>-1660801.385644175</v>
+        <v>-2204919.337144175</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4126,14 +3652,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +3664,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C90" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D90" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E90" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F90" t="n">
-        <v>45000</v>
+        <v>346756.1156</v>
       </c>
       <c r="G90" t="n">
-        <v>-1660801.385644175</v>
+        <v>-1858163.221544174</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4168,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4186,22 +3700,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="D91" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="E91" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="F91" t="n">
-        <v>159434.6276</v>
+        <v>116856.858</v>
       </c>
       <c r="G91" t="n">
-        <v>-1660801.385644175</v>
+        <v>-1741306.363544174</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4210,14 +3724,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4228,22 +3736,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="C92" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D92" t="n">
-        <v>1.91</v>
+        <v>1.938</v>
       </c>
       <c r="E92" t="n">
-        <v>1.91</v>
+        <v>1.928</v>
       </c>
       <c r="F92" t="n">
-        <v>20482.5571</v>
+        <v>966143.8611</v>
       </c>
       <c r="G92" t="n">
-        <v>-1660801.385644175</v>
+        <v>-775162.5024441745</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4252,14 +3760,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4270,22 +3772,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.929</v>
+        <v>1.915</v>
       </c>
       <c r="C93" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="D93" t="n">
-        <v>1.97</v>
+        <v>1.915</v>
       </c>
       <c r="E93" t="n">
-        <v>1.929</v>
+        <v>1.91</v>
       </c>
       <c r="F93" t="n">
-        <v>1611483.129950253</v>
+        <v>117753.8299</v>
       </c>
       <c r="G93" t="n">
-        <v>-49318.25569392159</v>
+        <v>-892916.3323441745</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4294,14 +3796,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4312,22 +3808,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.949</v>
+        <v>1.915</v>
       </c>
       <c r="C94" t="n">
-        <v>1.949</v>
+        <v>1.915</v>
       </c>
       <c r="D94" t="n">
-        <v>1.959</v>
+        <v>1.925</v>
       </c>
       <c r="E94" t="n">
-        <v>1.94</v>
+        <v>1.915</v>
       </c>
       <c r="F94" t="n">
-        <v>363077.200491226</v>
+        <v>606581.0336</v>
       </c>
       <c r="G94" t="n">
-        <v>313758.9447973044</v>
+        <v>-286335.2987441745</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4336,14 +3832,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +3844,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="C95" t="n">
-        <v>1.95</v>
+        <v>1.894</v>
       </c>
       <c r="D95" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="E95" t="n">
-        <v>1.95</v>
+        <v>1.894</v>
       </c>
       <c r="F95" t="n">
-        <v>72344.3719</v>
+        <v>317064.6674</v>
       </c>
       <c r="G95" t="n">
-        <v>386103.3166973044</v>
+        <v>-603399.9661441746</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4378,14 +3868,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4396,40 +3880,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.937</v>
+        <v>1.9</v>
       </c>
       <c r="C96" t="n">
-        <v>1.937</v>
+        <v>1.928</v>
       </c>
       <c r="D96" t="n">
-        <v>1.937</v>
+        <v>1.928</v>
       </c>
       <c r="E96" t="n">
-        <v>1.937</v>
+        <v>1.9</v>
       </c>
       <c r="F96" t="n">
-        <v>321387.7464</v>
+        <v>679393.3678</v>
       </c>
       <c r="G96" t="n">
-        <v>64715.57029730437</v>
+        <v>75993.40165582544</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>1.014473684210526</v>
+        <v>1</v>
       </c>
       <c r="N96" t="inlineStr"/>
     </row>
@@ -4438,28 +3916,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="C97" t="n">
-        <v>1.92</v>
+        <v>1.934</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92</v>
+        <v>1.934</v>
       </c>
       <c r="E97" t="n">
-        <v>1.92</v>
+        <v>1.928</v>
       </c>
       <c r="F97" t="n">
-        <v>55000</v>
+        <v>191287.8738</v>
       </c>
       <c r="G97" t="n">
-        <v>9715.570297304366</v>
+        <v>267281.2754558254</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4474,22 +3952,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C98" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D98" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E98" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F98" t="n">
-        <v>240000</v>
+        <v>17061.7685</v>
       </c>
       <c r="G98" t="n">
-        <v>-230284.4297026956</v>
+        <v>250219.5069558254</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4513,25 +3991,25 @@
         <v>1.91</v>
       </c>
       <c r="C99" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="D99" t="n">
         <v>1.91</v>
       </c>
       <c r="E99" t="n">
-        <v>1.895</v>
+        <v>1.91</v>
       </c>
       <c r="F99" t="n">
-        <v>478837.154</v>
+        <v>17061.7684</v>
       </c>
       <c r="G99" t="n">
-        <v>-709121.5837026956</v>
+        <v>233157.7385558254</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4546,22 +4024,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.903</v>
+        <v>1.949</v>
       </c>
       <c r="C100" t="n">
-        <v>1.892</v>
+        <v>1.949</v>
       </c>
       <c r="D100" t="n">
-        <v>1.903</v>
+        <v>1.949</v>
       </c>
       <c r="E100" t="n">
-        <v>1.892</v>
+        <v>1.949</v>
       </c>
       <c r="F100" t="n">
-        <v>1154956.2858</v>
+        <v>251</v>
       </c>
       <c r="G100" t="n">
-        <v>-1864077.869502696</v>
+        <v>233408.7385558254</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4582,22 +4060,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.891</v>
+        <v>1.93</v>
       </c>
       <c r="C101" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="D101" t="n">
-        <v>1.891</v>
+        <v>1.93</v>
       </c>
       <c r="E101" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="F101" t="n">
-        <v>100000</v>
+        <v>27799.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>-1964077.869502696</v>
+        <v>205608.7386558254</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4618,22 +4096,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.893</v>
+        <v>1.91</v>
       </c>
       <c r="C102" t="n">
-        <v>1.893</v>
+        <v>1.904</v>
       </c>
       <c r="D102" t="n">
-        <v>1.894</v>
+        <v>1.91</v>
       </c>
       <c r="E102" t="n">
-        <v>1.893</v>
+        <v>1.904</v>
       </c>
       <c r="F102" t="n">
-        <v>931486.8857</v>
+        <v>50000</v>
       </c>
       <c r="G102" t="n">
-        <v>-1032590.983802696</v>
+        <v>155608.7386558254</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4654,22 +4132,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="C103" t="n">
-        <v>1.909</v>
+        <v>1.904</v>
       </c>
       <c r="D103" t="n">
-        <v>1.909</v>
+        <v>1.919</v>
       </c>
       <c r="E103" t="n">
-        <v>1.909</v>
+        <v>1.904</v>
       </c>
       <c r="F103" t="n">
-        <v>129997.0858</v>
+        <v>356709.5172</v>
       </c>
       <c r="G103" t="n">
-        <v>-902593.8980026955</v>
+        <v>155608.7386558254</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4690,22 +4168,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.893</v>
+        <v>1.91</v>
       </c>
       <c r="C104" t="n">
-        <v>1.893</v>
+        <v>1.917</v>
       </c>
       <c r="D104" t="n">
-        <v>1.893</v>
+        <v>1.917</v>
       </c>
       <c r="E104" t="n">
-        <v>1.893</v>
+        <v>1.91</v>
       </c>
       <c r="F104" t="n">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G104" t="n">
-        <v>-957593.8980026955</v>
+        <v>215608.7386558254</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4726,22 +4204,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="C105" t="n">
-        <v>1.909</v>
+        <v>1.916</v>
       </c>
       <c r="D105" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="E105" t="n">
-        <v>1.909</v>
+        <v>1.916</v>
       </c>
       <c r="F105" t="n">
-        <v>54013.3146</v>
+        <v>38685.139</v>
       </c>
       <c r="G105" t="n">
-        <v>-903580.5834026955</v>
+        <v>176923.5996558254</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4762,22 +4240,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.919</v>
+        <v>1.904</v>
       </c>
       <c r="C106" t="n">
-        <v>1.919</v>
+        <v>1.904</v>
       </c>
       <c r="D106" t="n">
-        <v>1.919</v>
+        <v>1.904</v>
       </c>
       <c r="E106" t="n">
-        <v>1.919</v>
+        <v>1.904</v>
       </c>
       <c r="F106" t="n">
-        <v>10177.6418</v>
+        <v>12509.7603</v>
       </c>
       <c r="G106" t="n">
-        <v>-893402.9416026955</v>
+        <v>164413.8393558254</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4798,22 +4276,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C107" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="D107" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="E107" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="F107" t="n">
-        <v>26873.6855</v>
+        <v>331308.5121</v>
       </c>
       <c r="G107" t="n">
-        <v>-893402.9416026955</v>
+        <v>-166894.6727441745</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4834,22 +4312,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C108" t="n">
         <v>1.91</v>
       </c>
       <c r="D108" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="E108" t="n">
         <v>1.91</v>
       </c>
       <c r="F108" t="n">
-        <v>137710.137822051</v>
+        <v>137471.3187</v>
       </c>
       <c r="G108" t="n">
-        <v>-1031113.079424747</v>
+        <v>-29423.35404417454</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4870,22 +4348,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="C109" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D109" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="E109" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F109" t="n">
-        <v>15641.4669</v>
+        <v>786566.2754</v>
       </c>
       <c r="G109" t="n">
-        <v>-1031113.079424747</v>
+        <v>-815989.6294441746</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4906,22 +4384,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="C110" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="D110" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="E110" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="F110" t="n">
-        <v>45000</v>
+        <v>5464.7862</v>
       </c>
       <c r="G110" t="n">
-        <v>-1076113.079424747</v>
+        <v>-815989.6294441746</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4942,22 +4420,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C111" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D111" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E111" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F111" t="n">
-        <v>8061.3779</v>
+        <v>7914.731</v>
       </c>
       <c r="G111" t="n">
-        <v>-1068051.701524747</v>
+        <v>-815989.6294441746</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4978,7 +4456,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C112" t="n">
         <v>1.91</v>
@@ -4987,13 +4465,13 @@
         <v>1.91</v>
       </c>
       <c r="E112" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F112" t="n">
-        <v>15641.4669</v>
+        <v>8410.1096</v>
       </c>
       <c r="G112" t="n">
-        <v>-1068051.701524747</v>
+        <v>-807579.5198441746</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5014,22 +4492,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C113" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D113" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E113" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F113" t="n">
-        <v>7989.3537</v>
+        <v>15389.7825</v>
       </c>
       <c r="G113" t="n">
-        <v>-1068051.701524747</v>
+        <v>-822969.3023441746</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5050,22 +4528,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.926</v>
+        <v>1.9</v>
       </c>
       <c r="C114" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="D114" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="E114" t="n">
-        <v>1.926</v>
+        <v>1.9</v>
       </c>
       <c r="F114" t="n">
-        <v>35455.3272</v>
+        <v>155205.4237</v>
       </c>
       <c r="G114" t="n">
-        <v>-1032596.374324747</v>
+        <v>-822969.3023441746</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5086,22 +4564,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.93</v>
+        <v>1.897</v>
       </c>
       <c r="C115" t="n">
-        <v>1.926</v>
+        <v>1.897</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93</v>
+        <v>1.897</v>
       </c>
       <c r="E115" t="n">
-        <v>1.926</v>
+        <v>1.897</v>
       </c>
       <c r="F115" t="n">
-        <v>300000</v>
+        <v>66666.77770000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-1332596.374324747</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5122,22 +4600,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.926</v>
+        <v>1.897</v>
       </c>
       <c r="C116" t="n">
-        <v>1.918</v>
+        <v>1.897</v>
       </c>
       <c r="D116" t="n">
-        <v>1.926</v>
+        <v>1.897</v>
       </c>
       <c r="E116" t="n">
-        <v>1.918</v>
+        <v>1.897</v>
       </c>
       <c r="F116" t="n">
-        <v>442305.3273</v>
+        <v>41853.942</v>
       </c>
       <c r="G116" t="n">
-        <v>-1774901.701624747</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5158,22 +4636,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.911</v>
+        <v>1.897</v>
       </c>
       <c r="C117" t="n">
-        <v>1.911</v>
+        <v>1.897</v>
       </c>
       <c r="D117" t="n">
-        <v>1.911</v>
+        <v>1.897</v>
       </c>
       <c r="E117" t="n">
-        <v>1.911</v>
+        <v>1.897</v>
       </c>
       <c r="F117" t="n">
-        <v>103281.1962</v>
+        <v>91052.511</v>
       </c>
       <c r="G117" t="n">
-        <v>-1878182.897824747</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5194,22 +4672,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.914</v>
+        <v>1.897</v>
       </c>
       <c r="C118" t="n">
-        <v>1.914</v>
+        <v>1.897</v>
       </c>
       <c r="D118" t="n">
-        <v>1.914</v>
+        <v>1.897</v>
       </c>
       <c r="E118" t="n">
-        <v>1.914</v>
+        <v>1.897</v>
       </c>
       <c r="F118" t="n">
-        <v>60000</v>
+        <v>32648.4251</v>
       </c>
       <c r="G118" t="n">
-        <v>-1818182.897824747</v>
+        <v>-889636.0800441746</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5230,22 +4708,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.928</v>
+        <v>1.9</v>
       </c>
       <c r="C119" t="n">
-        <v>1.928</v>
+        <v>1.9</v>
       </c>
       <c r="D119" t="n">
-        <v>1.928</v>
+        <v>1.9</v>
       </c>
       <c r="E119" t="n">
-        <v>1.928</v>
+        <v>1.9</v>
       </c>
       <c r="F119" t="n">
-        <v>204386.3398</v>
+        <v>17010.9579</v>
       </c>
       <c r="G119" t="n">
-        <v>-1613796.558024747</v>
+        <v>-872625.1221441745</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5266,22 +4744,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.92</v>
+        <v>1.899</v>
       </c>
       <c r="C120" t="n">
-        <v>1.92</v>
+        <v>1.898</v>
       </c>
       <c r="D120" t="n">
-        <v>1.92</v>
+        <v>1.899</v>
       </c>
       <c r="E120" t="n">
-        <v>1.92</v>
+        <v>1.898</v>
       </c>
       <c r="F120" t="n">
-        <v>20778.072</v>
+        <v>598412.0988</v>
       </c>
       <c r="G120" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1471037.220944175</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5302,22 +4780,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="C121" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="D121" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="E121" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="F121" t="n">
-        <v>20496.3083</v>
+        <v>10755</v>
       </c>
       <c r="G121" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1460282.220944175</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5338,22 +4816,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.912</v>
+        <v>1.9</v>
       </c>
       <c r="C122" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="D122" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="E122" t="n">
-        <v>1.912</v>
+        <v>1.9</v>
       </c>
       <c r="F122" t="n">
-        <v>62000.2079</v>
+        <v>50000</v>
       </c>
       <c r="G122" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1460282.220944175</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5374,22 +4852,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="C123" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="D123" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="E123" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="F123" t="n">
-        <v>56757.555</v>
+        <v>140347.211</v>
       </c>
       <c r="G123" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1460282.220944175</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5410,22 +4888,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.911</v>
+        <v>1.927</v>
       </c>
       <c r="C124" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="D124" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="E124" t="n">
-        <v>1.911</v>
+        <v>1.927</v>
       </c>
       <c r="F124" t="n">
-        <v>59998.9729</v>
+        <v>412899.733</v>
       </c>
       <c r="G124" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1047382.487944175</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5458,10 +4936,10 @@
         <v>1.92</v>
       </c>
       <c r="F125" t="n">
-        <v>21282.1678</v>
+        <v>25948.0881</v>
       </c>
       <c r="G125" t="n">
-        <v>-1634574.630024747</v>
+        <v>-1073330.576044175</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5482,22 +4960,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="C126" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="D126" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="E126" t="n">
-        <v>1.912</v>
+        <v>1.92</v>
       </c>
       <c r="F126" t="n">
-        <v>45000</v>
+        <v>1092.1515</v>
       </c>
       <c r="G126" t="n">
-        <v>-1679574.630024747</v>
+        <v>-1073330.576044175</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5518,22 +4996,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C127" t="n">
         <v>1.92</v>
       </c>
       <c r="D127" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E127" t="n">
         <v>1.92</v>
       </c>
       <c r="F127" t="n">
-        <v>350.0415</v>
+        <v>155196.482</v>
       </c>
       <c r="G127" t="n">
-        <v>-1679224.588524746</v>
+        <v>-1073330.576044175</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5554,22 +5032,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="C128" t="n">
-        <v>1.903</v>
+        <v>1.899</v>
       </c>
       <c r="D128" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="E128" t="n">
-        <v>1.903</v>
+        <v>1.899</v>
       </c>
       <c r="F128" t="n">
-        <v>118450.9837</v>
+        <v>869306.1629999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-1797675.572224746</v>
+        <v>-1942636.739044175</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5590,22 +5068,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.905</v>
+        <v>1.928</v>
       </c>
       <c r="C129" t="n">
         <v>1.91</v>
       </c>
       <c r="D129" t="n">
-        <v>1.911</v>
+        <v>1.928</v>
       </c>
       <c r="E129" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="F129" t="n">
-        <v>153214.0662</v>
+        <v>23456.4637</v>
       </c>
       <c r="G129" t="n">
-        <v>-1644461.506024746</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5626,22 +5104,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="C130" t="n">
         <v>1.91</v>
       </c>
       <c r="D130" t="n">
-        <v>1.911</v>
+        <v>1.91</v>
       </c>
       <c r="E130" t="n">
         <v>1.91</v>
       </c>
       <c r="F130" t="n">
-        <v>50000</v>
+        <v>20111.8764</v>
       </c>
       <c r="G130" t="n">
-        <v>-1644461.506024746</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5674,10 +5152,10 @@
         <v>1.91</v>
       </c>
       <c r="F131" t="n">
-        <v>350000</v>
+        <v>23665.8382</v>
       </c>
       <c r="G131" t="n">
-        <v>-1644461.506024746</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5698,22 +5176,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C132" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D132" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E132" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F132" t="n">
-        <v>105429.6257</v>
+        <v>17577.3362</v>
       </c>
       <c r="G132" t="n">
-        <v>-1539031.880324746</v>
+        <v>-1919180.275344175</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5734,22 +5212,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.912</v>
+        <v>1.899</v>
       </c>
       <c r="C133" t="n">
-        <v>1.912</v>
+        <v>1.899</v>
       </c>
       <c r="D133" t="n">
-        <v>1.912</v>
+        <v>1.899</v>
       </c>
       <c r="E133" t="n">
-        <v>1.912</v>
+        <v>1.899</v>
       </c>
       <c r="F133" t="n">
-        <v>47750</v>
+        <v>3521.5772</v>
       </c>
       <c r="G133" t="n">
-        <v>-1586781.880324746</v>
+        <v>-1922701.852544175</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5770,22 +5248,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.909</v>
+        <v>1.918</v>
       </c>
       <c r="C134" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="D134" t="n">
-        <v>1.909</v>
+        <v>1.918</v>
       </c>
       <c r="E134" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="F134" t="n">
-        <v>375411.951</v>
+        <v>98623.69960000001</v>
       </c>
       <c r="G134" t="n">
-        <v>-1962193.831324746</v>
+        <v>-1824078.152944175</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5818,10 +5296,10 @@
         <v>1.901</v>
       </c>
       <c r="F135" t="n">
-        <v>59592.2369</v>
+        <v>317114.7174</v>
       </c>
       <c r="G135" t="n">
-        <v>-2021786.068224746</v>
+        <v>-2141192.870344175</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5842,22 +5320,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.921</v>
+        <v>1.902</v>
       </c>
       <c r="C136" t="n">
-        <v>1.931</v>
+        <v>1.902</v>
       </c>
       <c r="D136" t="n">
-        <v>1.931</v>
+        <v>1.902</v>
       </c>
       <c r="E136" t="n">
-        <v>1.921</v>
+        <v>1.902</v>
       </c>
       <c r="F136" t="n">
-        <v>443633.3316</v>
+        <v>29781.1385</v>
       </c>
       <c r="G136" t="n">
-        <v>-1578152.736624746</v>
+        <v>-2111411.731844175</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5878,22 +5356,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.921</v>
+        <v>1.918</v>
       </c>
       <c r="C137" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="D137" t="n">
-        <v>1.93</v>
+        <v>1.924</v>
       </c>
       <c r="E137" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="F137" t="n">
-        <v>1309916.1046</v>
+        <v>491801.1634</v>
       </c>
       <c r="G137" t="n">
-        <v>-2888068.841224746</v>
+        <v>-1619610.568444175</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5914,22 +5392,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.93</v>
+        <v>1.924</v>
       </c>
       <c r="C138" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="D138" t="n">
-        <v>1.93</v>
+        <v>1.924</v>
       </c>
       <c r="E138" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="F138" t="n">
-        <v>510131.2896</v>
+        <v>50249.6988</v>
       </c>
       <c r="G138" t="n">
-        <v>-2888068.841224746</v>
+        <v>-1619610.568444175</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5950,22 +5428,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.92</v>
+        <v>1.929</v>
       </c>
       <c r="C139" t="n">
-        <v>1.92</v>
+        <v>1.929</v>
       </c>
       <c r="D139" t="n">
-        <v>1.92</v>
+        <v>1.929</v>
       </c>
       <c r="E139" t="n">
-        <v>1.92</v>
+        <v>1.929</v>
       </c>
       <c r="F139" t="n">
-        <v>367604.1104</v>
+        <v>352742.2191</v>
       </c>
       <c r="G139" t="n">
-        <v>-2888068.841224746</v>
+        <v>-1266868.349344175</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5986,22 +5464,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.92</v>
+        <v>1.939</v>
       </c>
       <c r="C140" t="n">
-        <v>1.92</v>
+        <v>1.939</v>
       </c>
       <c r="D140" t="n">
-        <v>1.92</v>
+        <v>1.939</v>
       </c>
       <c r="E140" t="n">
-        <v>1.92</v>
+        <v>1.939</v>
       </c>
       <c r="F140" t="n">
-        <v>169354.8107</v>
+        <v>210883.2619</v>
       </c>
       <c r="G140" t="n">
-        <v>-2888068.841224746</v>
+        <v>-1055985.087444175</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6022,22 +5500,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="C141" t="n">
         <v>1.92</v>
       </c>
       <c r="D141" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="E141" t="n">
         <v>1.92</v>
       </c>
       <c r="F141" t="n">
-        <v>200000</v>
+        <v>21301.1703</v>
       </c>
       <c r="G141" t="n">
-        <v>-2888068.841224746</v>
+        <v>-1077286.257744175</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6058,22 +5536,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="C142" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="D142" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="E142" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="F142" t="n">
-        <v>23500</v>
+        <v>70000</v>
       </c>
       <c r="G142" t="n">
-        <v>-2888068.841224746</v>
+        <v>-1007286.257744175</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6094,22 +5572,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="C143" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="D143" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="E143" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="F143" t="n">
-        <v>7831.15</v>
+        <v>21210.5266</v>
       </c>
       <c r="G143" t="n">
-        <v>-2895899.991224746</v>
+        <v>-1028496.784344175</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6139,13 +5617,13 @@
         <v>1.92</v>
       </c>
       <c r="E144" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="F144" t="n">
-        <v>454463.47</v>
+        <v>8330.563399999999</v>
       </c>
       <c r="G144" t="n">
-        <v>-2441436.521224746</v>
+        <v>-1028496.784344175</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6166,22 +5644,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.91</v>
+        <v>1.913</v>
       </c>
       <c r="C145" t="n">
-        <v>1.901</v>
+        <v>1.913</v>
       </c>
       <c r="D145" t="n">
-        <v>1.91</v>
+        <v>1.913</v>
       </c>
       <c r="E145" t="n">
-        <v>1.901</v>
+        <v>1.913</v>
       </c>
       <c r="F145" t="n">
-        <v>479605.9773</v>
+        <v>55000</v>
       </c>
       <c r="G145" t="n">
-        <v>-2921042.498524746</v>
+        <v>-1083496.784344175</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6202,22 +5680,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.918</v>
+        <v>1.913</v>
       </c>
       <c r="C146" t="n">
-        <v>1.918</v>
+        <v>1.913</v>
       </c>
       <c r="D146" t="n">
-        <v>1.918</v>
+        <v>1.913</v>
       </c>
       <c r="E146" t="n">
-        <v>1.918</v>
+        <v>1.913</v>
       </c>
       <c r="F146" t="n">
-        <v>66369.88830000001</v>
+        <v>20377.7255</v>
       </c>
       <c r="G146" t="n">
-        <v>-2854672.610224746</v>
+        <v>-1083496.784344175</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6238,22 +5716,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.928</v>
+        <v>1.913</v>
       </c>
       <c r="C147" t="n">
-        <v>1.928</v>
+        <v>1.913</v>
       </c>
       <c r="D147" t="n">
-        <v>1.928</v>
+        <v>1.913</v>
       </c>
       <c r="E147" t="n">
-        <v>1.928</v>
+        <v>1.913</v>
       </c>
       <c r="F147" t="n">
-        <v>108321.3025</v>
+        <v>100000</v>
       </c>
       <c r="G147" t="n">
-        <v>-2746351.307724746</v>
+        <v>-1083496.784344175</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6274,22 +5752,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="C148" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="D148" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="E148" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="F148" t="n">
-        <v>1391.2848</v>
+        <v>18385.2108</v>
       </c>
       <c r="G148" t="n">
-        <v>-2746351.307724746</v>
+        <v>-1101881.995144175</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6310,22 +5788,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="C149" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="D149" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="E149" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="F149" t="n">
-        <v>20000</v>
+        <v>27023.3741</v>
       </c>
       <c r="G149" t="n">
-        <v>-2746351.307724746</v>
+        <v>-1101881.995144175</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6346,22 +5824,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="C150" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="D150" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="E150" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="F150" t="n">
-        <v>25587.5291</v>
+        <v>251526.8723</v>
       </c>
       <c r="G150" t="n">
-        <v>-2746351.307724746</v>
+        <v>-1353408.867444175</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6382,22 +5860,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="C151" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="D151" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="E151" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="F151" t="n">
-        <v>18422.5376</v>
+        <v>57510</v>
       </c>
       <c r="G151" t="n">
-        <v>-2746351.307724746</v>
+        <v>-1295898.867444175</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6418,22 +5896,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="C152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="D152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="E152" t="n">
-        <v>1.928</v>
+        <v>1.912</v>
       </c>
       <c r="F152" t="n">
-        <v>116353.6453</v>
+        <v>19170</v>
       </c>
       <c r="G152" t="n">
-        <v>-2746351.307724746</v>
+        <v>-1295898.867444175</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6454,22 +5932,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="C153" t="n">
-        <v>1.93</v>
+        <v>1.902</v>
       </c>
       <c r="D153" t="n">
-        <v>1.93</v>
+        <v>1.902</v>
       </c>
       <c r="E153" t="n">
-        <v>1.919</v>
+        <v>1.902</v>
       </c>
       <c r="F153" t="n">
-        <v>645973.0152</v>
+        <v>321159.9858</v>
       </c>
       <c r="G153" t="n">
-        <v>-2100378.292524746</v>
+        <v>-1617058.853244175</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6490,22 +5968,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.93</v>
+        <v>1.898</v>
       </c>
       <c r="C154" t="n">
-        <v>1.93</v>
+        <v>1.898</v>
       </c>
       <c r="D154" t="n">
-        <v>1.93</v>
+        <v>1.898</v>
       </c>
       <c r="E154" t="n">
-        <v>1.93</v>
+        <v>1.898</v>
       </c>
       <c r="F154" t="n">
-        <v>23500</v>
+        <v>25053.069</v>
       </c>
       <c r="G154" t="n">
-        <v>-2100378.292524746</v>
+        <v>-1642111.922244175</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6526,22 +6004,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="C155" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="D155" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="E155" t="n">
-        <v>1.93</v>
+        <v>1.918</v>
       </c>
       <c r="F155" t="n">
-        <v>218722.654</v>
+        <v>102292.6474</v>
       </c>
       <c r="G155" t="n">
-        <v>-2100378.292524746</v>
+        <v>-1539819.274844175</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6562,22 +6040,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="C156" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="D156" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="E156" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="F156" t="n">
-        <v>22838.7796</v>
+        <v>1722.3346</v>
       </c>
       <c r="G156" t="n">
-        <v>-2077539.512924746</v>
+        <v>-1539819.274844175</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6598,22 +6076,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="C157" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="D157" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="E157" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="F157" t="n">
-        <v>20554.1662</v>
+        <v>88753.8567</v>
       </c>
       <c r="G157" t="n">
-        <v>-2077539.512924746</v>
+        <v>-1628573.131544175</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6634,22 +6112,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="C158" t="n">
-        <v>1.93</v>
+        <v>1.896</v>
       </c>
       <c r="D158" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="E158" t="n">
-        <v>1.93</v>
+        <v>1.896</v>
       </c>
       <c r="F158" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="G158" t="n">
-        <v>-2127539.512924746</v>
+        <v>-1673573.131544175</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6670,22 +6148,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.93</v>
+        <v>1.896</v>
       </c>
       <c r="C159" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="D159" t="n">
-        <v>1.93</v>
+        <v>1.896</v>
       </c>
       <c r="E159" t="n">
-        <v>1.91</v>
+        <v>1.896</v>
       </c>
       <c r="F159" t="n">
-        <v>120000</v>
+        <v>22670.1009</v>
       </c>
       <c r="G159" t="n">
-        <v>-2247539.512924746</v>
+        <v>-1673573.131544175</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6718,10 +6196,10 @@
         <v>1.91</v>
       </c>
       <c r="F160" t="n">
-        <v>18510.0812</v>
+        <v>12771.7459</v>
       </c>
       <c r="G160" t="n">
-        <v>-2247539.512924746</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6742,22 +6220,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="C161" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="D161" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="E161" t="n">
-        <v>1.919</v>
+        <v>1.91</v>
       </c>
       <c r="F161" t="n">
-        <v>619908.5498</v>
+        <v>45000</v>
       </c>
       <c r="G161" t="n">
-        <v>-1627630.963124746</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6778,22 +6256,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C162" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D162" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="E162" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F162" t="n">
-        <v>201487.8244</v>
+        <v>159434.6276</v>
       </c>
       <c r="G162" t="n">
-        <v>-1829118.787524746</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6826,10 +6304,10 @@
         <v>1.91</v>
       </c>
       <c r="F163" t="n">
-        <v>55000</v>
+        <v>20482.5571</v>
       </c>
       <c r="G163" t="n">
-        <v>-1884118.787524746</v>
+        <v>-1660801.385644175</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6850,22 +6328,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.92</v>
+        <v>1.929</v>
       </c>
       <c r="C164" t="n">
-        <v>1.912</v>
+        <v>1.94</v>
       </c>
       <c r="D164" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="E164" t="n">
-        <v>1.912</v>
+        <v>1.929</v>
       </c>
       <c r="F164" t="n">
-        <v>368188.1852</v>
+        <v>1611483.129950253</v>
       </c>
       <c r="G164" t="n">
-        <v>-1515930.602324746</v>
+        <v>-49318.25569392159</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6886,22 +6364,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.92</v>
+        <v>1.949</v>
       </c>
       <c r="C165" t="n">
-        <v>1.92</v>
+        <v>1.949</v>
       </c>
       <c r="D165" t="n">
-        <v>1.92</v>
+        <v>1.959</v>
       </c>
       <c r="E165" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="F165" t="n">
-        <v>271125.3025</v>
+        <v>363077.200491226</v>
       </c>
       <c r="G165" t="n">
-        <v>-1244805.299824746</v>
+        <v>313758.9447973044</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6922,28 +6400,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="C166" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="D166" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="E166" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="F166" t="n">
-        <v>4000</v>
+        <v>72344.3719</v>
       </c>
       <c r="G166" t="n">
-        <v>-1248805.299824746</v>
+        <v>386103.3166973044</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6958,28 +6436,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.91</v>
+        <v>1.937</v>
       </c>
       <c r="C167" t="n">
-        <v>1.91</v>
+        <v>1.937</v>
       </c>
       <c r="D167" t="n">
-        <v>1.91</v>
+        <v>1.937</v>
       </c>
       <c r="E167" t="n">
-        <v>1.91</v>
+        <v>1.937</v>
       </c>
       <c r="F167" t="n">
-        <v>53171.2503</v>
+        <v>321387.7464</v>
       </c>
       <c r="G167" t="n">
-        <v>-1248805.299824746</v>
+        <v>64715.57029730437</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6994,28 +6472,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C168" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="D168" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E168" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F168" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="G168" t="n">
-        <v>-1248805.299824746</v>
+        <v>9715.570297304366</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -7030,22 +6508,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C169" t="n">
         <v>1.91</v>
       </c>
       <c r="D169" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="E169" t="n">
         <v>1.91</v>
       </c>
       <c r="F169" t="n">
-        <v>55000</v>
+        <v>240000</v>
       </c>
       <c r="G169" t="n">
-        <v>-1248805.299824746</v>
+        <v>-230284.4297026956</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7069,19 +6547,19 @@
         <v>1.91</v>
       </c>
       <c r="C170" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="D170" t="n">
         <v>1.91</v>
       </c>
       <c r="E170" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="F170" t="n">
-        <v>25984.5128</v>
+        <v>478837.154</v>
       </c>
       <c r="G170" t="n">
-        <v>-1248805.299824746</v>
+        <v>-709121.5837026956</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7102,22 +6580,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.9</v>
+        <v>1.903</v>
       </c>
       <c r="C171" t="n">
         <v>1.892</v>
       </c>
       <c r="D171" t="n">
-        <v>1.9</v>
+        <v>1.903</v>
       </c>
       <c r="E171" t="n">
         <v>1.892</v>
       </c>
       <c r="F171" t="n">
-        <v>45000</v>
+        <v>1154956.2858</v>
       </c>
       <c r="G171" t="n">
-        <v>-1293805.299824746</v>
+        <v>-1864077.869502696</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7138,22 +6616,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="C172" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D172" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="E172" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F172" t="n">
-        <v>697276.8497</v>
+        <v>100000</v>
       </c>
       <c r="G172" t="n">
-        <v>-596528.4501247456</v>
+        <v>-1964077.869502696</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7174,22 +6652,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="C173" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="D173" t="n">
-        <v>1.902</v>
+        <v>1.894</v>
       </c>
       <c r="E173" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="F173" t="n">
-        <v>60000</v>
+        <v>931486.8857</v>
       </c>
       <c r="G173" t="n">
-        <v>-656528.4501247456</v>
+        <v>-1032590.983802696</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7210,22 +6688,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C174" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D174" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E174" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F174" t="n">
-        <v>361256.544502617</v>
+        <v>129997.0858</v>
       </c>
       <c r="G174" t="n">
-        <v>-295271.9056221286</v>
+        <v>-902593.8980026955</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7246,22 +6724,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="C175" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="D175" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="E175" t="n">
-        <v>1.902</v>
+        <v>1.893</v>
       </c>
       <c r="F175" t="n">
-        <v>30760</v>
+        <v>55000</v>
       </c>
       <c r="G175" t="n">
-        <v>-326031.9056221286</v>
+        <v>-957593.8980026955</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7282,22 +6760,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="C176" t="n">
-        <v>1.902</v>
+        <v>1.909</v>
       </c>
       <c r="D176" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="E176" t="n">
-        <v>1.902</v>
+        <v>1.909</v>
       </c>
       <c r="F176" t="n">
-        <v>30260</v>
+        <v>54013.3146</v>
       </c>
       <c r="G176" t="n">
-        <v>-326031.9056221286</v>
+        <v>-903580.5834026955</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7318,22 +6796,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="C177" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="D177" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="E177" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="F177" t="n">
-        <v>204022.092997383</v>
+        <v>10177.6418</v>
       </c>
       <c r="G177" t="n">
-        <v>-122009.8126247456</v>
+        <v>-893402.9416026955</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7354,22 +6832,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="C178" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="D178" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="E178" t="n">
-        <v>1.91</v>
+        <v>1.919</v>
       </c>
       <c r="F178" t="n">
-        <v>15384.816753926</v>
+        <v>26873.6855</v>
       </c>
       <c r="G178" t="n">
-        <v>-122009.8126247456</v>
+        <v>-893402.9416026955</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7390,22 +6868,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="C179" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D179" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="E179" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F179" t="n">
-        <v>21359.8883</v>
+        <v>137710.137822051</v>
       </c>
       <c r="G179" t="n">
-        <v>-143369.7009247456</v>
+        <v>-1031113.079424747</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7421,6 +6899,2562 @@
       </c>
       <c r="N179" t="inlineStr"/>
     </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15641.4669</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1031113.079424747</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F181" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1076113.079424747</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F182" t="n">
+        <v>8061.3779</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1068051.701524747</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F183" t="n">
+        <v>15641.4669</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1068051.701524747</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7989.3537</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1068051.701524747</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F185" t="n">
+        <v>35455.3272</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1032596.374324747</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F186" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1332596.374324747</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F187" t="n">
+        <v>442305.3273</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1774901.701624747</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F188" t="n">
+        <v>103281.1962</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1878182.897824747</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="F189" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1818182.897824747</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F190" t="n">
+        <v>204386.3398</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1613796.558024747</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20778.072</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1634574.630024747</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20496.3083</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1634574.630024747</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F193" t="n">
+        <v>62000.2079</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1634574.630024747</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F194" t="n">
+        <v>56757.555</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1634574.630024747</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F195" t="n">
+        <v>59998.9729</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1634574.630024747</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21282.1678</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1634574.630024747</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F197" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1679574.630024747</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F198" t="n">
+        <v>350.0415</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1679224.588524746</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F199" t="n">
+        <v>118450.9837</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1797675.572224746</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="F200" t="n">
+        <v>153214.0662</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1644461.506024746</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F201" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1644461.506024746</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F202" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1644461.506024746</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F203" t="n">
+        <v>105429.6257</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1539031.880324746</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F204" t="n">
+        <v>47750</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1586781.880324746</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F205" t="n">
+        <v>375411.951</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1962193.831324746</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F206" t="n">
+        <v>59592.2369</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2021786.068224746</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="F207" t="n">
+        <v>443633.3316</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1578152.736624746</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1309916.1046</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-2888068.841224746</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F209" t="n">
+        <v>510131.2896</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-2888068.841224746</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F210" t="n">
+        <v>367604.1104</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-2888068.841224746</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F211" t="n">
+        <v>169354.8107</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-2888068.841224746</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F212" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-2888068.841224746</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F213" t="n">
+        <v>23500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-2888068.841224746</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7831.15</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-2895899.991224746</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F215" t="n">
+        <v>454463.47</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-2441436.521224746</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F216" t="n">
+        <v>479605.9773</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-2921042.498524746</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F217" t="n">
+        <v>66369.88830000001</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-2854672.610224746</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F218" t="n">
+        <v>108321.3025</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-2746351.307724746</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1391.2848</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-2746351.307724746</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F220" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-2746351.307724746</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25587.5291</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-2746351.307724746</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F222" t="n">
+        <v>18422.5376</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-2746351.307724746</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="F223" t="n">
+        <v>116353.6453</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-2746351.307724746</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F224" t="n">
+        <v>645973.0152</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2100378.292524746</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23500</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-2100378.292524746</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F226" t="n">
+        <v>218722.654</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-2100378.292524746</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F227" t="n">
+        <v>22838.7796</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-2077539.512924746</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F228" t="n">
+        <v>20554.1662</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-2077539.512924746</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F229" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-2127539.512924746</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F230" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-2247539.512924746</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F231" t="n">
+        <v>18510.0812</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-2247539.512924746</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F232" t="n">
+        <v>619908.5498</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1627630.963124746</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F233" t="n">
+        <v>201487.8244</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1829118.787524746</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F234" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1884118.787524746</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F235" t="n">
+        <v>368188.1852</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1515930.602324746</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F236" t="n">
+        <v>271125.3025</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1244805.299824746</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F237" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1248805.299824746</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F238" t="n">
+        <v>53171.2503</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1248805.299824746</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F239" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1248805.299824746</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F240" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1248805.299824746</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F241" t="n">
+        <v>25984.5128</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1248805.299824746</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F242" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1293805.299824746</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F243" t="n">
+        <v>697276.8497</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-596528.4501247456</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F244" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-656528.4501247456</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F245" t="n">
+        <v>361256.544502617</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-295271.9056221286</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F246" t="n">
+        <v>30760</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-326031.9056221286</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F247" t="n">
+        <v>30260</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-326031.9056221286</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F248" t="n">
+        <v>204022.092997383</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-122009.8126247456</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F249" t="n">
+        <v>15384.816753926</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-122009.8126247456</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F250" t="n">
+        <v>21359.8883</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-143369.7009247456</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:M250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1170285.8198</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-1261008.182</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-1261008.182</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-1311008.182</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-1311008.182</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-1311008.182</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-1311008.182</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-1286258.5906</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-1346258.5906</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-1396258.5906</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-1446258.5906</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-1414914.3073</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-1443968.5771</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-1418342.1261</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-1386426.9812</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,21 @@
         <v>-1420535.0702</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.884</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1447,21 @@
         <v>-1420535.0702</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.881</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1486,21 @@
         <v>-247114.7794999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.881</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1525,21 @@
         <v>-247114.7794999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.909</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1566,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1603,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1640,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1675,19 @@
         <v>-289014.3178</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1714,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1751,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1788,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1825,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1862,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1899,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1936,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1973,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2010,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2047,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2084,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2121,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2158,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2195,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2232,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2269,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2306,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2343,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,22 +2378,19 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2476,26 +2415,19 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2520,26 +2452,19 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,22 +2489,21 @@
         <v>-1259446.0784</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
         <v>1.882</v>
       </c>
-      <c r="K60" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2604,26 +2528,19 @@
         <v>-1254180.148963455</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2648,26 +2565,19 @@
         <v>-1255467.245563455</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2692,22 +2602,19 @@
         <v>-1354467.245563455</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2732,24 +2639,21 @@
         <v>-1701965.802363455</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1.882</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2774,26 +2678,19 @@
         <v>-1558824.832463455</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2820,16 +2717,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2856,16 +2754,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2892,16 +2791,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2928,16 +2828,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2964,16 +2865,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3000,16 +2902,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3036,16 +2939,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3072,16 +2976,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3108,16 +3013,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3144,16 +3050,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3180,16 +3087,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3216,16 +3124,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3252,16 +3161,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3288,16 +3198,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3324,16 +3235,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3360,16 +3272,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3396,16 +3309,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3432,16 +3346,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,16 +3383,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3504,16 +3420,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3540,16 +3457,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3576,16 +3494,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3612,16 +3531,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3648,16 +3568,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3684,16 +3605,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3720,16 +3642,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3756,16 +3679,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3792,16 +3716,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3828,16 +3753,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3864,16 +3790,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3900,16 +3827,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3936,16 +3864,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3972,16 +3901,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4008,16 +3938,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4044,16 +3975,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4080,16 +4012,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4116,16 +4049,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4152,16 +4086,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4188,16 +4123,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4224,16 +4160,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4260,16 +4197,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4296,16 +4234,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4332,16 +4271,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4368,16 +4308,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4404,16 +4345,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4440,16 +4382,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4476,16 +4419,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4512,16 +4456,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4548,16 +4493,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4584,16 +4530,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4620,16 +4567,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4656,16 +4604,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4692,16 +4641,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4728,16 +4678,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4764,16 +4715,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4800,16 +4752,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4836,16 +4789,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4872,16 +4826,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4908,16 +4863,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4944,16 +4900,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4980,16 +4937,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5016,16 +4974,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5052,16 +5011,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5088,16 +5048,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5124,16 +5085,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5160,16 +5122,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5196,16 +5159,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5232,16 +5196,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5268,16 +5233,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5304,16 +5270,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5340,16 +5307,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5376,16 +5344,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5412,16 +5381,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5448,16 +5418,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5484,16 +5455,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5520,16 +5492,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5556,16 +5529,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5592,16 +5566,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5628,16 +5603,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5664,16 +5640,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5700,16 +5677,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5736,16 +5714,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5772,16 +5751,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5808,16 +5788,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5844,16 +5825,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5880,16 +5862,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5916,16 +5899,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5952,16 +5936,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5988,16 +5973,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6024,16 +6010,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6058,18 +6045,19 @@
         <v>-1539819.274844175</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6096,16 +6084,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6132,16 +6121,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6168,16 +6158,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6204,16 +6195,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6240,16 +6232,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6276,16 +6269,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6312,16 +6306,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6348,16 +6343,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6384,16 +6380,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6420,16 +6417,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6454,18 +6452,17 @@
         <v>64715.57029730437</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6492,16 +6489,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6526,18 +6520,15 @@
         <v>-230284.4297026956</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6564,16 +6555,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6600,16 +6588,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6636,16 +6621,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6672,16 +6654,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6708,16 +6687,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6744,16 +6720,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6780,16 +6753,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6816,16 +6786,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6852,16 +6819,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6888,16 +6852,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6924,16 +6885,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6960,16 +6918,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6996,16 +6951,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7032,16 +6984,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7068,16 +7017,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7104,16 +7050,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7140,16 +7083,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7174,18 +7114,15 @@
         <v>-1774901.701624747</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7212,16 +7149,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7248,16 +7182,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7284,16 +7215,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7320,16 +7248,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7356,16 +7281,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7392,16 +7314,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7428,16 +7347,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7464,16 +7380,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7500,16 +7413,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7536,16 +7446,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7572,16 +7479,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7608,16 +7512,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7644,16 +7545,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7680,16 +7578,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7716,16 +7611,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7752,16 +7644,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7788,16 +7677,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7824,16 +7710,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7860,16 +7743,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7896,16 +7776,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7932,16 +7809,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7968,16 +7842,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8004,16 +7875,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8040,16 +7908,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8076,16 +7941,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8112,16 +7974,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8148,16 +8007,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8184,16 +8040,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8220,16 +8073,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8256,16 +8106,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8292,16 +8139,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8328,16 +8172,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8364,16 +8205,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8400,16 +8238,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8436,16 +8271,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8472,16 +8304,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8508,16 +8337,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8544,16 +8370,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8580,16 +8403,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8614,18 +8434,15 @@
         <v>-2077539.512924746</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8650,18 +8467,15 @@
         <v>-2077539.512924746</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8686,18 +8500,15 @@
         <v>-2127539.512924746</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8722,18 +8533,15 @@
         <v>-2247539.512924746</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8758,18 +8566,15 @@
         <v>-2247539.512924746</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8796,16 +8601,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8832,16 +8634,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8868,16 +8667,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8904,16 +8700,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8940,16 +8733,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8976,16 +8766,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9012,16 +8799,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9048,16 +8832,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9084,16 +8865,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9120,16 +8898,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9156,16 +8931,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9192,16 +8964,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9228,16 +8997,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9264,16 +9030,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9300,16 +9063,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9336,16 +9096,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9372,16 +9129,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9408,16 +9162,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9444,18 +9195,15 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1170285.8198</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1261008.182</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1261008.182</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1286258.5906</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1346258.5906</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1396258.5906</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1446258.5906</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1414914.3073</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1443968.5771</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1418342.1261</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1386426.9812</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1276,10 +1276,14 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.883</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1312,8 +1316,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1352,19 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,10 +1393,14 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1408,12 +1430,14 @@
         <v>-1420535.0702</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1.884</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1447,12 +1471,14 @@
         <v>-1420535.0702</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1.881</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1486,12 +1512,14 @@
         <v>-247114.7794999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1.881</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1525,12 +1553,12 @@
         <v>-247114.7794999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1567,7 +1595,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1604,7 +1634,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1641,7 +1673,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1675,10 +1709,12 @@
         <v>-289014.3178</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,7 +1751,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,7 +1790,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1789,7 +1829,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1826,7 +1868,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1863,7 +1907,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1900,7 +1946,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1937,7 +1985,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1974,7 +2024,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2011,7 +2063,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2048,7 +2102,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2085,7 +2141,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,7 +2180,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2159,7 +2219,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2196,7 +2258,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2233,7 +2297,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,7 +2336,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2307,7 +2375,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2344,7 +2414,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,7 +2453,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2415,10 +2489,14 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,10 +2530,14 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2489,12 +2571,14 @@
         <v>-1259446.0784</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1.882</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,10 +2612,14 @@
         <v>-1254180.148963455</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,10 +2653,14 @@
         <v>-1255467.245563455</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2605,7 +2697,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,12 +2733,14 @@
         <v>-1701965.802363455</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1.882</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,10 +2774,14 @@
         <v>-1558824.832463455</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,7 +2818,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2755,7 +2857,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,7 +2896,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,7 +2935,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,7 +2974,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,7 +3013,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,7 +3052,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,7 +3091,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,7 +3130,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,7 +3169,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,7 +3208,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3125,7 +3247,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,7 +3286,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3199,7 +3325,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3236,7 +3364,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,7 +3403,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,7 +3442,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,7 +3481,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,7 +3520,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,7 +3559,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,7 +3598,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,7 +3637,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,7 +3676,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,7 +3715,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,7 +3754,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,7 +3793,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,7 +3832,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,7 +3871,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,7 +3910,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,7 +3949,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3828,7 +3988,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,7 +4027,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,7 +4183,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,7 +4222,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,7 +4261,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,7 +4300,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4161,7 +4339,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,7 +4378,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,7 +4417,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,7 +4456,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,7 +4495,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,7 +4534,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4383,7 +4573,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,7 +4612,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,7 +4651,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,7 +4690,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,7 +4729,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,7 +4768,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,7 +4807,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,7 +4846,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,7 +4885,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,7 +4924,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,7 +4963,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,7 +5002,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,7 +5041,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,7 +5080,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,7 +5119,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,7 +5158,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,7 +5197,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,7 +5236,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,7 +5275,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,7 +5314,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,7 +5353,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,7 +5392,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,7 +5431,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,7 +5470,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,7 +5509,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,7 +5548,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,7 +5587,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,17 +5623,19 @@
         <v>-1619610.568444175</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1</v>
+        <v>1.016231422505308</v>
       </c>
       <c r="M138" t="inlineStr"/>
     </row>
@@ -5416,15 +5662,11 @@
         <v>-1266868.349344175</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5453,15 +5695,11 @@
         <v>-1055985.087444175</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5490,15 +5728,11 @@
         <v>-1077286.257744175</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5527,15 +5761,11 @@
         <v>-1007286.257744175</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5564,15 +5794,11 @@
         <v>-1028496.784344175</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5601,15 +5827,11 @@
         <v>-1028496.784344175</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5638,15 +5860,11 @@
         <v>-1083496.784344175</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5675,15 +5893,11 @@
         <v>-1083496.784344175</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5712,15 +5926,11 @@
         <v>-1083496.784344175</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5749,15 +5959,11 @@
         <v>-1101881.995144175</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5786,15 +5992,11 @@
         <v>-1101881.995144175</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5823,15 +6025,11 @@
         <v>-1353408.867444175</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5864,11 +6062,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5901,11 +6095,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5938,11 +6128,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5975,11 +6161,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +6194,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6045,15 +6223,11 @@
         <v>-1539819.274844175</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +6260,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6123,11 +6293,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6326,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6197,11 +6359,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +6392,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +6425,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6458,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6345,11 +6491,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6382,11 +6524,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6415,15 +6553,11 @@
         <v>386103.3166973044</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6452,16 +6586,14 @@
         <v>64715.57029730437</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6487,7 +6619,7 @@
         <v>9715.570297304366</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6520,7 +6652,7 @@
         <v>-230284.4297026956</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6553,7 +6685,7 @@
         <v>-709121.5837026956</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6619,7 +6751,7 @@
         <v>-1964077.869502696</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6817,7 +6949,7 @@
         <v>-893402.9416026955</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7114,7 +7246,7 @@
         <v>-1774901.701624747</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -8434,7 +8566,7 @@
         <v>-2077539.512924746</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8467,7 +8599,7 @@
         <v>-2077539.512924746</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8500,7 +8632,7 @@
         <v>-2127539.512924746</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8533,7 +8665,7 @@
         <v>-2247539.512924746</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8566,7 +8698,7 @@
         <v>-2247539.512924746</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9204,6 +9336,6 @@
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1170285.8198</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1261008.182</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1261008.182</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1311008.182</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1210,10 +1210,14 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.883</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1243,11 +1247,19 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1284,7 +1296,11 @@
       <c r="J27" t="n">
         <v>1.883</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1352,19 +1362,11 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -2489,11 +2491,9 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>1.884</v>
       </c>
@@ -2530,11 +2530,9 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>1.884</v>
       </c>
@@ -2571,11 +2569,9 @@
         <v>-1259446.0784</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>1.884</v>
       </c>
@@ -2612,11 +2608,9 @@
         <v>-1254180.148963455</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>1.884</v>
       </c>
@@ -2653,11 +2647,9 @@
         <v>-1255467.245563455</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>1.884</v>
       </c>
@@ -2733,11 +2725,9 @@
         <v>-1701965.802363455</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>1.884</v>
       </c>
@@ -2774,11 +2764,9 @@
         <v>-1558824.832463455</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>1.884</v>
       </c>
@@ -4180,7 +4168,7 @@
         <v>205608.7386558254</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
@@ -4188,11 +4176,11 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>1.014108280254777</v>
       </c>
       <c r="M101" t="inlineStr"/>
     </row>
@@ -4222,14 +4210,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +4243,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +4276,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4336,17 +4306,11 @@
         <v>176923.5996558254</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4375,17 +4339,11 @@
         <v>164413.8393558254</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4414,17 +4372,11 @@
         <v>-166894.6727441745</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4453,17 +4405,11 @@
         <v>-29423.35404417454</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4441,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4474,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4507,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4540,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4573,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4606,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4639,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4672,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4705,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4738,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4771,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4804,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4837,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5002,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5041,14 +4903,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5080,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5119,14 +4969,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +5002,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5197,14 +5035,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +5068,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +5101,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +5134,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +5200,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +5266,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +5299,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5548,14 +5332,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5587,14 +5365,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5623,19 +5395,13 @@
         <v>-1619610.568444175</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>1.016231422505308</v>
+        <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
     </row>
@@ -5662,7 +5428,7 @@
         <v>-1266868.349344175</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5695,7 +5461,7 @@
         <v>-1055985.087444175</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5728,7 +5494,7 @@
         <v>-1077286.257744175</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5761,7 +5527,7 @@
         <v>-1007286.257744175</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5794,7 +5560,7 @@
         <v>-1028496.784344175</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5827,7 +5593,7 @@
         <v>-1028496.784344175</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5860,7 +5626,7 @@
         <v>-1083496.784344175</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5893,7 +5659,7 @@
         <v>-1083496.784344175</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5926,7 +5692,7 @@
         <v>-1083496.784344175</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5959,7 +5725,7 @@
         <v>-1101881.995144175</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5992,7 +5758,7 @@
         <v>-1101881.995144175</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6025,7 +5791,7 @@
         <v>-1353408.867444175</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6553,7 +6319,7 @@
         <v>386103.3166973044</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6586,7 +6352,7 @@
         <v>64715.57029730437</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6652,7 +6418,7 @@
         <v>-230284.4297026956</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6685,7 +6451,7 @@
         <v>-709121.5837026956</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6718,7 +6484,7 @@
         <v>-1864077.869502696</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6751,7 +6517,7 @@
         <v>-1964077.869502696</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6949,7 +6715,7 @@
         <v>-893402.9416026955</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7477,7 +7243,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7543,7 +7309,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7873,7 +7639,7 @@
         <v>-2021786.068224746</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7906,7 +7672,7 @@
         <v>-1578152.736624746</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7939,7 +7705,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7972,7 +7738,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8005,7 +7771,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -9336,6 +9102,6 @@
       <c r="M250" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -1210,14 +1210,10 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1247,19 +1243,11 @@
         <v>-1415535.0702</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1276,11 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1362,10 +1342,14 @@
         <v>-1365535.0702</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.884</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1403,7 +1387,11 @@
       <c r="J30" t="n">
         <v>1.884</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -2530,9 +2518,11 @@
         <v>-1303006.3604</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J59" t="n">
         <v>1.884</v>
       </c>
@@ -2569,9 +2559,11 @@
         <v>-1259446.0784</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J60" t="n">
         <v>1.884</v>
       </c>
@@ -2608,9 +2600,11 @@
         <v>-1254180.148963455</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.89</v>
+      </c>
       <c r="J61" t="n">
         <v>1.884</v>
       </c>
@@ -2725,9 +2719,11 @@
         <v>-1701965.802363455</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J64" t="n">
         <v>1.884</v>
       </c>
@@ -2764,9 +2760,11 @@
         <v>-1558824.832463455</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.881</v>
+      </c>
       <c r="J65" t="n">
         <v>1.884</v>
       </c>
@@ -2803,9 +2801,11 @@
         <v>-1575003.835963455</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.919</v>
+      </c>
       <c r="J66" t="n">
         <v>1.884</v>
       </c>
@@ -2881,9 +2881,11 @@
         <v>-1852624.697763456</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.892</v>
+      </c>
       <c r="J68" t="n">
         <v>1.884</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>205608.7386558254</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
@@ -4176,11 +4178,11 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.014108280254777</v>
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
     </row>
@@ -4210,8 +4212,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4243,8 +4251,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4276,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4306,11 +4326,17 @@
         <v>176923.5996558254</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4339,11 +4365,17 @@
         <v>164413.8393558254</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4372,11 +4404,17 @@
         <v>-166894.6727441745</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4405,11 +4443,17 @@
         <v>-29423.35404417454</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4441,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4474,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4507,8 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4540,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4573,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4606,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4639,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4672,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4705,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4738,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4771,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4804,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4837,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4870,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4903,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4936,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4969,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5002,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5035,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5068,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5101,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5134,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5167,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5200,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5233,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5266,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5299,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5332,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5365,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5398,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5431,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5733,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5563,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5596,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5629,8 +5889,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5662,8 +5928,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5695,8 +5967,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5728,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5761,8 +6045,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5827,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5860,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5893,8 +6201,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5926,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5959,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5992,8 +6318,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6025,8 +6357,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6513,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6289,8 +6669,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6319,13 +6705,19 @@
         <v>386103.3166973044</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>1.030031847133758</v>
       </c>
       <c r="M166" t="inlineStr"/>
     </row>
@@ -6352,7 +6744,7 @@
         <v>64715.57029730437</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6385,7 +6777,7 @@
         <v>9715.570297304366</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6484,7 +6876,7 @@
         <v>-1864077.869502696</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7243,7 +7635,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7309,7 +7701,7 @@
         <v>-1634574.630024747</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7639,7 +8031,7 @@
         <v>-2021786.068224746</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7672,7 +8064,7 @@
         <v>-1578152.736624746</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7705,7 +8097,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7738,7 +8130,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7771,7 +8163,7 @@
         <v>-2888068.841224746</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest HYC.xlsx
+++ b/BackTest/2020-01-11 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M250"/>
+  <dimension ref="A1:L250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>50000</v>
       </c>
       <c r="G2" t="n">
-        <v>-1170285.8198</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>90722.3622</v>
       </c>
       <c r="G3" t="n">
-        <v>-1261008.182</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>70000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1261008.182</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>50000</v>
       </c>
       <c r="G5" t="n">
-        <v>-1311008.182</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>45000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1311008.182</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>65000</v>
       </c>
       <c r="G7" t="n">
-        <v>-1311008.182</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>48798.1488</v>
       </c>
       <c r="G8" t="n">
-        <v>-1311008.182</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>24749.5914</v>
       </c>
       <c r="G9" t="n">
-        <v>-1286258.5906</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>60000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1346258.5906</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>50000</v>
       </c>
       <c r="G11" t="n">
-        <v>-1396258.5906</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>50000</v>
       </c>
       <c r="G12" t="n">
-        <v>-1446258.5906</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>31344.2833</v>
       </c>
       <c r="G13" t="n">
-        <v>-1414914.3073</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>29054.2698</v>
       </c>
       <c r="G14" t="n">
-        <v>-1443968.5771</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>25626.451</v>
       </c>
       <c r="G15" t="n">
-        <v>-1418342.1261</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>26915.1449</v>
       </c>
       <c r="G16" t="n">
-        <v>-1391426.9812</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>45000</v>
       </c>
       <c r="G17" t="n">
-        <v>-1436426.9812</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>50000</v>
       </c>
       <c r="G18" t="n">
-        <v>-1386426.9812</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>76150.185</v>
       </c>
       <c r="G19" t="n">
-        <v>-1386426.9812</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>-1436426.9812</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20891.911</v>
       </c>
       <c r="G21" t="n">
-        <v>-1415535.0702</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>60000</v>
       </c>
       <c r="G22" t="n">
-        <v>-1475535.0702</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>45000</v>
       </c>
       <c r="G23" t="n">
-        <v>-1520535.0702</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>105000</v>
       </c>
       <c r="G24" t="n">
-        <v>-1415535.0702</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>60000</v>
       </c>
       <c r="G25" t="n">
-        <v>-1415535.0702</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>60000</v>
       </c>
       <c r="G26" t="n">
-        <v>-1415535.0702</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>50000</v>
       </c>
       <c r="G27" t="n">
-        <v>-1365535.0702</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,19 @@
         <v>65000</v>
       </c>
       <c r="G28" t="n">
-        <v>-1365535.0702</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,22 +1257,23 @@
         <v>45000</v>
       </c>
       <c r="G29" t="n">
-        <v>-1365535.0702</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>1.884</v>
       </c>
       <c r="I29" t="n">
         <v>1.884</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1376,26 +1295,23 @@
         <v>50000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1365535.0702</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>1.884</v>
       </c>
       <c r="I30" t="n">
         <v>1.884</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1417,26 +1333,23 @@
         <v>55000</v>
       </c>
       <c r="G31" t="n">
-        <v>-1420535.0702</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>1.884</v>
       </c>
       <c r="I31" t="n">
         <v>1.884</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1458,26 +1371,23 @@
         <v>65000</v>
       </c>
       <c r="G32" t="n">
-        <v>-1420535.0702</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>1.881</v>
       </c>
       <c r="I32" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1499,26 +1409,23 @@
         <v>1173420.2907</v>
       </c>
       <c r="G33" t="n">
-        <v>-247114.7794999999</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1.881</v>
       </c>
       <c r="I33" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1540,24 +1447,21 @@
         <v>70000</v>
       </c>
       <c r="G34" t="n">
-        <v>-247114.7794999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1579,24 +1483,21 @@
         <v>55000</v>
       </c>
       <c r="G35" t="n">
-        <v>-247114.7794999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1618,24 +1519,21 @@
         <v>50000</v>
       </c>
       <c r="G36" t="n">
-        <v>-247114.7794999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1657,24 +1555,21 @@
         <v>55000</v>
       </c>
       <c r="G37" t="n">
-        <v>-247114.7794999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1696,24 +1591,21 @@
         <v>41899.5383</v>
       </c>
       <c r="G38" t="n">
-        <v>-289014.3178</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1735,24 +1627,21 @@
         <v>22987.8231</v>
       </c>
       <c r="G39" t="n">
-        <v>-312002.1408999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1774,24 +1663,21 @@
         <v>71707.0379</v>
       </c>
       <c r="G40" t="n">
-        <v>-312002.1408999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,24 +1699,21 @@
         <v>1020201.4728</v>
       </c>
       <c r="G41" t="n">
-        <v>-1332203.6137</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1852,24 +1735,21 @@
         <v>28227.858</v>
       </c>
       <c r="G42" t="n">
-        <v>-1303975.7557</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1891,24 +1771,21 @@
         <v>59311.9773</v>
       </c>
       <c r="G43" t="n">
-        <v>-1244663.7784</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1930,24 +1807,21 @@
         <v>26384.77</v>
       </c>
       <c r="G44" t="n">
-        <v>-1244663.7784</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1969,24 +1843,21 @@
         <v>188216.5184</v>
       </c>
       <c r="G45" t="n">
-        <v>-1056447.26</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2008,24 +1879,21 @@
         <v>24623.8726</v>
       </c>
       <c r="G46" t="n">
-        <v>-1056447.26</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2047,24 +1915,21 @@
         <v>45000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1101447.26</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2086,24 +1951,21 @@
         <v>8178.8996</v>
       </c>
       <c r="G48" t="n">
-        <v>-1093268.3604</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,24 +1987,21 @@
         <v>55000</v>
       </c>
       <c r="G49" t="n">
-        <v>-1148268.3604</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2164,24 +2023,21 @@
         <v>60000</v>
       </c>
       <c r="G50" t="n">
-        <v>-1208268.3604</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2203,24 +2059,21 @@
         <v>45000</v>
       </c>
       <c r="G51" t="n">
-        <v>-1208268.3604</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2242,24 +2095,21 @@
         <v>262</v>
       </c>
       <c r="G52" t="n">
-        <v>-1208006.3604</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2281,24 +2131,21 @@
         <v>50000</v>
       </c>
       <c r="G53" t="n">
-        <v>-1258006.3604</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2320,24 +2167,21 @@
         <v>70000</v>
       </c>
       <c r="G54" t="n">
-        <v>-1258006.3604</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2359,24 +2203,21 @@
         <v>45000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1303006.3604</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2398,24 +2239,21 @@
         <v>55000</v>
       </c>
       <c r="G56" t="n">
-        <v>-1303006.3604</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2437,24 +2275,21 @@
         <v>55000</v>
       </c>
       <c r="G57" t="n">
-        <v>-1303006.3604</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2476,24 +2311,21 @@
         <v>76631.9755</v>
       </c>
       <c r="G58" t="n">
-        <v>-1303006.3604</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2515,26 +2347,21 @@
         <v>45000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1303006.3604</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2556,26 +2383,21 @@
         <v>43560.282</v>
       </c>
       <c r="G60" t="n">
-        <v>-1259446.0784</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2597,26 +2419,21 @@
         <v>5265.929436545</v>
       </c>
       <c r="G61" t="n">
-        <v>-1254180.148963455</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,24 +2455,21 @@
         <v>1287.0966</v>
       </c>
       <c r="G62" t="n">
-        <v>-1255467.245563455</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2677,24 +2491,21 @@
         <v>99000</v>
       </c>
       <c r="G63" t="n">
-        <v>-1354467.245563455</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2716,26 +2527,21 @@
         <v>347498.5568</v>
       </c>
       <c r="G64" t="n">
-        <v>-1701965.802363455</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2757,26 +2563,21 @@
         <v>143140.9699</v>
       </c>
       <c r="G65" t="n">
-        <v>-1558824.832463455</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2798,26 +2599,21 @@
         <v>16179.0035</v>
       </c>
       <c r="G66" t="n">
-        <v>-1575003.835963455</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2839,24 +2635,21 @@
         <v>277620.8618</v>
       </c>
       <c r="G67" t="n">
-        <v>-1852624.697763456</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2878,26 +2671,21 @@
         <v>40859.9098</v>
       </c>
       <c r="G68" t="n">
-        <v>-1852624.697763456</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>1.884</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2919,24 +2707,21 @@
         <v>717363.9157</v>
       </c>
       <c r="G69" t="n">
-        <v>-1852624.697763456</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2958,24 +2743,21 @@
         <v>56720.2879</v>
       </c>
       <c r="G70" t="n">
-        <v>-1795904.409863455</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2997,24 +2779,21 @@
         <v>104301.47391928</v>
       </c>
       <c r="G71" t="n">
-        <v>-1691602.935944175</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3036,24 +2815,21 @@
         <v>100094.3373</v>
       </c>
       <c r="G72" t="n">
-        <v>-1791697.273244175</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3075,24 +2851,21 @@
         <v>8783.9925</v>
       </c>
       <c r="G73" t="n">
-        <v>-1800481.265744175</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3114,24 +2887,21 @@
         <v>29297.7086</v>
       </c>
       <c r="G74" t="n">
-        <v>-1800481.265744175</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,24 +2923,21 @@
         <v>8492.134599999999</v>
       </c>
       <c r="G75" t="n">
-        <v>-1791989.131144175</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3192,24 +2959,21 @@
         <v>122927.7806</v>
       </c>
       <c r="G76" t="n">
-        <v>-1914916.911744175</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3231,24 +2995,21 @@
         <v>307800</v>
       </c>
       <c r="G77" t="n">
-        <v>-1607116.911744175</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3270,24 +3031,21 @@
         <v>898557.8678</v>
       </c>
       <c r="G78" t="n">
-        <v>-2505674.779544175</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3309,24 +3067,21 @@
         <v>149000</v>
       </c>
       <c r="G79" t="n">
-        <v>-2356674.779544175</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3348,24 +3103,21 @@
         <v>55000</v>
       </c>
       <c r="G80" t="n">
-        <v>-2411674.779544175</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3387,24 +3139,21 @@
         <v>45000</v>
       </c>
       <c r="G81" t="n">
-        <v>-2411674.779544175</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3426,24 +3175,21 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-2410674.779544175</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3465,24 +3211,21 @@
         <v>25000</v>
       </c>
       <c r="G83" t="n">
-        <v>-2435674.779544175</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3504,24 +3247,21 @@
         <v>25000</v>
       </c>
       <c r="G84" t="n">
-        <v>-2435674.779544175</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3543,24 +3283,21 @@
         <v>67765.08319999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-2503439.862744175</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3582,24 +3319,21 @@
         <v>26195.0166</v>
       </c>
       <c r="G86" t="n">
-        <v>-2477244.846144175</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3621,24 +3355,21 @@
         <v>207631.2693</v>
       </c>
       <c r="G87" t="n">
-        <v>-2477244.846144175</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3660,24 +3391,21 @@
         <v>24849.1794</v>
       </c>
       <c r="G88" t="n">
-        <v>-2477244.846144175</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3699,24 +3427,21 @@
         <v>272325.509</v>
       </c>
       <c r="G89" t="n">
-        <v>-2204919.337144175</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3738,24 +3463,21 @@
         <v>346756.1156</v>
       </c>
       <c r="G90" t="n">
-        <v>-1858163.221544174</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3777,24 +3499,21 @@
         <v>116856.858</v>
       </c>
       <c r="G91" t="n">
-        <v>-1741306.363544174</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3816,24 +3535,21 @@
         <v>966143.8611</v>
       </c>
       <c r="G92" t="n">
-        <v>-775162.5024441745</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3855,24 +3571,21 @@
         <v>117753.8299</v>
       </c>
       <c r="G93" t="n">
-        <v>-892916.3323441745</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3894,24 +3607,21 @@
         <v>606581.0336</v>
       </c>
       <c r="G94" t="n">
-        <v>-286335.2987441745</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3933,24 +3643,21 @@
         <v>317064.6674</v>
       </c>
       <c r="G95" t="n">
-        <v>-603399.9661441746</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3972,24 +3679,21 @@
         <v>679393.3678</v>
       </c>
       <c r="G96" t="n">
-        <v>75993.40165582544</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4011,24 +3715,21 @@
         <v>191287.8738</v>
       </c>
       <c r="G97" t="n">
-        <v>267281.2754558254</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4050,24 +3751,21 @@
         <v>17061.7685</v>
       </c>
       <c r="G98" t="n">
-        <v>250219.5069558254</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4089,24 +3787,21 @@
         <v>17061.7684</v>
       </c>
       <c r="G99" t="n">
-        <v>233157.7385558254</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4128,24 +3823,21 @@
         <v>251</v>
       </c>
       <c r="G100" t="n">
-        <v>233408.7385558254</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4167,24 +3859,21 @@
         <v>27799.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>205608.7386558254</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4206,24 +3895,21 @@
         <v>50000</v>
       </c>
       <c r="G102" t="n">
-        <v>155608.7386558254</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4245,24 +3931,21 @@
         <v>356709.5172</v>
       </c>
       <c r="G103" t="n">
-        <v>155608.7386558254</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4284,24 +3967,21 @@
         <v>60000</v>
       </c>
       <c r="G104" t="n">
-        <v>215608.7386558254</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4323,24 +4003,21 @@
         <v>38685.139</v>
       </c>
       <c r="G105" t="n">
-        <v>176923.5996558254</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4362,24 +4039,21 @@
         <v>12509.7603</v>
       </c>
       <c r="G106" t="n">
-        <v>164413.8393558254</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4401,24 +4075,21 @@
         <v>331308.5121</v>
       </c>
       <c r="G107" t="n">
-        <v>-166894.6727441745</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4440,24 +4111,21 @@
         <v>137471.3187</v>
       </c>
       <c r="G108" t="n">
-        <v>-29423.35404417454</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4479,24 +4147,21 @@
         <v>786566.2754</v>
       </c>
       <c r="G109" t="n">
-        <v>-815989.6294441746</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4518,24 +4183,21 @@
         <v>5464.7862</v>
       </c>
       <c r="G110" t="n">
-        <v>-815989.6294441746</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4557,24 +4219,21 @@
         <v>7914.731</v>
       </c>
       <c r="G111" t="n">
-        <v>-815989.6294441746</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4596,24 +4255,21 @@
         <v>8410.1096</v>
       </c>
       <c r="G112" t="n">
-        <v>-807579.5198441746</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4635,24 +4291,21 @@
         <v>15389.7825</v>
       </c>
       <c r="G113" t="n">
-        <v>-822969.3023441746</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4674,24 +4327,21 @@
         <v>155205.4237</v>
       </c>
       <c r="G114" t="n">
-        <v>-822969.3023441746</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4713,24 +4363,21 @@
         <v>66666.77770000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-889636.0800441746</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4752,24 +4399,21 @@
         <v>41853.942</v>
       </c>
       <c r="G116" t="n">
-        <v>-889636.0800441746</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4791,24 +4435,21 @@
         <v>91052.511</v>
       </c>
       <c r="G117" t="n">
-        <v>-889636.0800441746</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4830,24 +4471,21 @@
         <v>32648.4251</v>
       </c>
       <c r="G118" t="n">
-        <v>-889636.0800441746</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4869,24 +4507,21 @@
         <v>17010.9579</v>
       </c>
       <c r="G119" t="n">
-        <v>-872625.1221441745</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4908,24 +4543,21 @@
         <v>598412.0988</v>
       </c>
       <c r="G120" t="n">
-        <v>-1471037.220944175</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4947,24 +4579,21 @@
         <v>10755</v>
       </c>
       <c r="G121" t="n">
-        <v>-1460282.220944175</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4986,24 +4615,21 @@
         <v>50000</v>
       </c>
       <c r="G122" t="n">
-        <v>-1460282.220944175</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5025,24 +4651,21 @@
         <v>140347.211</v>
       </c>
       <c r="G123" t="n">
-        <v>-1460282.220944175</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5064,24 +4687,21 @@
         <v>412899.733</v>
       </c>
       <c r="G124" t="n">
-        <v>-1047382.487944175</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5103,24 +4723,21 @@
         <v>25948.0881</v>
       </c>
       <c r="G125" t="n">
-        <v>-1073330.576044175</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5142,24 +4759,21 @@
         <v>1092.1515</v>
       </c>
       <c r="G126" t="n">
-        <v>-1073330.576044175</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5181,24 +4795,21 @@
         <v>155196.482</v>
       </c>
       <c r="G127" t="n">
-        <v>-1073330.576044175</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5220,24 +4831,21 @@
         <v>869306.1629999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-1942636.739044175</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5259,24 +4867,21 @@
         <v>23456.4637</v>
       </c>
       <c r="G129" t="n">
-        <v>-1919180.275344175</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5298,24 +4903,21 @@
         <v>20111.8764</v>
       </c>
       <c r="G130" t="n">
-        <v>-1919180.275344175</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5337,24 +4939,21 @@
         <v>23665.8382</v>
       </c>
       <c r="G131" t="n">
-        <v>-1919180.275344175</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5376,24 +4975,21 @@
         <v>17577.3362</v>
       </c>
       <c r="G132" t="n">
-        <v>-1919180.275344175</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5415,24 +5011,21 @@
         <v>3521.5772</v>
       </c>
       <c r="G133" t="n">
-        <v>-1922701.852544175</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5454,24 +5047,21 @@
         <v>98623.69960000001</v>
       </c>
       <c r="G134" t="n">
-        <v>-1824078.152944175</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5493,24 +5083,21 @@
         <v>317114.7174</v>
       </c>
       <c r="G135" t="n">
-        <v>-2141192.870344175</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5532,24 +5119,21 @@
         <v>29781.1385</v>
       </c>
       <c r="G136" t="n">
-        <v>-2111411.731844175</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5571,24 +5155,21 @@
         <v>491801.1634</v>
       </c>
       <c r="G137" t="n">
-        <v>-1619610.568444175</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5610,24 +5191,21 @@
         <v>50249.6988</v>
       </c>
       <c r="G138" t="n">
-        <v>-1619610.568444175</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5649,24 +5227,21 @@
         <v>352742.2191</v>
       </c>
       <c r="G139" t="n">
-        <v>-1266868.349344175</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5688,24 +5263,21 @@
         <v>210883.2619</v>
       </c>
       <c r="G140" t="n">
-        <v>-1055985.087444175</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5727,24 +5299,21 @@
         <v>21301.1703</v>
       </c>
       <c r="G141" t="n">
-        <v>-1077286.257744175</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5766,24 +5335,21 @@
         <v>70000</v>
       </c>
       <c r="G142" t="n">
-        <v>-1007286.257744175</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5805,24 +5371,21 @@
         <v>21210.5266</v>
       </c>
       <c r="G143" t="n">
-        <v>-1028496.784344175</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5844,24 +5407,21 @@
         <v>8330.563399999999</v>
       </c>
       <c r="G144" t="n">
-        <v>-1028496.784344175</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5883,24 +5443,21 @@
         <v>55000</v>
       </c>
       <c r="G145" t="n">
-        <v>-1083496.784344175</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5922,24 +5479,21 @@
         <v>20377.7255</v>
       </c>
       <c r="G146" t="n">
-        <v>-1083496.784344175</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5961,24 +5515,21 @@
         <v>100000</v>
       </c>
       <c r="G147" t="n">
-        <v>-1083496.784344175</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6000,24 +5551,21 @@
         <v>18385.2108</v>
       </c>
       <c r="G148" t="n">
-        <v>-1101881.995144175</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6039,24 +5587,21 @@
         <v>27023.3741</v>
       </c>
       <c r="G149" t="n">
-        <v>-1101881.995144175</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6078,24 +5623,21 @@
         <v>251526.8723</v>
       </c>
       <c r="G150" t="n">
-        <v>-1353408.867444175</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6117,24 +5659,21 @@
         <v>57510</v>
       </c>
       <c r="G151" t="n">
-        <v>-1295898.867444175</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6156,24 +5695,21 @@
         <v>19170</v>
       </c>
       <c r="G152" t="n">
-        <v>-1295898.867444175</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6195,24 +5731,21 @@
         <v>321159.9858</v>
       </c>
       <c r="G153" t="n">
-        <v>-1617058.853244175</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6234,24 +5767,21 @@
         <v>25053.069</v>
       </c>
       <c r="G154" t="n">
-        <v>-1642111.922244175</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6273,24 +5803,21 @@
         <v>102292.6474</v>
       </c>
       <c r="G155" t="n">
-        <v>-1539819.274844175</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6312,24 +5839,21 @@
         <v>1722.3346</v>
       </c>
       <c r="G156" t="n">
-        <v>-1539819.274844175</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6351,24 +5875,21 @@
         <v>88753.8567</v>
       </c>
       <c r="G157" t="n">
-        <v>-1628573.131544175</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6390,24 +5911,21 @@
         <v>45000</v>
       </c>
       <c r="G158" t="n">
-        <v>-1673573.131544175</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6429,24 +5947,21 @@
         <v>22670.1009</v>
       </c>
       <c r="G159" t="n">
-        <v>-1673573.131544175</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6468,24 +5983,21 @@
         <v>12771.7459</v>
       </c>
       <c r="G160" t="n">
-        <v>-1660801.385644175</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6507,24 +6019,21 @@
         <v>45000</v>
       </c>
       <c r="G161" t="n">
-        <v>-1660801.385644175</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6546,24 +6055,21 @@
         <v>159434.6276</v>
       </c>
       <c r="G162" t="n">
-        <v>-1660801.385644175</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6585,24 +6091,21 @@
         <v>20482.5571</v>
       </c>
       <c r="G163" t="n">
-        <v>-1660801.385644175</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6624,24 +6127,21 @@
         <v>1611483.129950253</v>
       </c>
       <c r="G164" t="n">
-        <v>-49318.25569392159</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6663,24 +6163,21 @@
         <v>363077.200491226</v>
       </c>
       <c r="G165" t="n">
-        <v>313758.9447973044</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6702,24 +6199,21 @@
         <v>72344.3719</v>
       </c>
       <c r="G166" t="n">
-        <v>386103.3166973044</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.884</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1.030031847133758</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6741,18 +6235,21 @@
         <v>321387.7464</v>
       </c>
       <c r="G167" t="n">
-        <v>64715.57029730437</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1.023131634819533</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6774,18 +6271,15 @@
         <v>55000</v>
       </c>
       <c r="G168" t="n">
-        <v>9715.570297304366</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6807,18 +6301,15 @@
         <v>240000</v>
       </c>
       <c r="G169" t="n">
-        <v>-230284.4297026956</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6840,18 +6331,15 @@
         <v>478837.154</v>
       </c>
       <c r="G170" t="n">
-        <v>-709121.5837026956</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6873,18 +6361,15 @@
         <v>1154956.2858</v>
       </c>
       <c r="G171" t="n">
-        <v>-1864077.869502696</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6906,18 +6391,15 @@
         <v>100000</v>
       </c>
       <c r="G172" t="n">
-        <v>-1964077.869502696</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6939,18 +6421,15 @@
         <v>931486.8857</v>
       </c>
       <c r="G173" t="n">
-        <v>-1032590.983802696</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6972,18 +6451,15 @@
         <v>129997.0858</v>
       </c>
       <c r="G174" t="n">
-        <v>-902593.8980026955</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7005,18 +6481,15 @@
         <v>55000</v>
       </c>
       <c r="G175" t="n">
-        <v>-957593.8980026955</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7038,18 +6511,15 @@
         <v>54013.3146</v>
       </c>
       <c r="G176" t="n">
-        <v>-903580.5834026955</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7071,18 +6541,15 @@
         <v>10177.6418</v>
       </c>
       <c r="G177" t="n">
-        <v>-893402.9416026955</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7104,18 +6571,15 @@
         <v>26873.6855</v>
       </c>
       <c r="G178" t="n">
-        <v>-893402.9416026955</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7137,18 +6601,15 @@
         <v>137710.137822051</v>
       </c>
       <c r="G179" t="n">
-        <v>-1031113.079424747</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7170,18 +6631,15 @@
         <v>15641.4669</v>
       </c>
       <c r="G180" t="n">
-        <v>-1031113.079424747</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7203,18 +6661,15 @@
         <v>45000</v>
       </c>
       <c r="G181" t="n">
-        <v>-1076113.079424747</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7236,18 +6691,15 @@
         <v>8061.3779</v>
       </c>
       <c r="G182" t="n">
-        <v>-1068051.701524747</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7269,18 +6721,15 @@
         <v>15641.4669</v>
       </c>
       <c r="G183" t="n">
-        <v>-1068051.701524747</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7302,18 +6751,15 @@
         <v>7989.3537</v>
       </c>
       <c r="G184" t="n">
-        <v>-1068051.701524747</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7335,18 +6781,15 @@
         <v>35455.3272</v>
       </c>
       <c r="G185" t="n">
-        <v>-1032596.374324747</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7368,18 +6811,15 @@
         <v>300000</v>
       </c>
       <c r="G186" t="n">
-        <v>-1332596.374324747</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7401,18 +6841,15 @@
         <v>442305.3273</v>
       </c>
       <c r="G187" t="n">
-        <v>-1774901.701624747</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7434,18 +6871,15 @@
         <v>103281.1962</v>
       </c>
       <c r="G188" t="n">
-        <v>-1878182.897824747</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7467,18 +6901,15 @@
         <v>60000</v>
       </c>
       <c r="G189" t="n">
-        <v>-1818182.897824747</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7500,18 +6931,15 @@
         <v>204386.3398</v>
       </c>
       <c r="G190" t="n">
-        <v>-1613796.558024747</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7533,18 +6961,15 @@
         <v>20778.072</v>
       </c>
       <c r="G191" t="n">
-        <v>-1634574.630024747</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7566,18 +6991,15 @@
         <v>20496.3083</v>
       </c>
       <c r="G192" t="n">
-        <v>-1634574.630024747</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7599,18 +7021,15 @@
         <v>62000.2079</v>
       </c>
       <c r="G193" t="n">
-        <v>-1634574.630024747</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7632,18 +7051,15 @@
         <v>56757.555</v>
       </c>
       <c r="G194" t="n">
-        <v>-1634574.630024747</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7665,18 +7081,15 @@
         <v>59998.9729</v>
       </c>
       <c r="G195" t="n">
-        <v>-1634574.630024747</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7698,18 +7111,15 @@
         <v>21282.1678</v>
       </c>
       <c r="G196" t="n">
-        <v>-1634574.630024747</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7731,18 +7141,15 @@
         <v>45000</v>
       </c>
       <c r="G197" t="n">
-        <v>-1679574.630024747</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7764,18 +7171,15 @@
         <v>350.0415</v>
       </c>
       <c r="G198" t="n">
-        <v>-1679224.588524746</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7797,18 +7201,15 @@
         <v>118450.9837</v>
       </c>
       <c r="G199" t="n">
-        <v>-1797675.572224746</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7830,18 +7231,15 @@
         <v>153214.0662</v>
       </c>
       <c r="G200" t="n">
-        <v>-1644461.506024746</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7863,18 +7261,15 @@
         <v>50000</v>
       </c>
       <c r="G201" t="n">
-        <v>-1644461.506024746</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7896,18 +7291,15 @@
         <v>350000</v>
       </c>
       <c r="G202" t="n">
-        <v>-1644461.506024746</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7929,18 +7321,15 @@
         <v>105429.6257</v>
       </c>
       <c r="G203" t="n">
-        <v>-1539031.880324746</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7962,18 +7351,15 @@
         <v>47750</v>
       </c>
       <c r="G204" t="n">
-        <v>-1586781.880324746</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7995,18 +7381,15 @@
         <v>375411.951</v>
       </c>
       <c r="G205" t="n">
-        <v>-1962193.831324746</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8028,18 +7411,15 @@
         <v>59592.2369</v>
       </c>
       <c r="G206" t="n">
-        <v>-2021786.068224746</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8061,18 +7441,15 @@
         <v>443633.3316</v>
       </c>
       <c r="G207" t="n">
-        <v>-1578152.736624746</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8094,18 +7471,15 @@
         <v>1309916.1046</v>
       </c>
       <c r="G208" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8127,18 +7501,15 @@
         <v>510131.2896</v>
       </c>
       <c r="G209" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8160,18 +7531,15 @@
         <v>367604.1104</v>
       </c>
       <c r="G210" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8193,18 +7561,15 @@
         <v>169354.8107</v>
       </c>
       <c r="G211" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8226,18 +7591,15 @@
         <v>200000</v>
       </c>
       <c r="G212" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8259,18 +7621,15 @@
         <v>23500</v>
       </c>
       <c r="G213" t="n">
-        <v>-2888068.841224746</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8292,18 +7651,15 @@
         <v>7831.15</v>
       </c>
       <c r="G214" t="n">
-        <v>-2895899.991224746</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8325,18 +7681,15 @@
         <v>454463.47</v>
       </c>
       <c r="G215" t="n">
-        <v>-2441436.521224746</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8358,18 +7711,15 @@
         <v>479605.9773</v>
       </c>
       <c r="G216" t="n">
-        <v>-2921042.498524746</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8391,18 +7741,15 @@
         <v>66369.88830000001</v>
       </c>
       <c r="G217" t="n">
-        <v>-2854672.610224746</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8424,18 +7771,15 @@
         <v>108321.3025</v>
       </c>
       <c r="G218" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8457,18 +7801,15 @@
         <v>1391.2848</v>
       </c>
       <c r="G219" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8490,18 +7831,15 @@
         <v>20000</v>
       </c>
       <c r="G220" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8523,18 +7861,15 @@
         <v>25587.5291</v>
       </c>
       <c r="G221" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8556,18 +7891,15 @@
         <v>18422.5376</v>
       </c>
       <c r="G222" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8589,18 +7921,15 @@
         <v>116353.6453</v>
       </c>
       <c r="G223" t="n">
-        <v>-2746351.307724746</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8622,18 +7951,15 @@
         <v>645973.0152</v>
       </c>
       <c r="G224" t="n">
-        <v>-2100378.292524746</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8655,18 +7981,15 @@
         <v>23500</v>
       </c>
       <c r="G225" t="n">
-        <v>-2100378.292524746</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8688,18 +8011,15 @@
         <v>218722.654</v>
       </c>
       <c r="G226" t="n">
-        <v>-2100378.292524746</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8721,18 +8041,15 @@
         <v>22838.7796</v>
       </c>
       <c r="G227" t="n">
-        <v>-2077539.512924746</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8754,18 +8071,15 @@
         <v>20554.1662</v>
       </c>
       <c r="G228" t="n">
-        <v>-2077539.512924746</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8787,18 +8101,15 @@
         <v>50000</v>
       </c>
       <c r="G229" t="n">
-        <v>-2127539.512924746</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8820,18 +8131,15 @@
         <v>120000</v>
       </c>
       <c r="G230" t="n">
-        <v>-2247539.512924746</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8853,18 +8161,15 @@
         <v>18510.0812</v>
       </c>
       <c r="G231" t="n">
-        <v>-2247539.512924746</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8886,18 +8191,15 @@
         <v>619908.5498</v>
       </c>
       <c r="G232" t="n">
-        <v>-1627630.963124746</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8919,18 +8221,15 @@
         <v>201487.8244</v>
       </c>
       <c r="G233" t="n">
-        <v>-1829118.787524746</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8952,18 +8251,15 @@
         <v>55000</v>
       </c>
       <c r="G234" t="n">
-        <v>-1884118.787524746</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8985,18 +8281,15 @@
         <v>368188.1852</v>
       </c>
       <c r="G235" t="n">
-        <v>-1515930.602324746</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9018,18 +8311,15 @@
         <v>271125.3025</v>
       </c>
       <c r="G236" t="n">
-        <v>-1244805.299824746</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9051,18 +8341,15 @@
         <v>4000</v>
       </c>
       <c r="G237" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9084,18 +8371,15 @@
         <v>53171.2503</v>
       </c>
       <c r="G238" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9117,18 +8401,15 @@
         <v>60000</v>
       </c>
       <c r="G239" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9150,18 +8431,15 @@
         <v>55000</v>
       </c>
       <c r="G240" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9183,18 +8461,15 @@
         <v>25984.5128</v>
       </c>
       <c r="G241" t="n">
-        <v>-1248805.299824746</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9216,18 +8491,15 @@
         <v>45000</v>
       </c>
       <c r="G242" t="n">
-        <v>-1293805.299824746</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9249,18 +8521,15 @@
         <v>697276.8497</v>
       </c>
       <c r="G243" t="n">
-        <v>-596528.4501247456</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9282,18 +8551,15 @@
         <v>60000</v>
       </c>
       <c r="G244" t="n">
-        <v>-656528.4501247456</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9315,18 +8581,15 @@
         <v>361256.544502617</v>
       </c>
       <c r="G245" t="n">
-        <v>-295271.9056221286</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9348,18 +8611,15 @@
         <v>30760</v>
       </c>
       <c r="G246" t="n">
-        <v>-326031.9056221286</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9381,18 +8641,15 @@
         <v>30260</v>
       </c>
       <c r="G247" t="n">
-        <v>-326031.9056221286</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9414,18 +8671,15 @@
         <v>204022.092997383</v>
       </c>
       <c r="G248" t="n">
-        <v>-122009.8126247456</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9447,18 +8701,15 @@
         <v>15384.816753926</v>
       </c>
       <c r="G249" t="n">
-        <v>-122009.8126247456</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9480,18 +8731,15 @@
         <v>21359.8883</v>
       </c>
       <c r="G250" t="n">
-        <v>-143369.7009247456</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
